--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,31 +82,31 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,31 +653,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.035393383193995</v>
+        <v>0.9864892197581748</v>
       </c>
       <c r="D3">
-        <v>0.9864892197581749</v>
+        <v>0.9966426539245945</v>
       </c>
       <c r="E3">
         <v>0.9997484692539274</v>
       </c>
       <c r="F3">
+        <v>0.9864892197581748</v>
+      </c>
+      <c r="G3">
         <v>1.035393383193995</v>
       </c>
-      <c r="G3">
-        <v>0.9970635257884494</v>
-      </c>
       <c r="H3">
-        <v>1.000149672903811</v>
+        <v>1.035393383193995</v>
       </c>
       <c r="I3">
         <v>1.035393383193995</v>
       </c>
       <c r="J3">
-        <v>0.9864892197581749</v>
+        <v>0.9970635257884494</v>
       </c>
       <c r="K3">
-        <v>0.9966426539245946</v>
+        <v>1.000149672903811</v>
       </c>
       <c r="L3">
         <v>1.002130355056269</v>
@@ -740,7 +692,7 @@
         <v>0.9997484692539274</v>
       </c>
       <c r="P3">
-        <v>0.9931188445060511</v>
+        <v>0.993118844506051</v>
       </c>
       <c r="Q3">
         <v>0.9984059975211883</v>
@@ -764,7 +716,7 @@
         <v>1.000997450594869</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.066452356188739</v>
+        <v>0.9730504106611605</v>
       </c>
       <c r="D4">
-        <v>0.9730504106611605</v>
+        <v>0.9934802469088948</v>
       </c>
       <c r="E4">
         <v>0.9989253665115825</v>
       </c>
       <c r="F4">
+        <v>0.9730504106611605</v>
+      </c>
+      <c r="G4">
         <v>1.066452356188739</v>
       </c>
-      <c r="G4">
-        <v>0.9944063090936862</v>
-      </c>
       <c r="H4">
-        <v>1.000568082985541</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="I4">
         <v>1.066452356188739</v>
       </c>
       <c r="J4">
-        <v>0.9730504106611605</v>
+        <v>0.9944063090936862</v>
       </c>
       <c r="K4">
-        <v>0.9934802469088948</v>
+        <v>1.000568082985541</v>
       </c>
       <c r="L4">
         <v>1.005077968433713</v>
       </c>
       <c r="M4">
-        <v>0.9818634497395482</v>
+        <v>0.981863449739548</v>
       </c>
       <c r="N4">
         <v>1.066452356188739</v>
@@ -835,7 +787,7 @@
         <v>1.001728023815358</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,31 +795,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.134622931807166</v>
+        <v>0.9499885091624954</v>
       </c>
       <c r="D5">
-        <v>0.9499885091624954</v>
+        <v>0.9884724921433997</v>
       </c>
       <c r="E5">
         <v>1.000704842250933</v>
       </c>
       <c r="F5">
+        <v>0.9499885091624954</v>
+      </c>
+      <c r="G5">
         <v>1.134622931807166</v>
       </c>
-      <c r="G5">
-        <v>0.989266138962909</v>
-      </c>
       <c r="H5">
-        <v>1.002320974342188</v>
+        <v>1.134622931807166</v>
       </c>
       <c r="I5">
         <v>1.134622931807166</v>
       </c>
       <c r="J5">
-        <v>0.9499885091624954</v>
+        <v>0.989266138962909</v>
       </c>
       <c r="K5">
-        <v>0.9884724921434</v>
+        <v>1.002320974342188</v>
       </c>
       <c r="L5">
         <v>1.008749110771125</v>
@@ -906,7 +858,7 @@
         <v>1.004904921544554</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.246408446492422</v>
+        <v>0.9543317926612693</v>
       </c>
       <c r="D6">
-        <v>0.9543317926612694</v>
+        <v>0.9832267969232706</v>
       </c>
       <c r="E6">
         <v>0.9906540240083817</v>
       </c>
       <c r="F6">
+        <v>0.9543317926612693</v>
+      </c>
+      <c r="G6">
         <v>1.246408446492422</v>
       </c>
-      <c r="G6">
-        <v>1.000509866606461</v>
-      </c>
       <c r="H6">
-        <v>1.007559476848343</v>
+        <v>1.246408446492422</v>
       </c>
       <c r="I6">
         <v>1.246408446492422</v>
       </c>
       <c r="J6">
-        <v>0.9543317926612694</v>
+        <v>1.000509866606461</v>
       </c>
       <c r="K6">
-        <v>0.9832267969232706</v>
+        <v>1.007559476848343</v>
       </c>
       <c r="L6">
-        <v>0.988970328846942</v>
+        <v>0.9889703288469417</v>
       </c>
       <c r="M6">
-        <v>0.9419672602109294</v>
+        <v>0.941967260210929</v>
       </c>
       <c r="N6">
         <v>1.246408446492422</v>
@@ -977,7 +929,7 @@
         <v>1.014203499074752</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,40 +937,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000039776100716</v>
+        <v>0.9987119685366761</v>
       </c>
       <c r="D7">
-        <v>0.998711968536676</v>
+        <v>0.9992764633339984</v>
       </c>
       <c r="E7">
         <v>1.001377935321194</v>
       </c>
       <c r="F7">
-        <v>1.000039776100716</v>
+        <v>0.9987119685366761</v>
       </c>
       <c r="G7">
-        <v>0.9998774934314536</v>
+        <v>1.000039776100717</v>
       </c>
       <c r="H7">
-        <v>1.000577191462694</v>
+        <v>1.000039776100717</v>
       </c>
       <c r="I7">
-        <v>1.000039776100716</v>
+        <v>1.000039776100717</v>
       </c>
       <c r="J7">
-        <v>0.998711968536676</v>
+        <v>0.9998774934314533</v>
       </c>
       <c r="K7">
-        <v>0.9992764633339981</v>
+        <v>1.000577191462693</v>
       </c>
       <c r="L7">
-        <v>1.000992833320638</v>
+        <v>1.000992833320637</v>
       </c>
       <c r="M7">
         <v>0.9989393333205603</v>
       </c>
       <c r="N7">
-        <v>1.000039776100716</v>
+        <v>1.000039776100717</v>
       </c>
       <c r="O7">
         <v>1.001377935321194</v>
@@ -1033,7 +985,7 @@
         <v>1.000043226652862</v>
       </c>
       <c r="S7">
-        <v>0.9999891324297746</v>
+        <v>0.9999891324297745</v>
       </c>
       <c r="T7">
         <v>1.000043226652862</v>
@@ -1042,13 +994,13 @@
         <v>1.00000179334751</v>
       </c>
       <c r="V7">
-        <v>1.000009389898151</v>
+        <v>1.000009389898152</v>
       </c>
       <c r="W7">
-        <v>0.9999741243534913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999741243534912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1008,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000987647989249</v>
+        <v>0.9965612707476728</v>
       </c>
       <c r="D8">
-        <v>0.9965612707476726</v>
+        <v>0.9984680932428042</v>
       </c>
       <c r="E8">
         <v>1.002366836624558</v>
       </c>
       <c r="F8">
-        <v>1.000987647989249</v>
+        <v>0.9965612707476728</v>
       </c>
       <c r="G8">
-        <v>0.9991030117850384</v>
+        <v>1.000987647989247</v>
       </c>
       <c r="H8">
+        <v>1.000987647989247</v>
+      </c>
+      <c r="I8">
+        <v>1.000987647989247</v>
+      </c>
+      <c r="J8">
+        <v>0.9991030117850386</v>
+      </c>
+      <c r="K8">
         <v>1.001513067534599</v>
-      </c>
-      <c r="I8">
-        <v>1.000987647989249</v>
-      </c>
-      <c r="J8">
-        <v>0.9965612707476726</v>
-      </c>
-      <c r="K8">
-        <v>0.9984680932428038</v>
       </c>
       <c r="L8">
         <v>1.002647006073617</v>
       </c>
       <c r="M8">
-        <v>0.996752466766451</v>
+        <v>0.9967524667664508</v>
       </c>
       <c r="N8">
-        <v>1.000987647989249</v>
+        <v>1.000987647989247</v>
       </c>
       <c r="O8">
         <v>1.002366836624558</v>
       </c>
       <c r="P8">
-        <v>0.9994640536861155</v>
+        <v>0.9994640536861156</v>
       </c>
       <c r="Q8">
         <v>1.000734924204798</v>
       </c>
       <c r="R8">
-        <v>0.9999719184538266</v>
+        <v>0.9999719184538259</v>
       </c>
       <c r="S8">
-        <v>0.9993437063857563</v>
+        <v>0.9993437063857566</v>
       </c>
       <c r="T8">
-        <v>0.9999719184538266</v>
+        <v>0.9999719184538259</v>
       </c>
       <c r="U8">
-        <v>0.9997546917866296</v>
+        <v>0.9997546917866291</v>
       </c>
       <c r="V8">
         <v>1.000001283027153</v>
       </c>
       <c r="W8">
-        <v>0.9997999250954986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9997999250954984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,31 +1079,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.003728710044807</v>
+        <v>0.9946986276697146</v>
       </c>
       <c r="D9">
-        <v>0.9946986276697146</v>
+        <v>0.9972174643187566</v>
       </c>
       <c r="E9">
         <v>1.003030823795609</v>
       </c>
       <c r="F9">
+        <v>0.9946986276697146</v>
+      </c>
+      <c r="G9">
         <v>1.003728710044807</v>
       </c>
-      <c r="G9">
-        <v>0.9991926607550546</v>
-      </c>
       <c r="H9">
-        <v>1.001734692446825</v>
+        <v>1.003728710044807</v>
       </c>
       <c r="I9">
         <v>1.003728710044807</v>
       </c>
       <c r="J9">
-        <v>0.9946986276697146</v>
+        <v>0.999192660755055</v>
       </c>
       <c r="K9">
-        <v>0.9972174643187566</v>
+        <v>1.001734692446825</v>
       </c>
       <c r="L9">
         <v>1.003948163384798</v>
@@ -1175,7 +1127,7 @@
         <v>1.00048605383671</v>
       </c>
       <c r="S9">
-        <v>0.9989740374067928</v>
+        <v>0.9989740374067929</v>
       </c>
       <c r="T9">
         <v>1.00048605383671</v>
@@ -1184,13 +1136,13 @@
         <v>1.000162705566296</v>
       </c>
       <c r="V9">
-        <v>1.000875906461999</v>
+        <v>1.000875906461998</v>
       </c>
       <c r="W9">
         <v>0.9999132012464642</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,31 +1150,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.005500729811719</v>
+        <v>0.9886378944404464</v>
       </c>
       <c r="D10">
-        <v>0.9886378944404464</v>
+        <v>0.9944307968624211</v>
       </c>
       <c r="E10">
         <v>1.007541637654862</v>
       </c>
       <c r="F10">
+        <v>0.9886378944404464</v>
+      </c>
+      <c r="G10">
         <v>1.005500729811719</v>
       </c>
-      <c r="G10">
-        <v>0.9982977094773754</v>
-      </c>
       <c r="H10">
-        <v>1.004053608071602</v>
+        <v>1.005500729811719</v>
       </c>
       <c r="I10">
         <v>1.005500729811719</v>
       </c>
       <c r="J10">
-        <v>0.9886378944404464</v>
+        <v>0.9982977094773754</v>
       </c>
       <c r="K10">
-        <v>0.9944307968624211</v>
+        <v>1.004053608071602</v>
       </c>
       <c r="L10">
         <v>1.008468205314685</v>
@@ -1261,7 +1213,7 @@
         <v>0.9997004075965416</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,31 +1221,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.015438697682677</v>
+        <v>0.9815127838832282</v>
       </c>
       <c r="D11">
-        <v>0.9815127838832282</v>
+        <v>0.9912173228511405</v>
       </c>
       <c r="E11">
         <v>1.007916136971942</v>
       </c>
       <c r="F11">
+        <v>0.9815127838832282</v>
+      </c>
+      <c r="G11">
         <v>1.015438697682677</v>
       </c>
-      <c r="G11">
-        <v>0.9962902129651473</v>
-      </c>
       <c r="H11">
-        <v>1.005978381557131</v>
+        <v>1.015438697682677</v>
       </c>
       <c r="I11">
         <v>1.015438697682677</v>
       </c>
       <c r="J11">
-        <v>0.9815127838832282</v>
+        <v>0.9962902129651473</v>
       </c>
       <c r="K11">
-        <v>0.9912173228511406</v>
+        <v>1.005978381557131</v>
       </c>
       <c r="L11">
         <v>1.014645883503999</v>
@@ -1308,7 +1260,7 @@
         <v>1.007916136971942</v>
       </c>
       <c r="P11">
-        <v>0.994714460427585</v>
+        <v>0.9947144604275848</v>
       </c>
       <c r="Q11">
         <v>1.002103174968545</v>
@@ -1317,7 +1269,7 @@
         <v>1.001622539512615</v>
       </c>
       <c r="S11">
-        <v>0.9952397112734391</v>
+        <v>0.995239711273439</v>
       </c>
       <c r="T11">
         <v>1.001622539512615</v>
@@ -1332,7 +1284,7 @@
         <v>0.9996606508700971</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,31 +1292,31 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.492343952233583</v>
+      </c>
+      <c r="D12">
+        <v>0.8897228076815409</v>
+      </c>
+      <c r="E12">
+        <v>0.468438408364756</v>
+      </c>
+      <c r="F12">
+        <v>1.492343952233583</v>
+      </c>
+      <c r="G12">
         <v>1.22717483986535</v>
       </c>
-      <c r="D12">
-        <v>1.492343952233583</v>
-      </c>
-      <c r="E12">
-        <v>0.4684384083647561</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.22717483986535</v>
-      </c>
-      <c r="G12">
-        <v>1.094414183780104</v>
-      </c>
-      <c r="H12">
-        <v>0.7580141281995955</v>
       </c>
       <c r="I12">
         <v>1.22717483986535</v>
       </c>
       <c r="J12">
-        <v>1.492343952233583</v>
+        <v>1.094414183780104</v>
       </c>
       <c r="K12">
-        <v>0.8897228076815409</v>
+        <v>0.7580141281995953</v>
       </c>
       <c r="L12">
         <v>1.120483807619306</v>
@@ -1376,13 +1328,13 @@
         <v>1.22717483986535</v>
       </c>
       <c r="O12">
-        <v>0.4684384083647561</v>
+        <v>0.468438408364756</v>
       </c>
       <c r="P12">
-        <v>0.9803911802991695</v>
+        <v>0.9803911802991696</v>
       </c>
       <c r="Q12">
-        <v>0.7814262960724302</v>
+        <v>0.7814262960724301</v>
       </c>
       <c r="R12">
         <v>1.062652400154563</v>
@@ -1403,7 +1355,7 @@
         <v>1.0415861769979</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,31 +1363,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8463522056953445</v>
+        <v>1.001244636063881</v>
       </c>
       <c r="D13">
-        <v>1.001244636063881</v>
+        <v>1.092070993600726</v>
       </c>
       <c r="E13">
         <v>1.184327289659022</v>
       </c>
       <c r="F13">
-        <v>0.8463522056953445</v>
+        <v>1.001244636063881</v>
       </c>
       <c r="G13">
-        <v>0.9811880439265862</v>
+        <v>0.8463522056953448</v>
       </c>
       <c r="H13">
+        <v>0.8463522056953448</v>
+      </c>
+      <c r="I13">
+        <v>0.8463522056953448</v>
+      </c>
+      <c r="J13">
+        <v>0.9811880439265864</v>
+      </c>
+      <c r="K13">
         <v>1.039186110510082</v>
-      </c>
-      <c r="I13">
-        <v>0.8463522056953445</v>
-      </c>
-      <c r="J13">
-        <v>1.001244636063881</v>
-      </c>
-      <c r="K13">
-        <v>1.092070993600726</v>
       </c>
       <c r="L13">
         <v>0.8627137598215937</v>
@@ -1444,7 +1396,7 @@
         <v>0.9986527860727329</v>
       </c>
       <c r="N13">
-        <v>0.8463522056953445</v>
+        <v>0.8463522056953448</v>
       </c>
       <c r="O13">
         <v>1.184327289659022</v>
@@ -1465,16 +1417,16 @@
         <v>1.010641377139416</v>
       </c>
       <c r="U13">
-        <v>1.003278043836208</v>
+        <v>1.003278043836209</v>
       </c>
       <c r="V13">
-        <v>0.9718928762080357</v>
+        <v>0.9718928762080358</v>
       </c>
       <c r="W13">
         <v>1.000716978168746</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,40 +1434,40 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1650531537870889</v>
+        <v>0.4235912798603679</v>
       </c>
       <c r="D14">
-        <v>0.423591279860368</v>
+        <v>1.357358391039098</v>
       </c>
       <c r="E14">
         <v>1.687979714060704</v>
       </c>
       <c r="F14">
-        <v>0.1650531537870889</v>
+        <v>0.4235912798603679</v>
       </c>
       <c r="G14">
+        <v>0.1650531537870888</v>
+      </c>
+      <c r="H14">
+        <v>0.1650531537870888</v>
+      </c>
+      <c r="I14">
+        <v>0.1650531537870888</v>
+      </c>
+      <c r="J14">
         <v>0.8975280035988905</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>1.259439918840724</v>
       </c>
-      <c r="I14">
-        <v>0.1650531537870889</v>
-      </c>
-      <c r="J14">
-        <v>0.423591279860368</v>
-      </c>
-      <c r="K14">
-        <v>1.357358391039098</v>
-      </c>
       <c r="L14">
-        <v>0.7762575826032401</v>
+        <v>0.77625758260324</v>
       </c>
       <c r="M14">
-        <v>0.7870359093932874</v>
+        <v>0.7870359093932872</v>
       </c>
       <c r="N14">
-        <v>0.1650531537870889</v>
+        <v>0.1650531537870888</v>
       </c>
       <c r="O14">
         <v>1.687979714060704</v>
@@ -1527,25 +1479,25 @@
         <v>1.292753858829797</v>
       </c>
       <c r="R14">
-        <v>0.7588747159027202</v>
+        <v>0.7588747159027203</v>
       </c>
       <c r="S14">
         <v>1.003032999173321</v>
       </c>
       <c r="T14">
-        <v>0.7588747159027202</v>
+        <v>0.7588747159027204</v>
       </c>
       <c r="U14">
-        <v>0.7935380378267627</v>
+        <v>0.7935380378267629</v>
       </c>
       <c r="V14">
-        <v>0.6678410610188279</v>
+        <v>0.6678410610188281</v>
       </c>
       <c r="W14">
         <v>0.9192804941479251</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,31 +1505,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.302124619538872</v>
+        <v>1.305374887662678</v>
       </c>
       <c r="D15">
-        <v>1.305374887662677</v>
+        <v>0.8207628998906888</v>
       </c>
       <c r="E15">
         <v>0.7255394228740227</v>
       </c>
       <c r="F15">
+        <v>1.305374887662678</v>
+      </c>
+      <c r="G15">
         <v>1.302124619538872</v>
       </c>
-      <c r="G15">
-        <v>1.039502025313966</v>
-      </c>
       <c r="H15">
-        <v>0.9301382614120728</v>
+        <v>1.302124619538872</v>
       </c>
       <c r="I15">
         <v>1.302124619538872</v>
       </c>
       <c r="J15">
-        <v>1.305374887662677</v>
+        <v>1.039502025313966</v>
       </c>
       <c r="K15">
-        <v>0.8207628998906888</v>
+        <v>0.9301382614120728</v>
       </c>
       <c r="L15">
         <v>1.099764986339184</v>
@@ -1598,13 +1550,13 @@
         <v>0.8825207240939945</v>
       </c>
       <c r="R15">
-        <v>1.111012976691857</v>
+        <v>1.111012976691858</v>
       </c>
       <c r="S15">
         <v>1.023472111950222</v>
       </c>
       <c r="T15">
-        <v>1.111012976691857</v>
+        <v>1.111012976691858</v>
       </c>
       <c r="U15">
         <v>1.093135238847385</v>
@@ -1616,7 +1568,7 @@
         <v>1.038141081130673</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9994766381064706</v>
+        <v>0.7227299481274836</v>
       </c>
       <c r="D16">
-        <v>1.002950154975589</v>
+        <v>0.9301180177777963</v>
       </c>
       <c r="E16">
-        <v>1.001387695214187</v>
+        <v>1.002423399269309</v>
       </c>
       <c r="F16">
-        <v>0.9994766381064706</v>
+        <v>0.7227299481274836</v>
       </c>
       <c r="G16">
-        <v>0.9978468026849679</v>
+        <v>1.615592240209775</v>
       </c>
       <c r="H16">
-        <v>1.001591279533695</v>
+        <v>1.615592240209775</v>
       </c>
       <c r="I16">
-        <v>0.9994766381064706</v>
+        <v>1.615592240209775</v>
       </c>
       <c r="J16">
-        <v>1.002950154975589</v>
+        <v>0.9398085754596376</v>
       </c>
       <c r="K16">
-        <v>0.9994121392401867</v>
+        <v>1.021888952658893</v>
       </c>
       <c r="L16">
-        <v>0.9989600501196148</v>
+        <v>1.056351577355793</v>
       </c>
       <c r="M16">
-        <v>0.9997039152826459</v>
+        <v>0.8095874740718283</v>
       </c>
       <c r="N16">
-        <v>0.9994766381064706</v>
+        <v>1.615592240209775</v>
       </c>
       <c r="O16">
-        <v>1.001387695214187</v>
+        <v>1.002423399269309</v>
       </c>
       <c r="P16">
-        <v>1.002168925094888</v>
+        <v>0.8625766736983962</v>
       </c>
       <c r="Q16">
-        <v>0.9996172489495774</v>
+        <v>0.9711159873644732</v>
       </c>
       <c r="R16">
-        <v>1.001271496098749</v>
+        <v>1.113581862535522</v>
       </c>
       <c r="S16">
-        <v>1.000728217624914</v>
+        <v>0.8883206409521432</v>
       </c>
       <c r="T16">
-        <v>1.001271496098749</v>
+        <v>1.113581862535522</v>
       </c>
       <c r="U16">
-        <v>1.000415322745304</v>
+        <v>1.070138540766551</v>
       </c>
       <c r="V16">
-        <v>1.000227585817537</v>
+        <v>1.179229280655196</v>
       </c>
       <c r="W16">
-        <v>1.00016608439467</v>
+        <v>1.012312523116314</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9991521165377891</v>
+        <v>0.7609573142032291</v>
       </c>
       <c r="D17">
-        <v>0.9955043138851796</v>
+        <v>0.939226064588331</v>
       </c>
       <c r="E17">
-        <v>1.001250013424801</v>
+        <v>1.044664592253401</v>
       </c>
       <c r="F17">
-        <v>0.9991521165377891</v>
+        <v>0.7609573142032291</v>
       </c>
       <c r="G17">
-        <v>1.003059649454345</v>
+        <v>1.410135278593827</v>
       </c>
       <c r="H17">
-        <v>0.9990181019160973</v>
+        <v>1.410135278593827</v>
       </c>
       <c r="I17">
-        <v>0.9991521165377891</v>
+        <v>1.410135278593827</v>
       </c>
       <c r="J17">
-        <v>0.9955043138851796</v>
+        <v>0.9506060567328229</v>
       </c>
       <c r="K17">
-        <v>0.9993331203757521</v>
+        <v>1.041358736002788</v>
       </c>
       <c r="L17">
-        <v>1.003263500445397</v>
+        <v>1.057584318660627</v>
       </c>
       <c r="M17">
-        <v>0.9992024768127653</v>
+        <v>0.8335672388159052</v>
       </c>
       <c r="N17">
-        <v>0.9991521165377891</v>
+        <v>1.410135278593827</v>
       </c>
       <c r="O17">
-        <v>1.001250013424801</v>
+        <v>1.044664592253401</v>
       </c>
       <c r="P17">
-        <v>0.9983771636549901</v>
+        <v>0.9028109532283149</v>
       </c>
       <c r="Q17">
-        <v>1.002154831439573</v>
+        <v>0.9976353244931119</v>
       </c>
       <c r="R17">
-        <v>0.9986354812825898</v>
+        <v>1.071919061683486</v>
       </c>
       <c r="S17">
-        <v>0.9999379922547752</v>
+        <v>0.9187426543964842</v>
       </c>
       <c r="T17">
-        <v>0.9986354812825898</v>
+        <v>1.071919061683486</v>
       </c>
       <c r="U17">
-        <v>0.9997415233255287</v>
+        <v>1.04159081044582</v>
       </c>
       <c r="V17">
-        <v>0.9996236419679807</v>
+        <v>1.115299704075422</v>
       </c>
       <c r="W17">
-        <v>0.9999729116065158</v>
+        <v>1.004762449981366</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.011229275335005</v>
+        <v>0.8377806831533995</v>
       </c>
       <c r="D18">
-        <v>1.005534624752126</v>
+        <v>0.9575461546157151</v>
       </c>
       <c r="E18">
-        <v>1.000159373495758</v>
+        <v>1.126471932911614</v>
       </c>
       <c r="F18">
-        <v>1.011229275335005</v>
+        <v>0.8377806831533995</v>
       </c>
       <c r="G18">
-        <v>0.9930063427713636</v>
+        <v>1.003497804765972</v>
       </c>
       <c r="H18">
-        <v>1.005477306853848</v>
+        <v>1.003497804765972</v>
       </c>
       <c r="I18">
-        <v>1.011229275335005</v>
+        <v>1.003497804765972</v>
       </c>
       <c r="J18">
-        <v>1.005534624752126</v>
+        <v>0.9721592409391139</v>
       </c>
       <c r="K18">
-        <v>0.9988551200502842</v>
+        <v>1.079234958164289</v>
       </c>
       <c r="L18">
-        <v>0.997586975410758</v>
+        <v>1.059849786426113</v>
       </c>
       <c r="M18">
-        <v>0.9963156575168722</v>
+        <v>0.881920484910339</v>
       </c>
       <c r="N18">
-        <v>1.011229275335005</v>
+        <v>1.003497804765972</v>
       </c>
       <c r="O18">
-        <v>1.000159373495758</v>
+        <v>1.126471932911614</v>
       </c>
       <c r="P18">
-        <v>1.002846999123942</v>
+        <v>0.9821263080325064</v>
       </c>
       <c r="Q18">
-        <v>0.9965828581335607</v>
+        <v>1.049315586925364</v>
       </c>
       <c r="R18">
-        <v>1.005641091194296</v>
+        <v>0.9892501402769948</v>
       </c>
       <c r="S18">
-        <v>0.999566780339749</v>
+        <v>0.978803952334709</v>
       </c>
       <c r="T18">
-        <v>1.005641091194296</v>
+        <v>0.989250140276995</v>
       </c>
       <c r="U18">
-        <v>1.002482404088563</v>
+        <v>0.9849774154425247</v>
       </c>
       <c r="V18">
-        <v>1.004231778337851</v>
+        <v>0.9886814933072141</v>
       </c>
       <c r="W18">
-        <v>1.001020584523252</v>
+        <v>0.9898076307358193</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8127434817350117</v>
+      </c>
+      <c r="D19">
+        <v>0.9564887413640648</v>
+      </c>
+      <c r="E19">
+        <v>1.184281744850794</v>
+      </c>
+      <c r="F19">
+        <v>0.8127434817350117</v>
+      </c>
+      <c r="G19">
+        <v>0.9651589451699407</v>
+      </c>
+      <c r="H19">
+        <v>0.9651589451699407</v>
+      </c>
+      <c r="I19">
+        <v>0.9651589451699407</v>
+      </c>
+      <c r="J19">
+        <v>0.9649465480006222</v>
+      </c>
+      <c r="K19">
+        <v>1.09397868113559</v>
+      </c>
+      <c r="L19">
+        <v>1.066909325951471</v>
+      </c>
+      <c r="M19">
+        <v>0.8647910894357885</v>
+      </c>
+      <c r="N19">
+        <v>0.9651589451699407</v>
+      </c>
+      <c r="O19">
+        <v>1.184281744850794</v>
+      </c>
+      <c r="P19">
+        <v>0.9985126132929026</v>
+      </c>
+      <c r="Q19">
+        <v>1.074614146425708</v>
+      </c>
+      <c r="R19">
+        <v>0.9873947239185821</v>
+      </c>
+      <c r="S19">
+        <v>0.9873239248621425</v>
+      </c>
+      <c r="T19">
+        <v>0.9873947239185821</v>
+      </c>
+      <c r="U19">
+        <v>0.9817826799390921</v>
+      </c>
+      <c r="V19">
+        <v>0.9784579329852618</v>
+      </c>
+      <c r="W19">
+        <v>0.9886623197054103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.002950154975588</v>
+      </c>
+      <c r="D20">
+        <v>0.9994121392401868</v>
+      </c>
+      <c r="E20">
+        <v>1.001387695214186</v>
+      </c>
+      <c r="F20">
+        <v>1.002950154975588</v>
+      </c>
+      <c r="G20">
+        <v>0.9994766381064701</v>
+      </c>
+      <c r="H20">
+        <v>0.9994766381064701</v>
+      </c>
+      <c r="I20">
+        <v>0.9994766381064701</v>
+      </c>
+      <c r="J20">
+        <v>0.9978468026849677</v>
+      </c>
+      <c r="K20">
+        <v>1.001591279533695</v>
+      </c>
+      <c r="L20">
+        <v>0.9989600501196152</v>
+      </c>
+      <c r="M20">
+        <v>0.9997039152826459</v>
+      </c>
+      <c r="N20">
+        <v>0.9994766381064701</v>
+      </c>
+      <c r="O20">
+        <v>1.001387695214186</v>
+      </c>
+      <c r="P20">
+        <v>1.002168925094887</v>
+      </c>
+      <c r="Q20">
+        <v>0.9996172489495772</v>
+      </c>
+      <c r="R20">
+        <v>1.001271496098748</v>
+      </c>
+      <c r="S20">
+        <v>1.000728217624914</v>
+      </c>
+      <c r="T20">
+        <v>1.001271496098748</v>
+      </c>
+      <c r="U20">
+        <v>1.000415322745303</v>
+      </c>
+      <c r="V20">
+        <v>1.000227585817537</v>
+      </c>
+      <c r="W20">
+        <v>1.00016608439467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9955043138851796</v>
+      </c>
+      <c r="D21">
+        <v>0.9993331203757522</v>
+      </c>
+      <c r="E21">
+        <v>1.001250013424801</v>
+      </c>
+      <c r="F21">
+        <v>0.9955043138851796</v>
+      </c>
+      <c r="G21">
+        <v>0.9991521165377896</v>
+      </c>
+      <c r="H21">
+        <v>0.9991521165377896</v>
+      </c>
+      <c r="I21">
+        <v>0.9991521165377896</v>
+      </c>
+      <c r="J21">
+        <v>1.003059649454345</v>
+      </c>
+      <c r="K21">
+        <v>0.9990181019160974</v>
+      </c>
+      <c r="L21">
+        <v>1.003263500445397</v>
+      </c>
+      <c r="M21">
+        <v>0.9992024768127653</v>
+      </c>
+      <c r="N21">
+        <v>0.9991521165377896</v>
+      </c>
+      <c r="O21">
+        <v>1.001250013424801</v>
+      </c>
+      <c r="P21">
+        <v>0.9983771636549901</v>
+      </c>
+      <c r="Q21">
+        <v>1.002154831439573</v>
+      </c>
+      <c r="R21">
+        <v>0.9986354812825899</v>
+      </c>
+      <c r="S21">
+        <v>0.9999379922547752</v>
+      </c>
+      <c r="T21">
+        <v>0.9986354812825899</v>
+      </c>
+      <c r="U21">
+        <v>0.9997415233255288</v>
+      </c>
+      <c r="V21">
+        <v>0.9996236419679809</v>
+      </c>
+      <c r="W21">
+        <v>0.9999729116065159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.005534624752126</v>
+      </c>
+      <c r="D22">
+        <v>0.9988551200502842</v>
+      </c>
+      <c r="E22">
+        <v>1.000159373495758</v>
+      </c>
+      <c r="F22">
+        <v>1.005534624752126</v>
+      </c>
+      <c r="G22">
+        <v>1.011229275335005</v>
+      </c>
+      <c r="H22">
+        <v>1.011229275335005</v>
+      </c>
+      <c r="I22">
+        <v>1.011229275335005</v>
+      </c>
+      <c r="J22">
+        <v>0.9930063427713632</v>
+      </c>
+      <c r="K22">
+        <v>1.005477306853848</v>
+      </c>
+      <c r="L22">
+        <v>0.9975869754107575</v>
+      </c>
+      <c r="M22">
+        <v>0.9963156575168721</v>
+      </c>
+      <c r="N22">
+        <v>1.011229275335005</v>
+      </c>
+      <c r="O22">
+        <v>1.000159373495758</v>
+      </c>
+      <c r="P22">
+        <v>1.002846999123942</v>
+      </c>
+      <c r="Q22">
+        <v>0.9965828581335605</v>
+      </c>
+      <c r="R22">
+        <v>1.005641091194296</v>
+      </c>
+      <c r="S22">
+        <v>0.9995667803397489</v>
+      </c>
+      <c r="T22">
+        <v>1.005641091194296</v>
+      </c>
+      <c r="U22">
+        <v>1.002482404088563</v>
+      </c>
+      <c r="V22">
+        <v>1.004231778337852</v>
+      </c>
+      <c r="W22">
+        <v>1.001020584523252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.027423277152397</v>
+      </c>
+      <c r="D23">
+        <v>0.9951799948893671</v>
+      </c>
+      <c r="E23">
+        <v>1.000684584074708</v>
+      </c>
+      <c r="F23">
+        <v>1.027423277152397</v>
+      </c>
+      <c r="G23">
         <v>1.040817119564907</v>
       </c>
-      <c r="D19">
-        <v>1.027423277152397</v>
-      </c>
-      <c r="E19">
+      <c r="H23">
+        <v>1.040817119564907</v>
+      </c>
+      <c r="I23">
+        <v>1.040817119564907</v>
+      </c>
+      <c r="J23">
+        <v>0.9689847244408001</v>
+      </c>
+      <c r="K23">
+        <v>1.017023676280573</v>
+      </c>
+      <c r="L23">
+        <v>0.9821334373442143</v>
+      </c>
+      <c r="M23">
+        <v>0.9930930738036458</v>
+      </c>
+      <c r="N23">
+        <v>1.040817119564907</v>
+      </c>
+      <c r="O23">
         <v>1.000684584074708</v>
       </c>
-      <c r="F19">
-        <v>1.040817119564907</v>
-      </c>
-      <c r="G19">
-        <v>0.9689847244408001</v>
-      </c>
-      <c r="H19">
-        <v>1.017023676280573</v>
-      </c>
-      <c r="I19">
-        <v>1.040817119564907</v>
-      </c>
-      <c r="J19">
-        <v>1.027423277152397</v>
-      </c>
-      <c r="K19">
-        <v>0.9951799948893671</v>
-      </c>
-      <c r="L19">
-        <v>0.9821334373442143</v>
-      </c>
-      <c r="M19">
-        <v>0.9930930738036458</v>
-      </c>
-      <c r="N19">
-        <v>1.040817119564907</v>
-      </c>
-      <c r="O19">
-        <v>1.000684584074708</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.014053930613553</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9848346542577542</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.022974993597337</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9990308618893017</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.022974993597337</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.009477426308203</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.015745364959544</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.003167485943826</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9864892197581748</v>
+        <v>0.8111433603265001</v>
       </c>
       <c r="D3">
-        <v>0.9966426539245945</v>
+        <v>0.9413199824214701</v>
       </c>
       <c r="E3">
-        <v>0.9997484692539274</v>
+        <v>1.163419193935161</v>
       </c>
       <c r="F3">
-        <v>0.9864892197581748</v>
+        <v>0.8111433603265001</v>
       </c>
       <c r="G3">
-        <v>1.035393383193995</v>
+        <v>1.007268353845102</v>
       </c>
       <c r="H3">
-        <v>1.035393383193995</v>
+        <v>1.007268353845102</v>
       </c>
       <c r="I3">
-        <v>1.035393383193995</v>
+        <v>1.007268353845102</v>
       </c>
       <c r="J3">
-        <v>0.9970635257884494</v>
+        <v>0.9658785934438036</v>
       </c>
       <c r="K3">
-        <v>1.000149672903811</v>
+        <v>1.09574673744957</v>
       </c>
       <c r="L3">
-        <v>1.002130355056269</v>
+        <v>1.077485226145538</v>
       </c>
       <c r="M3">
-        <v>0.990362324879733</v>
+        <v>0.8574013949582128</v>
       </c>
       <c r="N3">
-        <v>1.035393383193995</v>
+        <v>1.007268353845102</v>
       </c>
       <c r="O3">
-        <v>0.9997484692539274</v>
+        <v>1.163419193935161</v>
       </c>
       <c r="P3">
-        <v>0.993118844506051</v>
+        <v>0.9872812771308308</v>
       </c>
       <c r="Q3">
-        <v>0.9984059975211883</v>
+        <v>1.064648893689482</v>
       </c>
       <c r="R3">
-        <v>1.007210357402032</v>
+        <v>0.9939436360355879</v>
       </c>
       <c r="S3">
-        <v>0.9944337382668506</v>
+        <v>0.9801470492351551</v>
       </c>
       <c r="T3">
-        <v>1.007210357402032</v>
+        <v>0.9939436360355879</v>
       </c>
       <c r="U3">
-        <v>1.004673649498637</v>
+        <v>0.9869273753876417</v>
       </c>
       <c r="V3">
-        <v>1.010817596237708</v>
+        <v>0.9909955710791337</v>
       </c>
       <c r="W3">
-        <v>1.000997450594869</v>
+        <v>0.9899578553156697</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9730504106611605</v>
+        <v>0.8259604712121649</v>
       </c>
       <c r="D4">
-        <v>0.9934802469088948</v>
+        <v>0.9504994847512134</v>
       </c>
       <c r="E4">
-        <v>0.9989253665115825</v>
+        <v>1.145530417801062</v>
       </c>
       <c r="F4">
-        <v>0.9730504106611605</v>
+        <v>0.8259604712121649</v>
       </c>
       <c r="G4">
-        <v>1.066452356188739</v>
+        <v>1.000985954419682</v>
       </c>
       <c r="H4">
-        <v>1.066452356188739</v>
+        <v>1.000985954419682</v>
       </c>
       <c r="I4">
-        <v>1.066452356188739</v>
+        <v>1.000985954419682</v>
       </c>
       <c r="J4">
-        <v>0.9944063090936862</v>
+        <v>0.9692741293169967</v>
       </c>
       <c r="K4">
-        <v>1.000568082985541</v>
+        <v>1.087785167377934</v>
       </c>
       <c r="L4">
-        <v>1.005077968433713</v>
+        <v>1.067086819278793</v>
       </c>
       <c r="M4">
-        <v>0.981863449739548</v>
+        <v>0.8709278534986058</v>
       </c>
       <c r="N4">
-        <v>1.066452356188739</v>
+        <v>1.000985954419682</v>
       </c>
       <c r="O4">
-        <v>0.9989253665115825</v>
+        <v>1.145530417801062</v>
       </c>
       <c r="P4">
-        <v>0.9859878885863715</v>
+        <v>0.9857454445066134</v>
       </c>
       <c r="Q4">
-        <v>0.9966658378026343</v>
+        <v>1.057402273559029</v>
       </c>
       <c r="R4">
-        <v>1.012809377787161</v>
+        <v>0.9908256144776363</v>
       </c>
       <c r="S4">
-        <v>0.9887940287554765</v>
+        <v>0.9802550061100744</v>
       </c>
       <c r="T4">
-        <v>1.012809377787161</v>
+        <v>0.9908256144776363</v>
       </c>
       <c r="U4">
-        <v>1.008208610613792</v>
+        <v>0.9854377431874763</v>
       </c>
       <c r="V4">
-        <v>1.019857359728781</v>
+        <v>0.9885473854339175</v>
       </c>
       <c r="W4">
-        <v>1.001728023815358</v>
+        <v>0.9897562872070564</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9499885091624954</v>
+        <v>0.7827179451377891</v>
       </c>
       <c r="D5">
-        <v>0.9884724921433997</v>
+        <v>0.9235480206469002</v>
       </c>
       <c r="E5">
-        <v>1.000704842250933</v>
+        <v>1.197150265862535</v>
       </c>
       <c r="F5">
-        <v>0.9499885091624954</v>
+        <v>0.7827179451377891</v>
       </c>
       <c r="G5">
-        <v>1.134622931807166</v>
+        <v>1.019524162377897</v>
       </c>
       <c r="H5">
-        <v>1.134622931807166</v>
+        <v>1.019524162377897</v>
       </c>
       <c r="I5">
-        <v>1.134622931807166</v>
+        <v>1.019524162377897</v>
       </c>
       <c r="J5">
-        <v>0.989266138962909</v>
+        <v>0.9595123624258765</v>
       </c>
       <c r="K5">
-        <v>1.002320974342188</v>
+        <v>1.110680369110516</v>
       </c>
       <c r="L5">
-        <v>1.008749110771125</v>
+        <v>1.098048574797844</v>
       </c>
       <c r="M5">
-        <v>0.9651143729162145</v>
+        <v>0.8314483364932613</v>
       </c>
       <c r="N5">
-        <v>1.134622931807166</v>
+        <v>1.019524162377897</v>
       </c>
       <c r="O5">
-        <v>1.000704842250933</v>
+        <v>1.197150265862535</v>
       </c>
       <c r="P5">
-        <v>0.9753466757067144</v>
+        <v>0.9899341055001623</v>
       </c>
       <c r="Q5">
-        <v>0.9949854906069213</v>
+        <v>1.078331314144206</v>
       </c>
       <c r="R5">
-        <v>1.028438761073531</v>
+        <v>0.9997974577927407</v>
       </c>
       <c r="S5">
-        <v>0.9799864967921126</v>
+        <v>0.9797935244754004</v>
       </c>
       <c r="T5">
-        <v>1.028438761073532</v>
+        <v>0.9997974577927405</v>
       </c>
       <c r="U5">
-        <v>1.018645605545876</v>
+        <v>0.9897261839510245</v>
       </c>
       <c r="V5">
-        <v>1.041841070798134</v>
+        <v>0.9956857796363991</v>
       </c>
       <c r="W5">
-        <v>1.004904921544554</v>
+        <v>0.9903287546065775</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9543317926612693</v>
+        <v>0.7554484244010226</v>
       </c>
       <c r="D6">
-        <v>0.9832267969232706</v>
+        <v>0.9065130300568187</v>
       </c>
       <c r="E6">
-        <v>0.9906540240083817</v>
+        <v>1.228710157653408</v>
       </c>
       <c r="F6">
-        <v>0.9543317926612693</v>
+        <v>0.7554484244010226</v>
       </c>
       <c r="G6">
-        <v>1.246408446492422</v>
+        <v>1.032259605045454</v>
       </c>
       <c r="H6">
-        <v>1.246408446492422</v>
+        <v>1.032259605045454</v>
       </c>
       <c r="I6">
-        <v>1.246408446492422</v>
+        <v>1.032259605045454</v>
       </c>
       <c r="J6">
-        <v>1.000509866606461</v>
+        <v>0.9540240793181819</v>
       </c>
       <c r="K6">
-        <v>1.007559476848343</v>
+        <v>1.123987072102273</v>
       </c>
       <c r="L6">
-        <v>0.9889703288469417</v>
+        <v>1.118830632727275</v>
       </c>
       <c r="M6">
-        <v>0.941967260210929</v>
+        <v>0.8064241431534094</v>
       </c>
       <c r="N6">
-        <v>1.246408446492422</v>
+        <v>1.032259605045454</v>
       </c>
       <c r="O6">
-        <v>0.9906540240083817</v>
+        <v>1.228710157653408</v>
       </c>
       <c r="P6">
-        <v>0.9724929083348255</v>
+        <v>0.9920792910272154</v>
       </c>
       <c r="Q6">
-        <v>0.9955819453074215</v>
+        <v>1.091367118485795</v>
       </c>
       <c r="R6">
-        <v>1.063798087720691</v>
+        <v>1.005472729033295</v>
       </c>
       <c r="S6">
-        <v>0.9818318944253708</v>
+        <v>0.9793942204575375</v>
       </c>
       <c r="T6">
-        <v>1.063798087720691</v>
+        <v>1.005472729033295</v>
       </c>
       <c r="U6">
-        <v>1.047976032442134</v>
+        <v>0.9926105666045167</v>
       </c>
       <c r="V6">
-        <v>1.087662515252191</v>
+        <v>1.000540374292704</v>
       </c>
       <c r="W6">
-        <v>1.014203499074752</v>
+        <v>0.9907746430572303</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9987119685366761</v>
+        <v>0.6424691408282568</v>
       </c>
       <c r="D7">
-        <v>0.9992764633339984</v>
+        <v>0.6860060810530736</v>
       </c>
       <c r="E7">
-        <v>1.001377935321194</v>
+        <v>1.498649947594341</v>
       </c>
       <c r="F7">
-        <v>0.9987119685366761</v>
+        <v>0.6424691408282568</v>
       </c>
       <c r="G7">
-        <v>1.000039776100717</v>
+        <v>1.503618936043814</v>
       </c>
       <c r="H7">
-        <v>1.000039776100717</v>
+        <v>1.503618936043814</v>
       </c>
       <c r="I7">
-        <v>1.000039776100717</v>
+        <v>1.503618936043814</v>
       </c>
       <c r="J7">
-        <v>0.9998774934314533</v>
+        <v>0.7336137441420438</v>
       </c>
       <c r="K7">
-        <v>1.000577191462693</v>
+        <v>1.412911007355245</v>
       </c>
       <c r="L7">
-        <v>1.000992833320637</v>
+        <v>1.081024584591536</v>
       </c>
       <c r="M7">
-        <v>0.9989393333205603</v>
+        <v>0.5964050642878967</v>
       </c>
       <c r="N7">
-        <v>1.000039776100717</v>
+        <v>1.503618936043814</v>
       </c>
       <c r="O7">
-        <v>1.001377935321194</v>
+        <v>1.498649947594341</v>
       </c>
       <c r="P7">
-        <v>1.000044951928935</v>
+        <v>1.070559544211299</v>
       </c>
       <c r="Q7">
-        <v>1.000627714376324</v>
+        <v>1.116131845868193</v>
       </c>
       <c r="R7">
-        <v>1.000043226652862</v>
+        <v>1.214912674822137</v>
       </c>
       <c r="S7">
-        <v>0.9999891324297745</v>
+        <v>0.9582442775215473</v>
       </c>
       <c r="T7">
-        <v>1.000043226652862</v>
+        <v>1.214912674822137</v>
       </c>
       <c r="U7">
-        <v>1.00000179334751</v>
+        <v>1.094587942152114</v>
       </c>
       <c r="V7">
-        <v>1.000009389898152</v>
+        <v>1.176394140930454</v>
       </c>
       <c r="W7">
-        <v>0.9999741243534912</v>
+        <v>1.019337313237026</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9965612707476728</v>
+        <v>0.6385939306306537</v>
       </c>
       <c r="D8">
-        <v>0.9984680932428042</v>
+        <v>0.6840594880339754</v>
       </c>
       <c r="E8">
-        <v>1.002366836624558</v>
+        <v>1.49990056130669</v>
       </c>
       <c r="F8">
-        <v>0.9965612707476728</v>
+        <v>0.6385939306306537</v>
       </c>
       <c r="G8">
-        <v>1.000987647989247</v>
+        <v>1.504653047479221</v>
       </c>
       <c r="H8">
-        <v>1.000987647989247</v>
+        <v>1.504653047479221</v>
       </c>
       <c r="I8">
-        <v>1.000987647989247</v>
+        <v>1.504653047479221</v>
       </c>
       <c r="J8">
-        <v>0.9991030117850386</v>
+        <v>0.7342044303194387</v>
       </c>
       <c r="K8">
-        <v>1.001513067534599</v>
+        <v>1.412607089111516</v>
       </c>
       <c r="L8">
-        <v>1.002647006073617</v>
+        <v>1.085987103911954</v>
       </c>
       <c r="M8">
-        <v>0.9967524667664508</v>
+        <v>0.5934759877837698</v>
       </c>
       <c r="N8">
-        <v>1.000987647989247</v>
+        <v>1.504653047479221</v>
       </c>
       <c r="O8">
-        <v>1.002366836624558</v>
+        <v>1.49990056130669</v>
       </c>
       <c r="P8">
-        <v>0.9994640536861156</v>
+        <v>1.069247245968672</v>
       </c>
       <c r="Q8">
-        <v>1.000734924204798</v>
+        <v>1.117052495813064</v>
       </c>
       <c r="R8">
-        <v>0.9999719184538259</v>
+        <v>1.214382513138855</v>
       </c>
       <c r="S8">
-        <v>0.9993437063857566</v>
+        <v>0.9575663074189276</v>
       </c>
       <c r="T8">
-        <v>0.9999719184538259</v>
+        <v>1.214382513138855</v>
       </c>
       <c r="U8">
-        <v>0.9997546917866291</v>
+        <v>1.094337992434001</v>
       </c>
       <c r="V8">
-        <v>1.000001283027153</v>
+        <v>1.176401003443045</v>
       </c>
       <c r="W8">
-        <v>0.9997999250954984</v>
+        <v>1.019185204822152</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9946986276697146</v>
+        <v>0.6354234660806889</v>
       </c>
       <c r="D9">
-        <v>0.9972174643187566</v>
+        <v>0.6826835922461633</v>
       </c>
       <c r="E9">
-        <v>1.003030823795609</v>
+        <v>1.505172916860382</v>
       </c>
       <c r="F9">
-        <v>0.9946986276697146</v>
+        <v>0.6354234660806889</v>
       </c>
       <c r="G9">
-        <v>1.003728710044807</v>
+        <v>1.49892162928854</v>
       </c>
       <c r="H9">
-        <v>1.003728710044807</v>
+        <v>1.49892162928854</v>
       </c>
       <c r="I9">
-        <v>1.003728710044807</v>
+        <v>1.49892162928854</v>
       </c>
       <c r="J9">
-        <v>0.999192660755055</v>
+        <v>0.7345360947650577</v>
       </c>
       <c r="K9">
-        <v>1.001734692446825</v>
+        <v>1.414135034459293</v>
       </c>
       <c r="L9">
-        <v>1.003948163384798</v>
+        <v>1.089416259097806</v>
       </c>
       <c r="M9">
-        <v>0.9957544675561486</v>
+        <v>0.5908048777606675</v>
       </c>
       <c r="N9">
-        <v>1.003728710044807</v>
+        <v>1.49892162928854</v>
       </c>
       <c r="O9">
-        <v>1.003030823795609</v>
+        <v>1.505172916860382</v>
       </c>
       <c r="P9">
-        <v>0.9988647257326619</v>
+        <v>1.070298191470535</v>
       </c>
       <c r="Q9">
-        <v>1.001111742275332</v>
+        <v>1.11985450581272</v>
       </c>
       <c r="R9">
-        <v>1.00048605383671</v>
+        <v>1.213172670743203</v>
       </c>
       <c r="S9">
-        <v>0.9989740374067929</v>
+        <v>0.9583774925687093</v>
       </c>
       <c r="T9">
-        <v>1.00048605383671</v>
+        <v>1.213172670743203</v>
       </c>
       <c r="U9">
-        <v>1.000162705566296</v>
+        <v>1.093513526748667</v>
       </c>
       <c r="V9">
-        <v>1.000875906461998</v>
+        <v>1.174595147256641</v>
       </c>
       <c r="W9">
-        <v>0.9999132012464642</v>
+        <v>1.018886733819825</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9886378944404464</v>
+        <v>0.6249908811181388</v>
       </c>
       <c r="D10">
-        <v>0.9944307968624211</v>
+        <v>0.6744558410048318</v>
       </c>
       <c r="E10">
-        <v>1.007541637654862</v>
+        <v>1.502591821403472</v>
       </c>
       <c r="F10">
-        <v>0.9886378944404464</v>
+        <v>0.6249908811181388</v>
       </c>
       <c r="G10">
-        <v>1.005500729811719</v>
+        <v>1.514307513848967</v>
       </c>
       <c r="H10">
-        <v>1.005500729811719</v>
+        <v>1.514307513848967</v>
       </c>
       <c r="I10">
-        <v>1.005500729811719</v>
+        <v>1.514307513848967</v>
       </c>
       <c r="J10">
-        <v>0.9982977094773754</v>
+        <v>0.7356251062765259</v>
       </c>
       <c r="K10">
-        <v>1.004053608071602</v>
+        <v>1.410567665763477</v>
       </c>
       <c r="L10">
-        <v>1.008468205314685</v>
+        <v>1.107667498220936</v>
       </c>
       <c r="M10">
-        <v>0.9906726791392202</v>
+        <v>0.5817533380784183</v>
       </c>
       <c r="N10">
-        <v>1.005500729811719</v>
+        <v>1.514307513848967</v>
       </c>
       <c r="O10">
-        <v>1.007541637654862</v>
+        <v>1.502591821403472</v>
       </c>
       <c r="P10">
-        <v>0.9980897660476543</v>
+        <v>1.063791351260805</v>
       </c>
       <c r="Q10">
-        <v>1.002919673566119</v>
+        <v>1.119108463839999</v>
       </c>
       <c r="R10">
-        <v>1.000560087302343</v>
+        <v>1.213963405456859</v>
       </c>
       <c r="S10">
-        <v>0.998159080524228</v>
+        <v>0.9544026029327122</v>
       </c>
       <c r="T10">
-        <v>1.000560087302343</v>
+        <v>1.213963405456859</v>
       </c>
       <c r="U10">
-        <v>0.9999944928461009</v>
+        <v>1.094378830661776</v>
       </c>
       <c r="V10">
-        <v>1.001095740239224</v>
+        <v>1.178364567299214</v>
       </c>
       <c r="W10">
-        <v>0.9997004075965416</v>
+        <v>1.018994958214346</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9815127838832282</v>
+        <v>0.984492244552244</v>
       </c>
       <c r="D11">
-        <v>0.9912173228511405</v>
+        <v>0.9941239031477851</v>
       </c>
       <c r="E11">
-        <v>1.007916136971942</v>
+        <v>0.9963041592541914</v>
       </c>
       <c r="F11">
-        <v>0.9815127838832282</v>
+        <v>0.984492244552244</v>
       </c>
       <c r="G11">
-        <v>1.015438697682677</v>
+        <v>1.041529651243309</v>
       </c>
       <c r="H11">
-        <v>1.015438697682677</v>
+        <v>1.041529651243309</v>
       </c>
       <c r="I11">
-        <v>1.015438697682677</v>
+        <v>1.041529651243309</v>
       </c>
       <c r="J11">
-        <v>0.9962902129651473</v>
+        <v>0.9961165607691079</v>
       </c>
       <c r="K11">
-        <v>1.005978381557131</v>
+        <v>1.001292164688433</v>
       </c>
       <c r="L11">
-        <v>1.014645883503999</v>
+        <v>1.003819283359921</v>
       </c>
       <c r="M11">
-        <v>0.9842857875455122</v>
+        <v>0.9893944191599953</v>
       </c>
       <c r="N11">
-        <v>1.015438697682677</v>
+        <v>1.041529651243309</v>
       </c>
       <c r="O11">
-        <v>1.007916136971942</v>
+        <v>0.9963041592541914</v>
       </c>
       <c r="P11">
-        <v>0.9947144604275848</v>
+        <v>0.9903982019032177</v>
       </c>
       <c r="Q11">
-        <v>1.002103174968545</v>
+        <v>0.9962103600116496</v>
       </c>
       <c r="R11">
-        <v>1.001622539512615</v>
+        <v>1.007442018349915</v>
       </c>
       <c r="S11">
-        <v>0.995239711273439</v>
+        <v>0.9923043215251811</v>
       </c>
       <c r="T11">
-        <v>1.001622539512615</v>
+        <v>1.007442018349915</v>
       </c>
       <c r="U11">
-        <v>1.000289457875748</v>
+        <v>1.004610653954713</v>
       </c>
       <c r="V11">
-        <v>1.003319305837134</v>
+        <v>1.011994453412432</v>
       </c>
       <c r="W11">
-        <v>0.9996606508700971</v>
+        <v>1.000884048271873</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.492343952233583</v>
+        <v>0.9908412088401457</v>
       </c>
       <c r="D12">
-        <v>0.8897228076815409</v>
+        <v>0.9966098556849509</v>
       </c>
       <c r="E12">
-        <v>0.468438408364756</v>
+        <v>1.003486778714308</v>
       </c>
       <c r="F12">
-        <v>1.492343952233583</v>
+        <v>0.9908412088401457</v>
       </c>
       <c r="G12">
-        <v>1.22717483986535</v>
+        <v>1.018057357202355</v>
       </c>
       <c r="H12">
-        <v>1.22717483986535</v>
+        <v>1.018057357202355</v>
       </c>
       <c r="I12">
-        <v>1.22717483986535</v>
+        <v>1.018057357202355</v>
       </c>
       <c r="J12">
-        <v>1.094414183780104</v>
+        <v>0.9970441606581111</v>
       </c>
       <c r="K12">
-        <v>0.7580141281995953</v>
+        <v>1.002910628394481</v>
       </c>
       <c r="L12">
-        <v>1.120483807619306</v>
+        <v>1.001732284763828</v>
       </c>
       <c r="M12">
-        <v>1.282097288238961</v>
+        <v>0.9928411019192642</v>
       </c>
       <c r="N12">
-        <v>1.22717483986535</v>
+        <v>1.018057357202355</v>
       </c>
       <c r="O12">
-        <v>0.468438408364756</v>
+        <v>1.003486778714308</v>
       </c>
       <c r="P12">
-        <v>0.9803911802991696</v>
+        <v>0.9971639937772269</v>
       </c>
       <c r="Q12">
-        <v>0.7814262960724301</v>
+        <v>1.00026546968621</v>
       </c>
       <c r="R12">
-        <v>1.062652400154563</v>
+        <v>1.004128448252269</v>
       </c>
       <c r="S12">
-        <v>1.018398848126148</v>
+        <v>0.9971240494041883</v>
       </c>
       <c r="T12">
-        <v>1.062652400154563</v>
+        <v>1.004128448252269</v>
       </c>
       <c r="U12">
-        <v>1.070592846060948</v>
+        <v>1.00235737635373</v>
       </c>
       <c r="V12">
-        <v>1.101909244821829</v>
+        <v>1.005497372523455</v>
       </c>
       <c r="W12">
-        <v>1.0415861769979</v>
+        <v>1.000440422022181</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001244636063881</v>
+        <v>0.963470491218425</v>
       </c>
       <c r="D13">
-        <v>1.092070993600726</v>
+        <v>0.9879344984567052</v>
       </c>
       <c r="E13">
-        <v>1.184327289659022</v>
+        <v>1.012642560825207</v>
       </c>
       <c r="F13">
-        <v>1.001244636063881</v>
+        <v>0.963470491218425</v>
       </c>
       <c r="G13">
-        <v>0.8463522056953448</v>
+        <v>1.061355806265294</v>
       </c>
       <c r="H13">
-        <v>0.8463522056953448</v>
+        <v>1.061355806265294</v>
       </c>
       <c r="I13">
-        <v>0.8463522056953448</v>
+        <v>1.061355806265294</v>
       </c>
       <c r="J13">
-        <v>0.9811880439265864</v>
+        <v>0.9887598531779732</v>
       </c>
       <c r="K13">
-        <v>1.039186110510082</v>
+        <v>1.013171271569927</v>
       </c>
       <c r="L13">
-        <v>0.8627137598215937</v>
+        <v>1.005807355401633</v>
       </c>
       <c r="M13">
-        <v>0.9986527860727329</v>
+        <v>0.9740828018826193</v>
       </c>
       <c r="N13">
-        <v>0.8463522056953448</v>
+        <v>1.061355806265294</v>
       </c>
       <c r="O13">
-        <v>1.184327289659022</v>
+        <v>1.012642560825207</v>
       </c>
       <c r="P13">
-        <v>1.092785962861451</v>
+        <v>0.9880565260218157</v>
       </c>
       <c r="Q13">
-        <v>1.082757666792804</v>
+        <v>1.00070120700159</v>
       </c>
       <c r="R13">
-        <v>1.010641377139416</v>
+        <v>1.012489619436309</v>
       </c>
       <c r="S13">
-        <v>1.05558665654983</v>
+        <v>0.9882909684072015</v>
       </c>
       <c r="T13">
-        <v>1.010641377139416</v>
+        <v>1.012489619436309</v>
       </c>
       <c r="U13">
-        <v>1.003278043836209</v>
+        <v>1.006557177871725</v>
       </c>
       <c r="V13">
-        <v>0.9718928762080358</v>
+        <v>1.017516903550439</v>
       </c>
       <c r="W13">
-        <v>1.000716978168746</v>
+        <v>1.000903079849723</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4235912798603679</v>
+        <v>0.9611026578441687</v>
       </c>
       <c r="D14">
-        <v>1.357358391039098</v>
+        <v>0.9898084821463708</v>
       </c>
       <c r="E14">
-        <v>1.687979714060704</v>
+        <v>1.00018327986119</v>
       </c>
       <c r="F14">
-        <v>0.4235912798603679</v>
+        <v>0.9611026578441687</v>
       </c>
       <c r="G14">
-        <v>0.1650531537870888</v>
+        <v>1.092616016419801</v>
       </c>
       <c r="H14">
-        <v>0.1650531537870888</v>
+        <v>1.092616016419801</v>
       </c>
       <c r="I14">
-        <v>0.1650531537870888</v>
+        <v>1.092616016419801</v>
       </c>
       <c r="J14">
-        <v>0.8975280035988905</v>
+        <v>0.9919230838725727</v>
       </c>
       <c r="K14">
-        <v>1.259439918840724</v>
+        <v>1.003250964797575</v>
       </c>
       <c r="L14">
-        <v>0.77625758260324</v>
+        <v>1.008432659835832</v>
       </c>
       <c r="M14">
-        <v>0.7870359093932872</v>
+        <v>0.9718317140791788</v>
       </c>
       <c r="N14">
-        <v>0.1650531537870888</v>
+        <v>1.092616016419801</v>
       </c>
       <c r="O14">
-        <v>1.687979714060704</v>
+        <v>1.00018327986119</v>
       </c>
       <c r="P14">
-        <v>1.055785496960536</v>
+        <v>0.9806429688526797</v>
       </c>
       <c r="Q14">
-        <v>1.292753858829797</v>
+        <v>0.9960531818668816</v>
       </c>
       <c r="R14">
-        <v>0.7588747159027203</v>
+        <v>1.01796731804172</v>
       </c>
       <c r="S14">
-        <v>1.003032999173321</v>
+        <v>0.9844030071926441</v>
       </c>
       <c r="T14">
-        <v>0.7588747159027204</v>
+        <v>1.01796731804172</v>
       </c>
       <c r="U14">
-        <v>0.7935380378267629</v>
+        <v>1.011456259499433</v>
       </c>
       <c r="V14">
-        <v>0.6678410610188281</v>
+        <v>1.027688210883507</v>
       </c>
       <c r="W14">
-        <v>0.9192804941479251</v>
+        <v>1.002393607357086</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.305374887662678</v>
+        <v>0.9864892197581748</v>
       </c>
       <c r="D15">
-        <v>0.8207628998906888</v>
+        <v>0.9966426539245945</v>
       </c>
       <c r="E15">
-        <v>0.7255394228740227</v>
+        <v>0.9997484692539274</v>
       </c>
       <c r="F15">
-        <v>1.305374887662678</v>
+        <v>0.9864892197581748</v>
       </c>
       <c r="G15">
-        <v>1.302124619538872</v>
+        <v>1.035393383193995</v>
       </c>
       <c r="H15">
-        <v>1.302124619538872</v>
+        <v>1.035393383193995</v>
       </c>
       <c r="I15">
-        <v>1.302124619538872</v>
+        <v>1.035393383193995</v>
       </c>
       <c r="J15">
-        <v>1.039502025313966</v>
+        <v>0.9970635257884494</v>
       </c>
       <c r="K15">
-        <v>0.9301382614120728</v>
+        <v>1.000149672903811</v>
       </c>
       <c r="L15">
-        <v>1.099764986339184</v>
+        <v>1.002130355056269</v>
       </c>
       <c r="M15">
-        <v>1.081921546013899</v>
+        <v>0.990362324879733</v>
       </c>
       <c r="N15">
-        <v>1.302124619538872</v>
+        <v>1.035393383193995</v>
       </c>
       <c r="O15">
-        <v>0.7255394228740227</v>
+        <v>0.9997484692539274</v>
       </c>
       <c r="P15">
-        <v>1.01545715526835</v>
+        <v>0.993118844506051</v>
       </c>
       <c r="Q15">
-        <v>0.8825207240939945</v>
+        <v>0.9984059975211883</v>
       </c>
       <c r="R15">
-        <v>1.111012976691858</v>
+        <v>1.007210357402032</v>
       </c>
       <c r="S15">
-        <v>1.023472111950222</v>
+        <v>0.9944337382668506</v>
       </c>
       <c r="T15">
-        <v>1.111012976691858</v>
+        <v>1.007210357402032</v>
       </c>
       <c r="U15">
-        <v>1.093135238847385</v>
+        <v>1.004673649498637</v>
       </c>
       <c r="V15">
-        <v>1.134933114985682</v>
+        <v>1.010817596237708</v>
       </c>
       <c r="W15">
-        <v>1.038141081130673</v>
+        <v>1.000997450594869</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7227299481274836</v>
+        <v>0.9730504106611605</v>
       </c>
       <c r="D16">
-        <v>0.9301180177777963</v>
+        <v>0.9934802469088948</v>
       </c>
       <c r="E16">
-        <v>1.002423399269309</v>
+        <v>0.9989253665115825</v>
       </c>
       <c r="F16">
-        <v>0.7227299481274836</v>
+        <v>0.9730504106611605</v>
       </c>
       <c r="G16">
-        <v>1.615592240209775</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="H16">
-        <v>1.615592240209775</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="I16">
-        <v>1.615592240209775</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="J16">
-        <v>0.9398085754596376</v>
+        <v>0.9944063090936862</v>
       </c>
       <c r="K16">
-        <v>1.021888952658893</v>
+        <v>1.000568082985541</v>
       </c>
       <c r="L16">
-        <v>1.056351577355793</v>
+        <v>1.005077968433713</v>
       </c>
       <c r="M16">
-        <v>0.8095874740718283</v>
+        <v>0.981863449739548</v>
       </c>
       <c r="N16">
-        <v>1.615592240209775</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="O16">
-        <v>1.002423399269309</v>
+        <v>0.9989253665115825</v>
       </c>
       <c r="P16">
-        <v>0.8625766736983962</v>
+        <v>0.9859878885863715</v>
       </c>
       <c r="Q16">
-        <v>0.9711159873644732</v>
+        <v>0.9966658378026343</v>
       </c>
       <c r="R16">
-        <v>1.113581862535522</v>
+        <v>1.012809377787161</v>
       </c>
       <c r="S16">
-        <v>0.8883206409521432</v>
+        <v>0.9887940287554765</v>
       </c>
       <c r="T16">
-        <v>1.113581862535522</v>
+        <v>1.012809377787161</v>
       </c>
       <c r="U16">
-        <v>1.070138540766551</v>
+        <v>1.008208610613792</v>
       </c>
       <c r="V16">
-        <v>1.179229280655196</v>
+        <v>1.019857359728781</v>
       </c>
       <c r="W16">
-        <v>1.012312523116314</v>
+        <v>1.001728023815358</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7609573142032291</v>
+        <v>0.9499885091624954</v>
       </c>
       <c r="D17">
-        <v>0.939226064588331</v>
+        <v>0.9884724921433997</v>
       </c>
       <c r="E17">
-        <v>1.044664592253401</v>
+        <v>1.000704842250933</v>
       </c>
       <c r="F17">
-        <v>0.7609573142032291</v>
+        <v>0.9499885091624954</v>
       </c>
       <c r="G17">
-        <v>1.410135278593827</v>
+        <v>1.134622931807166</v>
       </c>
       <c r="H17">
-        <v>1.410135278593827</v>
+        <v>1.134622931807166</v>
       </c>
       <c r="I17">
-        <v>1.410135278593827</v>
+        <v>1.134622931807166</v>
       </c>
       <c r="J17">
-        <v>0.9506060567328229</v>
+        <v>0.989266138962909</v>
       </c>
       <c r="K17">
-        <v>1.041358736002788</v>
+        <v>1.002320974342188</v>
       </c>
       <c r="L17">
-        <v>1.057584318660627</v>
+        <v>1.008749110771125</v>
       </c>
       <c r="M17">
-        <v>0.8335672388159052</v>
+        <v>0.9651143729162145</v>
       </c>
       <c r="N17">
-        <v>1.410135278593827</v>
+        <v>1.134622931807166</v>
       </c>
       <c r="O17">
-        <v>1.044664592253401</v>
+        <v>1.000704842250933</v>
       </c>
       <c r="P17">
-        <v>0.9028109532283149</v>
+        <v>0.9753466757067144</v>
       </c>
       <c r="Q17">
-        <v>0.9976353244931119</v>
+        <v>0.9949854906069213</v>
       </c>
       <c r="R17">
-        <v>1.071919061683486</v>
+        <v>1.028438761073531</v>
       </c>
       <c r="S17">
-        <v>0.9187426543964842</v>
+        <v>0.9799864967921126</v>
       </c>
       <c r="T17">
-        <v>1.071919061683486</v>
+        <v>1.028438761073532</v>
       </c>
       <c r="U17">
-        <v>1.04159081044582</v>
+        <v>1.018645605545876</v>
       </c>
       <c r="V17">
-        <v>1.115299704075422</v>
+        <v>1.041841070798134</v>
       </c>
       <c r="W17">
-        <v>1.004762449981366</v>
+        <v>1.004904921544554</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8377806831533995</v>
+        <v>0.9543317926612693</v>
       </c>
       <c r="D18">
-        <v>0.9575461546157151</v>
+        <v>0.9832267969232706</v>
       </c>
       <c r="E18">
-        <v>1.126471932911614</v>
+        <v>0.9906540240083817</v>
       </c>
       <c r="F18">
-        <v>0.8377806831533995</v>
+        <v>0.9543317926612693</v>
       </c>
       <c r="G18">
-        <v>1.003497804765972</v>
+        <v>1.246408446492422</v>
       </c>
       <c r="H18">
-        <v>1.003497804765972</v>
+        <v>1.246408446492422</v>
       </c>
       <c r="I18">
-        <v>1.003497804765972</v>
+        <v>1.246408446492422</v>
       </c>
       <c r="J18">
-        <v>0.9721592409391139</v>
+        <v>1.000509866606461</v>
       </c>
       <c r="K18">
-        <v>1.079234958164289</v>
+        <v>1.007559476848343</v>
       </c>
       <c r="L18">
-        <v>1.059849786426113</v>
+        <v>0.9889703288469417</v>
       </c>
       <c r="M18">
-        <v>0.881920484910339</v>
+        <v>0.941967260210929</v>
       </c>
       <c r="N18">
-        <v>1.003497804765972</v>
+        <v>1.246408446492422</v>
       </c>
       <c r="O18">
-        <v>1.126471932911614</v>
+        <v>0.9906540240083817</v>
       </c>
       <c r="P18">
-        <v>0.9821263080325064</v>
+        <v>0.9724929083348255</v>
       </c>
       <c r="Q18">
-        <v>1.049315586925364</v>
+        <v>0.9955819453074215</v>
       </c>
       <c r="R18">
-        <v>0.9892501402769948</v>
+        <v>1.063798087720691</v>
       </c>
       <c r="S18">
-        <v>0.978803952334709</v>
+        <v>0.9818318944253708</v>
       </c>
       <c r="T18">
-        <v>0.989250140276995</v>
+        <v>1.063798087720691</v>
       </c>
       <c r="U18">
-        <v>0.9849774154425247</v>
+        <v>1.047976032442134</v>
       </c>
       <c r="V18">
-        <v>0.9886814933072141</v>
+        <v>1.087662515252191</v>
       </c>
       <c r="W18">
-        <v>0.9898076307358193</v>
+        <v>1.014203499074752</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8127434817350117</v>
+        <v>0.9987119685366761</v>
       </c>
       <c r="D19">
-        <v>0.9564887413640648</v>
+        <v>0.9992764633339984</v>
       </c>
       <c r="E19">
-        <v>1.184281744850794</v>
+        <v>1.001377935321194</v>
       </c>
       <c r="F19">
-        <v>0.8127434817350117</v>
+        <v>0.9987119685366761</v>
       </c>
       <c r="G19">
-        <v>0.9651589451699407</v>
+        <v>1.000039776100717</v>
       </c>
       <c r="H19">
-        <v>0.9651589451699407</v>
+        <v>1.000039776100717</v>
       </c>
       <c r="I19">
-        <v>0.9651589451699407</v>
+        <v>1.000039776100717</v>
       </c>
       <c r="J19">
-        <v>0.9649465480006222</v>
+        <v>0.9998774934314533</v>
       </c>
       <c r="K19">
-        <v>1.09397868113559</v>
+        <v>1.000577191462693</v>
       </c>
       <c r="L19">
-        <v>1.066909325951471</v>
+        <v>1.000992833320637</v>
       </c>
       <c r="M19">
-        <v>0.8647910894357885</v>
+        <v>0.9989393333205603</v>
       </c>
       <c r="N19">
-        <v>0.9651589451699407</v>
+        <v>1.000039776100717</v>
       </c>
       <c r="O19">
-        <v>1.184281744850794</v>
+        <v>1.001377935321194</v>
       </c>
       <c r="P19">
-        <v>0.9985126132929026</v>
+        <v>1.000044951928935</v>
       </c>
       <c r="Q19">
-        <v>1.074614146425708</v>
+        <v>1.000627714376324</v>
       </c>
       <c r="R19">
-        <v>0.9873947239185821</v>
+        <v>1.000043226652862</v>
       </c>
       <c r="S19">
-        <v>0.9873239248621425</v>
+        <v>0.9999891324297745</v>
       </c>
       <c r="T19">
-        <v>0.9873947239185821</v>
+        <v>1.000043226652862</v>
       </c>
       <c r="U19">
-        <v>0.9817826799390921</v>
+        <v>1.00000179334751</v>
       </c>
       <c r="V19">
-        <v>0.9784579329852618</v>
+        <v>1.000009389898152</v>
       </c>
       <c r="W19">
-        <v>0.9886623197054103</v>
+        <v>0.9999741243534912</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.002950154975588</v>
+        <v>0.9965612707476728</v>
       </c>
       <c r="D20">
-        <v>0.9994121392401868</v>
+        <v>0.9984680932428042</v>
       </c>
       <c r="E20">
-        <v>1.001387695214186</v>
+        <v>1.002366836624558</v>
       </c>
       <c r="F20">
-        <v>1.002950154975588</v>
+        <v>0.9965612707476728</v>
       </c>
       <c r="G20">
-        <v>0.9994766381064701</v>
+        <v>1.000987647989247</v>
       </c>
       <c r="H20">
-        <v>0.9994766381064701</v>
+        <v>1.000987647989247</v>
       </c>
       <c r="I20">
-        <v>0.9994766381064701</v>
+        <v>1.000987647989247</v>
       </c>
       <c r="J20">
-        <v>0.9978468026849677</v>
+        <v>0.9991030117850386</v>
       </c>
       <c r="K20">
-        <v>1.001591279533695</v>
+        <v>1.001513067534599</v>
       </c>
       <c r="L20">
-        <v>0.9989600501196152</v>
+        <v>1.002647006073617</v>
       </c>
       <c r="M20">
-        <v>0.9997039152826459</v>
+        <v>0.9967524667664508</v>
       </c>
       <c r="N20">
-        <v>0.9994766381064701</v>
+        <v>1.000987647989247</v>
       </c>
       <c r="O20">
-        <v>1.001387695214186</v>
+        <v>1.002366836624558</v>
       </c>
       <c r="P20">
-        <v>1.002168925094887</v>
+        <v>0.9994640536861156</v>
       </c>
       <c r="Q20">
-        <v>0.9996172489495772</v>
+        <v>1.000734924204798</v>
       </c>
       <c r="R20">
-        <v>1.001271496098748</v>
+        <v>0.9999719184538259</v>
       </c>
       <c r="S20">
-        <v>1.000728217624914</v>
+        <v>0.9993437063857566</v>
       </c>
       <c r="T20">
-        <v>1.001271496098748</v>
+        <v>0.9999719184538259</v>
       </c>
       <c r="U20">
-        <v>1.000415322745303</v>
+        <v>0.9997546917866291</v>
       </c>
       <c r="V20">
-        <v>1.000227585817537</v>
+        <v>1.000001283027153</v>
       </c>
       <c r="W20">
-        <v>1.00016608439467</v>
+        <v>0.9997999250954984</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9955043138851796</v>
+        <v>0.9946986276697146</v>
       </c>
       <c r="D21">
-        <v>0.9993331203757522</v>
+        <v>0.9972174643187566</v>
       </c>
       <c r="E21">
-        <v>1.001250013424801</v>
+        <v>1.003030823795609</v>
       </c>
       <c r="F21">
-        <v>0.9955043138851796</v>
+        <v>0.9946986276697146</v>
       </c>
       <c r="G21">
-        <v>0.9991521165377896</v>
+        <v>1.003728710044807</v>
       </c>
       <c r="H21">
-        <v>0.9991521165377896</v>
+        <v>1.003728710044807</v>
       </c>
       <c r="I21">
-        <v>0.9991521165377896</v>
+        <v>1.003728710044807</v>
       </c>
       <c r="J21">
-        <v>1.003059649454345</v>
+        <v>0.999192660755055</v>
       </c>
       <c r="K21">
-        <v>0.9990181019160974</v>
+        <v>1.001734692446825</v>
       </c>
       <c r="L21">
-        <v>1.003263500445397</v>
+        <v>1.003948163384798</v>
       </c>
       <c r="M21">
-        <v>0.9992024768127653</v>
+        <v>0.9957544675561486</v>
       </c>
       <c r="N21">
-        <v>0.9991521165377896</v>
+        <v>1.003728710044807</v>
       </c>
       <c r="O21">
-        <v>1.001250013424801</v>
+        <v>1.003030823795609</v>
       </c>
       <c r="P21">
-        <v>0.9983771636549901</v>
+        <v>0.9988647257326619</v>
       </c>
       <c r="Q21">
-        <v>1.002154831439573</v>
+        <v>1.001111742275332</v>
       </c>
       <c r="R21">
-        <v>0.9986354812825899</v>
+        <v>1.00048605383671</v>
       </c>
       <c r="S21">
-        <v>0.9999379922547752</v>
+        <v>0.9989740374067929</v>
       </c>
       <c r="T21">
-        <v>0.9986354812825899</v>
+        <v>1.00048605383671</v>
       </c>
       <c r="U21">
-        <v>0.9997415233255288</v>
+        <v>1.000162705566296</v>
       </c>
       <c r="V21">
-        <v>0.9996236419679809</v>
+        <v>1.000875906461998</v>
       </c>
       <c r="W21">
-        <v>0.9999729116065159</v>
+        <v>0.9999132012464642</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.005534624752126</v>
+        <v>0.9886378944404464</v>
       </c>
       <c r="D22">
-        <v>0.9988551200502842</v>
+        <v>0.9944307968624211</v>
       </c>
       <c r="E22">
-        <v>1.000159373495758</v>
+        <v>1.007541637654862</v>
       </c>
       <c r="F22">
-        <v>1.005534624752126</v>
+        <v>0.9886378944404464</v>
       </c>
       <c r="G22">
-        <v>1.011229275335005</v>
+        <v>1.005500729811719</v>
       </c>
       <c r="H22">
-        <v>1.011229275335005</v>
+        <v>1.005500729811719</v>
       </c>
       <c r="I22">
-        <v>1.011229275335005</v>
+        <v>1.005500729811719</v>
       </c>
       <c r="J22">
-        <v>0.9930063427713632</v>
+        <v>0.9982977094773754</v>
       </c>
       <c r="K22">
-        <v>1.005477306853848</v>
+        <v>1.004053608071602</v>
       </c>
       <c r="L22">
-        <v>0.9975869754107575</v>
+        <v>1.008468205314685</v>
       </c>
       <c r="M22">
-        <v>0.9963156575168721</v>
+        <v>0.9906726791392202</v>
       </c>
       <c r="N22">
-        <v>1.011229275335005</v>
+        <v>1.005500729811719</v>
       </c>
       <c r="O22">
-        <v>1.000159373495758</v>
+        <v>1.007541637654862</v>
       </c>
       <c r="P22">
-        <v>1.002846999123942</v>
+        <v>0.9980897660476543</v>
       </c>
       <c r="Q22">
-        <v>0.9965828581335605</v>
+        <v>1.002919673566119</v>
       </c>
       <c r="R22">
-        <v>1.005641091194296</v>
+        <v>1.000560087302343</v>
       </c>
       <c r="S22">
-        <v>0.9995667803397489</v>
+        <v>0.998159080524228</v>
       </c>
       <c r="T22">
-        <v>1.005641091194296</v>
+        <v>1.000560087302343</v>
       </c>
       <c r="U22">
-        <v>1.002482404088563</v>
+        <v>0.9999944928461009</v>
       </c>
       <c r="V22">
-        <v>1.004231778337852</v>
+        <v>1.001095740239224</v>
       </c>
       <c r="W22">
-        <v>1.001020584523252</v>
+        <v>0.9997004075965416</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9815127838832282</v>
+      </c>
+      <c r="D23">
+        <v>0.9912173228511405</v>
+      </c>
+      <c r="E23">
+        <v>1.007916136971942</v>
+      </c>
+      <c r="F23">
+        <v>0.9815127838832282</v>
+      </c>
+      <c r="G23">
+        <v>1.015438697682677</v>
+      </c>
+      <c r="H23">
+        <v>1.015438697682677</v>
+      </c>
+      <c r="I23">
+        <v>1.015438697682677</v>
+      </c>
+      <c r="J23">
+        <v>0.9962902129651473</v>
+      </c>
+      <c r="K23">
+        <v>1.005978381557131</v>
+      </c>
+      <c r="L23">
+        <v>1.014645883503999</v>
+      </c>
+      <c r="M23">
+        <v>0.9842857875455122</v>
+      </c>
+      <c r="N23">
+        <v>1.015438697682677</v>
+      </c>
+      <c r="O23">
+        <v>1.007916136971942</v>
+      </c>
+      <c r="P23">
+        <v>0.9947144604275848</v>
+      </c>
+      <c r="Q23">
+        <v>1.002103174968545</v>
+      </c>
+      <c r="R23">
+        <v>1.001622539512615</v>
+      </c>
+      <c r="S23">
+        <v>0.995239711273439</v>
+      </c>
+      <c r="T23">
+        <v>1.001622539512615</v>
+      </c>
+      <c r="U23">
+        <v>1.000289457875748</v>
+      </c>
+      <c r="V23">
+        <v>1.003319305837134</v>
+      </c>
+      <c r="W23">
+        <v>0.9996606508700971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.492343952233583</v>
+      </c>
+      <c r="D24">
+        <v>0.8897228076815409</v>
+      </c>
+      <c r="E24">
+        <v>0.468438408364756</v>
+      </c>
+      <c r="F24">
+        <v>1.492343952233583</v>
+      </c>
+      <c r="G24">
+        <v>1.22717483986535</v>
+      </c>
+      <c r="H24">
+        <v>1.22717483986535</v>
+      </c>
+      <c r="I24">
+        <v>1.22717483986535</v>
+      </c>
+      <c r="J24">
+        <v>1.094414183780104</v>
+      </c>
+      <c r="K24">
+        <v>0.7580141281995953</v>
+      </c>
+      <c r="L24">
+        <v>1.120483807619306</v>
+      </c>
+      <c r="M24">
+        <v>1.282097288238961</v>
+      </c>
+      <c r="N24">
+        <v>1.22717483986535</v>
+      </c>
+      <c r="O24">
+        <v>0.468438408364756</v>
+      </c>
+      <c r="P24">
+        <v>0.9803911802991696</v>
+      </c>
+      <c r="Q24">
+        <v>0.7814262960724301</v>
+      </c>
+      <c r="R24">
+        <v>1.062652400154563</v>
+      </c>
+      <c r="S24">
+        <v>1.018398848126148</v>
+      </c>
+      <c r="T24">
+        <v>1.062652400154563</v>
+      </c>
+      <c r="U24">
+        <v>1.070592846060948</v>
+      </c>
+      <c r="V24">
+        <v>1.101909244821829</v>
+      </c>
+      <c r="W24">
+        <v>1.0415861769979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.001244636063881</v>
+      </c>
+      <c r="D25">
+        <v>1.092070993600726</v>
+      </c>
+      <c r="E25">
+        <v>1.184327289659022</v>
+      </c>
+      <c r="F25">
+        <v>1.001244636063881</v>
+      </c>
+      <c r="G25">
+        <v>0.8463522056953448</v>
+      </c>
+      <c r="H25">
+        <v>0.8463522056953448</v>
+      </c>
+      <c r="I25">
+        <v>0.8463522056953448</v>
+      </c>
+      <c r="J25">
+        <v>0.9811880439265864</v>
+      </c>
+      <c r="K25">
+        <v>1.039186110510082</v>
+      </c>
+      <c r="L25">
+        <v>0.8627137598215937</v>
+      </c>
+      <c r="M25">
+        <v>0.9986527860727329</v>
+      </c>
+      <c r="N25">
+        <v>0.8463522056953448</v>
+      </c>
+      <c r="O25">
+        <v>1.184327289659022</v>
+      </c>
+      <c r="P25">
+        <v>1.092785962861451</v>
+      </c>
+      <c r="Q25">
+        <v>1.082757666792804</v>
+      </c>
+      <c r="R25">
+        <v>1.010641377139416</v>
+      </c>
+      <c r="S25">
+        <v>1.05558665654983</v>
+      </c>
+      <c r="T25">
+        <v>1.010641377139416</v>
+      </c>
+      <c r="U25">
+        <v>1.003278043836209</v>
+      </c>
+      <c r="V25">
+        <v>0.9718928762080358</v>
+      </c>
+      <c r="W25">
+        <v>1.000716978168746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.4235912798603679</v>
+      </c>
+      <c r="D26">
+        <v>1.357358391039098</v>
+      </c>
+      <c r="E26">
+        <v>1.687979714060704</v>
+      </c>
+      <c r="F26">
+        <v>0.4235912798603679</v>
+      </c>
+      <c r="G26">
+        <v>0.1650531537870888</v>
+      </c>
+      <c r="H26">
+        <v>0.1650531537870888</v>
+      </c>
+      <c r="I26">
+        <v>0.1650531537870888</v>
+      </c>
+      <c r="J26">
+        <v>0.8975280035988905</v>
+      </c>
+      <c r="K26">
+        <v>1.259439918840724</v>
+      </c>
+      <c r="L26">
+        <v>0.77625758260324</v>
+      </c>
+      <c r="M26">
+        <v>0.7870359093932872</v>
+      </c>
+      <c r="N26">
+        <v>0.1650531537870888</v>
+      </c>
+      <c r="O26">
+        <v>1.687979714060704</v>
+      </c>
+      <c r="P26">
+        <v>1.055785496960536</v>
+      </c>
+      <c r="Q26">
+        <v>1.292753858829797</v>
+      </c>
+      <c r="R26">
+        <v>0.7588747159027203</v>
+      </c>
+      <c r="S26">
+        <v>1.003032999173321</v>
+      </c>
+      <c r="T26">
+        <v>0.7588747159027204</v>
+      </c>
+      <c r="U26">
+        <v>0.7935380378267629</v>
+      </c>
+      <c r="V26">
+        <v>0.6678410610188281</v>
+      </c>
+      <c r="W26">
+        <v>0.9192804941479251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.305374887662678</v>
+      </c>
+      <c r="D27">
+        <v>0.8207628998906888</v>
+      </c>
+      <c r="E27">
+        <v>0.7255394228740227</v>
+      </c>
+      <c r="F27">
+        <v>1.305374887662678</v>
+      </c>
+      <c r="G27">
+        <v>1.302124619538872</v>
+      </c>
+      <c r="H27">
+        <v>1.302124619538872</v>
+      </c>
+      <c r="I27">
+        <v>1.302124619538872</v>
+      </c>
+      <c r="J27">
+        <v>1.039502025313966</v>
+      </c>
+      <c r="K27">
+        <v>0.9301382614120728</v>
+      </c>
+      <c r="L27">
+        <v>1.099764986339184</v>
+      </c>
+      <c r="M27">
+        <v>1.081921546013899</v>
+      </c>
+      <c r="N27">
+        <v>1.302124619538872</v>
+      </c>
+      <c r="O27">
+        <v>0.7255394228740227</v>
+      </c>
+      <c r="P27">
+        <v>1.01545715526835</v>
+      </c>
+      <c r="Q27">
+        <v>0.8825207240939945</v>
+      </c>
+      <c r="R27">
+        <v>1.111012976691858</v>
+      </c>
+      <c r="S27">
+        <v>1.023472111950222</v>
+      </c>
+      <c r="T27">
+        <v>1.111012976691858</v>
+      </c>
+      <c r="U27">
+        <v>1.093135238847385</v>
+      </c>
+      <c r="V27">
+        <v>1.134933114985682</v>
+      </c>
+      <c r="W27">
+        <v>1.038141081130673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.7227299481274836</v>
+      </c>
+      <c r="D28">
+        <v>0.9301180177777963</v>
+      </c>
+      <c r="E28">
+        <v>1.002423399269309</v>
+      </c>
+      <c r="F28">
+        <v>0.7227299481274836</v>
+      </c>
+      <c r="G28">
+        <v>1.615592240209775</v>
+      </c>
+      <c r="H28">
+        <v>1.615592240209775</v>
+      </c>
+      <c r="I28">
+        <v>1.615592240209775</v>
+      </c>
+      <c r="J28">
+        <v>0.9398085754596376</v>
+      </c>
+      <c r="K28">
+        <v>1.021888952658893</v>
+      </c>
+      <c r="L28">
+        <v>1.056351577355793</v>
+      </c>
+      <c r="M28">
+        <v>0.8095874740718283</v>
+      </c>
+      <c r="N28">
+        <v>1.615592240209775</v>
+      </c>
+      <c r="O28">
+        <v>1.002423399269309</v>
+      </c>
+      <c r="P28">
+        <v>0.8625766736983962</v>
+      </c>
+      <c r="Q28">
+        <v>0.9711159873644732</v>
+      </c>
+      <c r="R28">
+        <v>1.113581862535522</v>
+      </c>
+      <c r="S28">
+        <v>0.8883206409521432</v>
+      </c>
+      <c r="T28">
+        <v>1.113581862535522</v>
+      </c>
+      <c r="U28">
+        <v>1.070138540766551</v>
+      </c>
+      <c r="V28">
+        <v>1.179229280655196</v>
+      </c>
+      <c r="W28">
+        <v>1.012312523116314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.7609573142032291</v>
+      </c>
+      <c r="D29">
+        <v>0.939226064588331</v>
+      </c>
+      <c r="E29">
+        <v>1.044664592253401</v>
+      </c>
+      <c r="F29">
+        <v>0.7609573142032291</v>
+      </c>
+      <c r="G29">
+        <v>1.410135278593827</v>
+      </c>
+      <c r="H29">
+        <v>1.410135278593827</v>
+      </c>
+      <c r="I29">
+        <v>1.410135278593827</v>
+      </c>
+      <c r="J29">
+        <v>0.9506060567328229</v>
+      </c>
+      <c r="K29">
+        <v>1.041358736002788</v>
+      </c>
+      <c r="L29">
+        <v>1.057584318660627</v>
+      </c>
+      <c r="M29">
+        <v>0.8335672388159052</v>
+      </c>
+      <c r="N29">
+        <v>1.410135278593827</v>
+      </c>
+      <c r="O29">
+        <v>1.044664592253401</v>
+      </c>
+      <c r="P29">
+        <v>0.9028109532283149</v>
+      </c>
+      <c r="Q29">
+        <v>0.9976353244931119</v>
+      </c>
+      <c r="R29">
+        <v>1.071919061683486</v>
+      </c>
+      <c r="S29">
+        <v>0.9187426543964842</v>
+      </c>
+      <c r="T29">
+        <v>1.071919061683486</v>
+      </c>
+      <c r="U29">
+        <v>1.04159081044582</v>
+      </c>
+      <c r="V29">
+        <v>1.115299704075422</v>
+      </c>
+      <c r="W29">
+        <v>1.004762449981366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8377806831533995</v>
+      </c>
+      <c r="D30">
+        <v>0.9575461546157151</v>
+      </c>
+      <c r="E30">
+        <v>1.126471932911614</v>
+      </c>
+      <c r="F30">
+        <v>0.8377806831533995</v>
+      </c>
+      <c r="G30">
+        <v>1.003497804765972</v>
+      </c>
+      <c r="H30">
+        <v>1.003497804765972</v>
+      </c>
+      <c r="I30">
+        <v>1.003497804765972</v>
+      </c>
+      <c r="J30">
+        <v>0.9721592409391139</v>
+      </c>
+      <c r="K30">
+        <v>1.079234958164289</v>
+      </c>
+      <c r="L30">
+        <v>1.059849786426113</v>
+      </c>
+      <c r="M30">
+        <v>0.881920484910339</v>
+      </c>
+      <c r="N30">
+        <v>1.003497804765972</v>
+      </c>
+      <c r="O30">
+        <v>1.126471932911614</v>
+      </c>
+      <c r="P30">
+        <v>0.9821263080325064</v>
+      </c>
+      <c r="Q30">
+        <v>1.049315586925364</v>
+      </c>
+      <c r="R30">
+        <v>0.9892501402769948</v>
+      </c>
+      <c r="S30">
+        <v>0.978803952334709</v>
+      </c>
+      <c r="T30">
+        <v>0.989250140276995</v>
+      </c>
+      <c r="U30">
+        <v>0.9849774154425247</v>
+      </c>
+      <c r="V30">
+        <v>0.9886814933072141</v>
+      </c>
+      <c r="W30">
+        <v>0.9898076307358193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8127434817350117</v>
+      </c>
+      <c r="D31">
+        <v>0.9564887413640648</v>
+      </c>
+      <c r="E31">
+        <v>1.184281744850794</v>
+      </c>
+      <c r="F31">
+        <v>0.8127434817350117</v>
+      </c>
+      <c r="G31">
+        <v>0.9651589451699407</v>
+      </c>
+      <c r="H31">
+        <v>0.9651589451699407</v>
+      </c>
+      <c r="I31">
+        <v>0.9651589451699407</v>
+      </c>
+      <c r="J31">
+        <v>0.9649465480006222</v>
+      </c>
+      <c r="K31">
+        <v>1.09397868113559</v>
+      </c>
+      <c r="L31">
+        <v>1.066909325951471</v>
+      </c>
+      <c r="M31">
+        <v>0.8647910894357885</v>
+      </c>
+      <c r="N31">
+        <v>0.9651589451699407</v>
+      </c>
+      <c r="O31">
+        <v>1.184281744850794</v>
+      </c>
+      <c r="P31">
+        <v>0.9985126132929026</v>
+      </c>
+      <c r="Q31">
+        <v>1.074614146425708</v>
+      </c>
+      <c r="R31">
+        <v>0.9873947239185821</v>
+      </c>
+      <c r="S31">
+        <v>0.9873239248621425</v>
+      </c>
+      <c r="T31">
+        <v>0.9873947239185821</v>
+      </c>
+      <c r="U31">
+        <v>0.9817826799390921</v>
+      </c>
+      <c r="V31">
+        <v>0.9784579329852618</v>
+      </c>
+      <c r="W31">
+        <v>0.9886623197054103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.6745229524364383</v>
+      </c>
+      <c r="D32">
+        <v>0.9088529234246577</v>
+      </c>
+      <c r="E32">
+        <v>0.9482107330000001</v>
+      </c>
+      <c r="F32">
+        <v>0.6745229524364383</v>
+      </c>
+      <c r="G32">
+        <v>1.859208689117808</v>
+      </c>
+      <c r="H32">
+        <v>1.859208689117808</v>
+      </c>
+      <c r="I32">
+        <v>1.859208689117808</v>
+      </c>
+      <c r="J32">
+        <v>0.927156984109589</v>
+      </c>
+      <c r="K32">
+        <v>0.9979737419178081</v>
+      </c>
+      <c r="L32">
+        <v>1.074781947123287</v>
+      </c>
+      <c r="M32">
+        <v>0.7755475716849312</v>
+      </c>
+      <c r="N32">
+        <v>1.859208689117808</v>
+      </c>
+      <c r="O32">
+        <v>0.9482107330000001</v>
+      </c>
+      <c r="P32">
+        <v>0.8113668427182192</v>
+      </c>
+      <c r="Q32">
+        <v>0.9376838585547946</v>
+      </c>
+      <c r="R32">
+        <v>1.160647458184749</v>
+      </c>
+      <c r="S32">
+        <v>0.8499635565153425</v>
+      </c>
+      <c r="T32">
+        <v>1.160647458184749</v>
+      </c>
+      <c r="U32">
+        <v>1.102274839665959</v>
+      </c>
+      <c r="V32">
+        <v>1.253661609556329</v>
+      </c>
+      <c r="W32">
+        <v>1.020781942851815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.03555173832631579</v>
+      </c>
+      <c r="D33">
+        <v>1.000491594736842</v>
+      </c>
+      <c r="E33">
+        <v>1.772250611578947</v>
+      </c>
+      <c r="F33">
+        <v>0.03555173832631579</v>
+      </c>
+      <c r="G33">
+        <v>1.02668177068421</v>
+      </c>
+      <c r="H33">
+        <v>1.02668177068421</v>
+      </c>
+      <c r="I33">
+        <v>1.02668177068421</v>
+      </c>
+      <c r="J33">
+        <v>0.8652914631578946</v>
+      </c>
+      <c r="K33">
+        <v>1.360625138947369</v>
+      </c>
+      <c r="L33">
+        <v>1.094885611578947</v>
+      </c>
+      <c r="M33">
+        <v>0.3582984451578948</v>
+      </c>
+      <c r="N33">
+        <v>1.02668177068421</v>
+      </c>
+      <c r="O33">
+        <v>1.772250611578947</v>
+      </c>
+      <c r="P33">
+        <v>0.9039011749526314</v>
+      </c>
+      <c r="Q33">
+        <v>1.318771037368421</v>
+      </c>
+      <c r="R33">
+        <v>0.9448280401964911</v>
+      </c>
+      <c r="S33">
+        <v>0.8910312710210525</v>
+      </c>
+      <c r="T33">
+        <v>0.9448280401964911</v>
+      </c>
+      <c r="U33">
+        <v>0.924943895936842</v>
+      </c>
+      <c r="V33">
+        <v>0.9452914708863156</v>
+      </c>
+      <c r="W33">
+        <v>0.9392595467710527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.5785496097242103</v>
+      </c>
+      <c r="D34">
+        <v>0.6572802393157897</v>
+      </c>
+      <c r="E34">
+        <v>1.526399115263158</v>
+      </c>
+      <c r="F34">
+        <v>0.5785496097242103</v>
+      </c>
+      <c r="G34">
+        <v>1.50357895148421</v>
+      </c>
+      <c r="H34">
+        <v>1.50357895148421</v>
+      </c>
+      <c r="I34">
+        <v>1.50357895148421</v>
+      </c>
+      <c r="J34">
+        <v>0.7463373363157895</v>
+      </c>
+      <c r="K34">
+        <v>1.407366578947369</v>
+      </c>
+      <c r="L34">
+        <v>1.160968268947368</v>
+      </c>
+      <c r="M34">
+        <v>0.5507114603157893</v>
+      </c>
+      <c r="N34">
+        <v>1.50357895148421</v>
+      </c>
+      <c r="O34">
+        <v>1.526399115263158</v>
+      </c>
+      <c r="P34">
+        <v>1.052474362493684</v>
+      </c>
+      <c r="Q34">
+        <v>1.136368225789474</v>
+      </c>
+      <c r="R34">
+        <v>1.20284255882386</v>
+      </c>
+      <c r="S34">
+        <v>0.9504286871010527</v>
+      </c>
+      <c r="T34">
+        <v>1.20284255882386</v>
+      </c>
+      <c r="U34">
+        <v>1.088716253196842</v>
+      </c>
+      <c r="V34">
+        <v>1.171688792854316</v>
+      </c>
+      <c r="W34">
+        <v>1.016398945039211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4214253786647564</v>
+      </c>
+      <c r="D35">
+        <v>0.7086911722006052</v>
+      </c>
+      <c r="E35">
+        <v>1.78982439477848</v>
+      </c>
+      <c r="F35">
+        <v>0.4214253786647564</v>
+      </c>
+      <c r="G35">
+        <v>0.6992850021672057</v>
+      </c>
+      <c r="H35">
+        <v>0.6992850021672057</v>
+      </c>
+      <c r="I35">
+        <v>0.6992850021672057</v>
+      </c>
+      <c r="J35">
+        <v>0.9221196443026057</v>
+      </c>
+      <c r="K35">
+        <v>1.337947144998374</v>
+      </c>
+      <c r="L35">
+        <v>1.421395760578318</v>
+      </c>
+      <c r="M35">
+        <v>0.5046104390890966</v>
+      </c>
+      <c r="N35">
+        <v>0.6992850021672057</v>
+      </c>
+      <c r="O35">
+        <v>1.78982439477848</v>
+      </c>
+      <c r="P35">
+        <v>1.105624886721618</v>
+      </c>
+      <c r="Q35">
+        <v>1.355972019540543</v>
+      </c>
+      <c r="R35">
+        <v>0.9701782585368139</v>
+      </c>
+      <c r="S35">
+        <v>1.044456472581947</v>
+      </c>
+      <c r="T35">
+        <v>0.9701782585368139</v>
+      </c>
+      <c r="U35">
+        <v>0.9581636049782619</v>
+      </c>
+      <c r="V35">
+        <v>0.9063878844160506</v>
+      </c>
+      <c r="W35">
+        <v>0.9756623670974301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.002950154975588</v>
+      </c>
+      <c r="D36">
+        <v>0.9994121392401868</v>
+      </c>
+      <c r="E36">
+        <v>1.001387695214186</v>
+      </c>
+      <c r="F36">
+        <v>1.002950154975588</v>
+      </c>
+      <c r="G36">
+        <v>0.9994766381064701</v>
+      </c>
+      <c r="H36">
+        <v>0.9994766381064701</v>
+      </c>
+      <c r="I36">
+        <v>0.9994766381064701</v>
+      </c>
+      <c r="J36">
+        <v>0.9978468026849677</v>
+      </c>
+      <c r="K36">
+        <v>1.001591279533695</v>
+      </c>
+      <c r="L36">
+        <v>0.9989600501196152</v>
+      </c>
+      <c r="M36">
+        <v>0.9997039152826459</v>
+      </c>
+      <c r="N36">
+        <v>0.9994766381064701</v>
+      </c>
+      <c r="O36">
+        <v>1.001387695214186</v>
+      </c>
+      <c r="P36">
+        <v>1.002168925094887</v>
+      </c>
+      <c r="Q36">
+        <v>0.9996172489495772</v>
+      </c>
+      <c r="R36">
+        <v>1.001271496098748</v>
+      </c>
+      <c r="S36">
+        <v>1.000728217624914</v>
+      </c>
+      <c r="T36">
+        <v>1.001271496098748</v>
+      </c>
+      <c r="U36">
+        <v>1.000415322745303</v>
+      </c>
+      <c r="V36">
+        <v>1.000227585817537</v>
+      </c>
+      <c r="W36">
+        <v>1.00016608439467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9955043138851796</v>
+      </c>
+      <c r="D37">
+        <v>0.9993331203757522</v>
+      </c>
+      <c r="E37">
+        <v>1.001250013424801</v>
+      </c>
+      <c r="F37">
+        <v>0.9955043138851796</v>
+      </c>
+      <c r="G37">
+        <v>0.9991521165377896</v>
+      </c>
+      <c r="H37">
+        <v>0.9991521165377896</v>
+      </c>
+      <c r="I37">
+        <v>0.9991521165377896</v>
+      </c>
+      <c r="J37">
+        <v>1.003059649454345</v>
+      </c>
+      <c r="K37">
+        <v>0.9990181019160974</v>
+      </c>
+      <c r="L37">
+        <v>1.003263500445397</v>
+      </c>
+      <c r="M37">
+        <v>0.9992024768127653</v>
+      </c>
+      <c r="N37">
+        <v>0.9991521165377896</v>
+      </c>
+      <c r="O37">
+        <v>1.001250013424801</v>
+      </c>
+      <c r="P37">
+        <v>0.9983771636549901</v>
+      </c>
+      <c r="Q37">
+        <v>1.002154831439573</v>
+      </c>
+      <c r="R37">
+        <v>0.9986354812825899</v>
+      </c>
+      <c r="S37">
+        <v>0.9999379922547752</v>
+      </c>
+      <c r="T37">
+        <v>0.9986354812825899</v>
+      </c>
+      <c r="U37">
+        <v>0.9997415233255288</v>
+      </c>
+      <c r="V37">
+        <v>0.9996236419679809</v>
+      </c>
+      <c r="W37">
+        <v>0.9999729116065159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.005534624752126</v>
+      </c>
+      <c r="D38">
+        <v>0.9988551200502842</v>
+      </c>
+      <c r="E38">
+        <v>1.000159373495758</v>
+      </c>
+      <c r="F38">
+        <v>1.005534624752126</v>
+      </c>
+      <c r="G38">
+        <v>1.011229275335005</v>
+      </c>
+      <c r="H38">
+        <v>1.011229275335005</v>
+      </c>
+      <c r="I38">
+        <v>1.011229275335005</v>
+      </c>
+      <c r="J38">
+        <v>0.9930063427713632</v>
+      </c>
+      <c r="K38">
+        <v>1.005477306853848</v>
+      </c>
+      <c r="L38">
+        <v>0.9975869754107575</v>
+      </c>
+      <c r="M38">
+        <v>0.9963156575168721</v>
+      </c>
+      <c r="N38">
+        <v>1.011229275335005</v>
+      </c>
+      <c r="O38">
+        <v>1.000159373495758</v>
+      </c>
+      <c r="P38">
+        <v>1.002846999123942</v>
+      </c>
+      <c r="Q38">
+        <v>0.9965828581335605</v>
+      </c>
+      <c r="R38">
+        <v>1.005641091194296</v>
+      </c>
+      <c r="S38">
+        <v>0.9995667803397489</v>
+      </c>
+      <c r="T38">
+        <v>1.005641091194296</v>
+      </c>
+      <c r="U38">
+        <v>1.002482404088563</v>
+      </c>
+      <c r="V38">
+        <v>1.004231778337852</v>
+      </c>
+      <c r="W38">
+        <v>1.001020584523252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.027423277152397</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9951799948893671</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000684584074708</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.027423277152397</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.040817119564907</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.040817119564907</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.040817119564907</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9689847244408001</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.017023676280573</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9821334373442143</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9930930738036458</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.040817119564907</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000684584074708</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.014053930613553</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9848346542577542</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.022974993597337</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9990308618893017</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.022974993597337</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.009477426308203</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.015745364959544</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.003167485943826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.7960991824636046</v>
+      </c>
+      <c r="D40">
+        <v>0.9314866030024703</v>
+      </c>
+      <c r="E40">
+        <v>1.123748193325725</v>
+      </c>
+      <c r="F40">
+        <v>0.7960991824636046</v>
+      </c>
+      <c r="G40">
+        <v>1.239150429891894</v>
+      </c>
+      <c r="H40">
+        <v>1.239150429891894</v>
+      </c>
+      <c r="I40">
+        <v>1.239150429891894</v>
+      </c>
+      <c r="J40">
+        <v>0.9078115615442104</v>
+      </c>
+      <c r="K40">
+        <v>1.112535380722626</v>
+      </c>
+      <c r="L40">
+        <v>1.025836881732347</v>
+      </c>
+      <c r="M40">
+        <v>0.8363302409174943</v>
+      </c>
+      <c r="N40">
+        <v>1.239150429891894</v>
+      </c>
+      <c r="O40">
+        <v>1.123748193325725</v>
+      </c>
+      <c r="P40">
+        <v>0.959923687894665</v>
+      </c>
+      <c r="Q40">
+        <v>1.015779877434968</v>
+      </c>
+      <c r="R40">
+        <v>1.052999268560408</v>
+      </c>
+      <c r="S40">
+        <v>0.9425529791111801</v>
+      </c>
+      <c r="T40">
+        <v>1.052999268560408</v>
+      </c>
+      <c r="U40">
+        <v>1.016702341806359</v>
+      </c>
+      <c r="V40">
+        <v>1.061191959423466</v>
+      </c>
+      <c r="W40">
+        <v>0.9966248092000467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.187687736606968</v>
+      </c>
+      <c r="D41">
+        <v>0.9883905887082078</v>
+      </c>
+      <c r="E41">
+        <v>0.9385253607010473</v>
+      </c>
+      <c r="F41">
+        <v>1.187687736606968</v>
+      </c>
+      <c r="G41">
+        <v>0.9517495721162209</v>
+      </c>
+      <c r="H41">
+        <v>0.9517495721162209</v>
+      </c>
+      <c r="I41">
+        <v>0.9517495721162209</v>
+      </c>
+      <c r="J41">
+        <v>1.037939836456725</v>
+      </c>
+      <c r="K41">
+        <v>0.9429295584794805</v>
+      </c>
+      <c r="L41">
+        <v>0.9887350211743069</v>
+      </c>
+      <c r="M41">
+        <v>1.10041238404578</v>
+      </c>
+      <c r="N41">
+        <v>0.9517495721162209</v>
+      </c>
+      <c r="O41">
+        <v>0.9385253607010473</v>
+      </c>
+      <c r="P41">
+        <v>1.063106548654007</v>
+      </c>
+      <c r="Q41">
+        <v>0.9882325985788862</v>
+      </c>
+      <c r="R41">
+        <v>1.025987556474745</v>
+      </c>
+      <c r="S41">
+        <v>1.054717644588247</v>
+      </c>
+      <c r="T41">
+        <v>1.025987556474745</v>
+      </c>
+      <c r="U41">
+        <v>1.02897562647024</v>
+      </c>
+      <c r="V41">
+        <v>1.013530415599436</v>
+      </c>
+      <c r="W41">
+        <v>1.017046257286092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7235833740900932</v>
+      </c>
+      <c r="D42">
+        <v>0.9789632114223591</v>
+      </c>
+      <c r="E42">
+        <v>1.227115850002343</v>
+      </c>
+      <c r="F42">
+        <v>0.7235833740900932</v>
+      </c>
+      <c r="G42">
+        <v>0.994982949059292</v>
+      </c>
+      <c r="H42">
+        <v>0.994982949059292</v>
+      </c>
+      <c r="I42">
+        <v>0.994982949059292</v>
+      </c>
+      <c r="J42">
+        <v>0.9493511982399014</v>
+      </c>
+      <c r="K42">
+        <v>1.130625353113449</v>
+      </c>
+      <c r="L42">
+        <v>1.032227858776558</v>
+      </c>
+      <c r="M42">
+        <v>0.8182150909694319</v>
+      </c>
+      <c r="N42">
+        <v>0.994982949059292</v>
+      </c>
+      <c r="O42">
+        <v>1.227115850002343</v>
+      </c>
+      <c r="P42">
+        <v>0.9753496120462181</v>
+      </c>
+      <c r="Q42">
+        <v>1.088233524121122</v>
+      </c>
+      <c r="R42">
+        <v>0.9818940577172427</v>
+      </c>
+      <c r="S42">
+        <v>0.9666834741107792</v>
+      </c>
+      <c r="T42">
+        <v>0.9818940577172427</v>
+      </c>
+      <c r="U42">
+        <v>0.9737583428479074</v>
+      </c>
+      <c r="V42">
+        <v>0.9780032640901843</v>
+      </c>
+      <c r="W42">
+        <v>0.9818831107091786</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,49 +85,46 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.035393383193995</v>
+        <v>0.9965612707476728</v>
       </c>
       <c r="D3">
-        <v>0.9864892197581749</v>
+        <v>0.9984680932428042</v>
       </c>
       <c r="E3">
-        <v>0.9997484692539274</v>
+        <v>1.002366836624558</v>
       </c>
       <c r="F3">
-        <v>1.035393383193995</v>
+        <v>0.9965612707476728</v>
       </c>
       <c r="G3">
-        <v>0.9970635257884494</v>
+        <v>1.000987647989247</v>
       </c>
       <c r="H3">
-        <v>1.000149672903811</v>
+        <v>1.000987647989247</v>
       </c>
       <c r="I3">
-        <v>1.035393383193995</v>
+        <v>1.000987647989247</v>
       </c>
       <c r="J3">
-        <v>0.9864892197581749</v>
+        <v>0.9991030117850386</v>
       </c>
       <c r="K3">
-        <v>0.9966426539245946</v>
+        <v>1.001513067534599</v>
       </c>
       <c r="L3">
-        <v>1.002130355056269</v>
+        <v>1.002647006073617</v>
       </c>
       <c r="M3">
-        <v>0.990362324879733</v>
+        <v>0.9967524667664508</v>
       </c>
       <c r="N3">
-        <v>1.035393383193995</v>
+        <v>1.000987647989247</v>
       </c>
       <c r="O3">
-        <v>0.9997484692539274</v>
+        <v>1.002366836624558</v>
       </c>
       <c r="P3">
-        <v>0.9931188445060511</v>
+        <v>0.9994640536861156</v>
       </c>
       <c r="Q3">
-        <v>0.9984059975211883</v>
+        <v>1.000734924204798</v>
       </c>
       <c r="R3">
-        <v>1.007210357402032</v>
+        <v>0.9999719184538259</v>
       </c>
       <c r="S3">
-        <v>0.9944337382668506</v>
+        <v>0.9993437063857566</v>
       </c>
       <c r="T3">
-        <v>1.007210357402032</v>
+        <v>0.9999719184538259</v>
       </c>
       <c r="U3">
-        <v>1.004673649498637</v>
+        <v>0.9997546917866291</v>
       </c>
       <c r="V3">
-        <v>1.010817596237708</v>
+        <v>1.000001283027153</v>
       </c>
       <c r="W3">
-        <v>1.000997450594869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9997999250954984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.066452356188739</v>
+        <v>0.7960991824636046</v>
       </c>
       <c r="D4">
-        <v>0.9730504106611605</v>
+        <v>0.9314866030024703</v>
       </c>
       <c r="E4">
-        <v>0.9989253665115825</v>
+        <v>1.123748193325725</v>
       </c>
       <c r="F4">
-        <v>1.066452356188739</v>
+        <v>0.7960991824636046</v>
       </c>
       <c r="G4">
-        <v>0.9944063090936862</v>
+        <v>1.239150429891894</v>
       </c>
       <c r="H4">
-        <v>1.000568082985541</v>
+        <v>1.239150429891894</v>
       </c>
       <c r="I4">
-        <v>1.066452356188739</v>
+        <v>1.239150429891894</v>
       </c>
       <c r="J4">
-        <v>0.9730504106611605</v>
+        <v>0.9078115615442104</v>
       </c>
       <c r="K4">
-        <v>0.9934802469088948</v>
+        <v>1.112535380722626</v>
       </c>
       <c r="L4">
-        <v>1.005077968433713</v>
+        <v>1.025836881732347</v>
       </c>
       <c r="M4">
-        <v>0.9818634497395482</v>
+        <v>0.8363302409174943</v>
       </c>
       <c r="N4">
-        <v>1.066452356188739</v>
+        <v>1.239150429891894</v>
       </c>
       <c r="O4">
-        <v>0.9989253665115825</v>
+        <v>1.123748193325725</v>
       </c>
       <c r="P4">
-        <v>0.9859878885863715</v>
+        <v>0.959923687894665</v>
       </c>
       <c r="Q4">
-        <v>0.9966658378026343</v>
+        <v>1.015779877434968</v>
       </c>
       <c r="R4">
-        <v>1.012809377787161</v>
+        <v>1.052999268560408</v>
       </c>
       <c r="S4">
-        <v>0.9887940287554765</v>
+        <v>0.9425529791111801</v>
       </c>
       <c r="T4">
-        <v>1.012809377787161</v>
+        <v>1.052999268560408</v>
       </c>
       <c r="U4">
-        <v>1.008208610613792</v>
+        <v>1.016702341806359</v>
       </c>
       <c r="V4">
-        <v>1.019857359728781</v>
+        <v>1.061191959423466</v>
       </c>
       <c r="W4">
-        <v>1.001728023815358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9966248092000467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.134622931807166</v>
+        <v>0.8111433603265001</v>
       </c>
       <c r="D5">
-        <v>0.9499885091624954</v>
+        <v>0.9413199824214701</v>
       </c>
       <c r="E5">
-        <v>1.000704842250933</v>
+        <v>1.163419193935161</v>
       </c>
       <c r="F5">
-        <v>1.134622931807166</v>
+        <v>0.8111433603265001</v>
       </c>
       <c r="G5">
-        <v>0.989266138962909</v>
+        <v>1.007268353845102</v>
       </c>
       <c r="H5">
-        <v>1.002320974342188</v>
+        <v>1.007268353845102</v>
       </c>
       <c r="I5">
-        <v>1.134622931807166</v>
+        <v>1.007268353845102</v>
       </c>
       <c r="J5">
-        <v>0.9499885091624954</v>
+        <v>0.9658785934438036</v>
       </c>
       <c r="K5">
-        <v>0.9884724921434</v>
+        <v>1.09574673744957</v>
       </c>
       <c r="L5">
-        <v>1.008749110771125</v>
+        <v>1.077485226145538</v>
       </c>
       <c r="M5">
-        <v>0.9651143729162145</v>
+        <v>0.8574013949582128</v>
       </c>
       <c r="N5">
-        <v>1.134622931807166</v>
+        <v>1.007268353845102</v>
       </c>
       <c r="O5">
-        <v>1.000704842250933</v>
+        <v>1.163419193935161</v>
       </c>
       <c r="P5">
-        <v>0.9753466757067144</v>
+        <v>0.9872812771308308</v>
       </c>
       <c r="Q5">
-        <v>0.9949854906069213</v>
+        <v>1.064648893689482</v>
       </c>
       <c r="R5">
-        <v>1.028438761073531</v>
+        <v>0.9939436360355879</v>
       </c>
       <c r="S5">
-        <v>0.9799864967921126</v>
+        <v>0.9801470492351551</v>
       </c>
       <c r="T5">
-        <v>1.028438761073532</v>
+        <v>0.9939436360355879</v>
       </c>
       <c r="U5">
-        <v>1.018645605545876</v>
+        <v>0.9869273753876417</v>
       </c>
       <c r="V5">
-        <v>1.041841070798134</v>
+        <v>0.9909955710791337</v>
       </c>
       <c r="W5">
-        <v>1.004904921544554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9899578553156697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.246408446492422</v>
+        <v>0.4214253786647564</v>
       </c>
       <c r="D6">
-        <v>0.9543317926612694</v>
+        <v>0.7086911722006052</v>
       </c>
       <c r="E6">
-        <v>0.9906540240083817</v>
+        <v>1.78982439477848</v>
       </c>
       <c r="F6">
-        <v>1.246408446492422</v>
+        <v>0.4214253786647564</v>
       </c>
       <c r="G6">
-        <v>1.000509866606461</v>
+        <v>0.6992850021672057</v>
       </c>
       <c r="H6">
-        <v>1.007559476848343</v>
+        <v>0.6992850021672057</v>
       </c>
       <c r="I6">
-        <v>1.246408446492422</v>
+        <v>0.6992850021672057</v>
       </c>
       <c r="J6">
-        <v>0.9543317926612694</v>
+        <v>0.9221196443026057</v>
       </c>
       <c r="K6">
-        <v>0.9832267969232706</v>
+        <v>1.337947144998374</v>
       </c>
       <c r="L6">
-        <v>0.988970328846942</v>
+        <v>1.421395760578318</v>
       </c>
       <c r="M6">
-        <v>0.9419672602109294</v>
+        <v>0.5046104390890966</v>
       </c>
       <c r="N6">
-        <v>1.246408446492422</v>
+        <v>0.6992850021672057</v>
       </c>
       <c r="O6">
-        <v>0.9906540240083817</v>
+        <v>1.78982439477848</v>
       </c>
       <c r="P6">
-        <v>0.9724929083348255</v>
+        <v>1.105624886721618</v>
       </c>
       <c r="Q6">
-        <v>0.9955819453074215</v>
+        <v>1.355972019540543</v>
       </c>
       <c r="R6">
-        <v>1.063798087720691</v>
+        <v>0.9701782585368139</v>
       </c>
       <c r="S6">
-        <v>0.9818318944253708</v>
+        <v>1.044456472581947</v>
       </c>
       <c r="T6">
-        <v>1.063798087720691</v>
+        <v>0.9701782585368139</v>
       </c>
       <c r="U6">
-        <v>1.047976032442134</v>
+        <v>0.9581636049782619</v>
       </c>
       <c r="V6">
-        <v>1.087662515252191</v>
+        <v>0.9063878844160506</v>
       </c>
       <c r="W6">
-        <v>1.014203499074752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9756623670974301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000039776100716</v>
+        <v>0.984492244552244</v>
       </c>
       <c r="D7">
-        <v>0.998711968536676</v>
+        <v>0.9941239031477851</v>
       </c>
       <c r="E7">
-        <v>1.001377935321194</v>
+        <v>0.9963041592541914</v>
       </c>
       <c r="F7">
-        <v>1.000039776100716</v>
+        <v>0.984492244552244</v>
       </c>
       <c r="G7">
-        <v>0.9998774934314536</v>
+        <v>1.041529651243309</v>
       </c>
       <c r="H7">
-        <v>1.000577191462694</v>
+        <v>1.041529651243309</v>
       </c>
       <c r="I7">
-        <v>1.000039776100716</v>
+        <v>1.041529651243309</v>
       </c>
       <c r="J7">
-        <v>0.998711968536676</v>
+        <v>0.9961165607691079</v>
       </c>
       <c r="K7">
-        <v>0.9992764633339981</v>
+        <v>1.001292164688433</v>
       </c>
       <c r="L7">
-        <v>1.000992833320638</v>
+        <v>1.003819283359921</v>
       </c>
       <c r="M7">
-        <v>0.9989393333205603</v>
+        <v>0.9893944191599953</v>
       </c>
       <c r="N7">
-        <v>1.000039776100716</v>
+        <v>1.041529651243309</v>
       </c>
       <c r="O7">
-        <v>1.001377935321194</v>
+        <v>0.9963041592541914</v>
       </c>
       <c r="P7">
-        <v>1.000044951928935</v>
+        <v>0.9903982019032177</v>
       </c>
       <c r="Q7">
-        <v>1.000627714376324</v>
+        <v>0.9962103600116496</v>
       </c>
       <c r="R7">
-        <v>1.000043226652862</v>
+        <v>1.007442018349915</v>
       </c>
       <c r="S7">
-        <v>0.9999891324297746</v>
+        <v>0.9923043215251811</v>
       </c>
       <c r="T7">
-        <v>1.000043226652862</v>
+        <v>1.007442018349915</v>
       </c>
       <c r="U7">
-        <v>1.00000179334751</v>
+        <v>1.004610653954713</v>
       </c>
       <c r="V7">
-        <v>1.000009389898151</v>
+        <v>1.011994453412432</v>
       </c>
       <c r="W7">
-        <v>0.9999741243534913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.000884048271873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000987647989249</v>
+        <v>0.9955043138851796</v>
       </c>
       <c r="D8">
-        <v>0.9965612707476726</v>
+        <v>0.9993331203757522</v>
       </c>
       <c r="E8">
-        <v>1.002366836624558</v>
+        <v>1.001250013424801</v>
       </c>
       <c r="F8">
-        <v>1.000987647989249</v>
+        <v>0.9955043138851796</v>
       </c>
       <c r="G8">
-        <v>0.9991030117850384</v>
+        <v>0.9991521165377896</v>
       </c>
       <c r="H8">
-        <v>1.001513067534599</v>
+        <v>0.9991521165377896</v>
       </c>
       <c r="I8">
-        <v>1.000987647989249</v>
+        <v>0.9991521165377896</v>
       </c>
       <c r="J8">
-        <v>0.9965612707476726</v>
+        <v>1.003059649454345</v>
       </c>
       <c r="K8">
-        <v>0.9984680932428038</v>
+        <v>0.9990181019160974</v>
       </c>
       <c r="L8">
-        <v>1.002647006073617</v>
+        <v>1.003263500445397</v>
       </c>
       <c r="M8">
-        <v>0.996752466766451</v>
+        <v>0.9992024768127653</v>
       </c>
       <c r="N8">
-        <v>1.000987647989249</v>
+        <v>0.9991521165377896</v>
       </c>
       <c r="O8">
-        <v>1.002366836624558</v>
+        <v>1.001250013424801</v>
       </c>
       <c r="P8">
-        <v>0.9994640536861155</v>
+        <v>0.9983771636549901</v>
       </c>
       <c r="Q8">
-        <v>1.000734924204798</v>
+        <v>1.002154831439573</v>
       </c>
       <c r="R8">
-        <v>0.9999719184538266</v>
+        <v>0.9986354812825899</v>
       </c>
       <c r="S8">
-        <v>0.9993437063857563</v>
+        <v>0.9999379922547752</v>
       </c>
       <c r="T8">
-        <v>0.9999719184538266</v>
+        <v>0.9986354812825899</v>
       </c>
       <c r="U8">
-        <v>0.9997546917866296</v>
+        <v>0.9997415233255288</v>
       </c>
       <c r="V8">
-        <v>1.000001283027153</v>
+        <v>0.9996236419679809</v>
       </c>
       <c r="W8">
-        <v>0.9997999250954986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999729116065159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.003728710044807</v>
+        <v>0.9730504106611605</v>
       </c>
       <c r="D9">
-        <v>0.9946986276697146</v>
+        <v>0.9934802469088948</v>
       </c>
       <c r="E9">
-        <v>1.003030823795609</v>
+        <v>0.9989253665115825</v>
       </c>
       <c r="F9">
-        <v>1.003728710044807</v>
+        <v>0.9730504106611605</v>
       </c>
       <c r="G9">
-        <v>0.9991926607550546</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="H9">
-        <v>1.001734692446825</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="I9">
-        <v>1.003728710044807</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="J9">
-        <v>0.9946986276697146</v>
+        <v>0.9944063090936862</v>
       </c>
       <c r="K9">
-        <v>0.9972174643187566</v>
+        <v>1.000568082985541</v>
       </c>
       <c r="L9">
-        <v>1.003948163384798</v>
+        <v>1.005077968433713</v>
       </c>
       <c r="M9">
-        <v>0.9957544675561486</v>
+        <v>0.981863449739548</v>
       </c>
       <c r="N9">
-        <v>1.003728710044807</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="O9">
-        <v>1.003030823795609</v>
+        <v>0.9989253665115825</v>
       </c>
       <c r="P9">
-        <v>0.9988647257326619</v>
+        <v>0.9859878885863715</v>
       </c>
       <c r="Q9">
-        <v>1.001111742275332</v>
+        <v>0.9966658378026343</v>
       </c>
       <c r="R9">
-        <v>1.00048605383671</v>
+        <v>1.012809377787161</v>
       </c>
       <c r="S9">
-        <v>0.9989740374067928</v>
+        <v>0.9887940287554765</v>
       </c>
       <c r="T9">
-        <v>1.00048605383671</v>
+        <v>1.012809377787161</v>
       </c>
       <c r="U9">
-        <v>1.000162705566296</v>
+        <v>1.008208610613792</v>
       </c>
       <c r="V9">
-        <v>1.000875906461999</v>
+        <v>1.019857359728781</v>
       </c>
       <c r="W9">
-        <v>0.9999132012464642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.001728023815358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.005500729811719</v>
+        <v>0.4092482254199421</v>
       </c>
       <c r="D10">
-        <v>0.9886378944404464</v>
+        <v>0.7067430209056588</v>
       </c>
       <c r="E10">
-        <v>1.007541637654862</v>
+        <v>1.810525125073029</v>
       </c>
       <c r="F10">
-        <v>1.005500729811719</v>
+        <v>0.4092482254199421</v>
       </c>
       <c r="G10">
-        <v>0.9982977094773754</v>
+        <v>0.6877173632472665</v>
       </c>
       <c r="H10">
-        <v>1.004053608071602</v>
+        <v>0.6877173632472665</v>
       </c>
       <c r="I10">
-        <v>1.005500729811719</v>
+        <v>0.6877173632472665</v>
       </c>
       <c r="J10">
-        <v>0.9886378944404464</v>
+        <v>0.9185874056147698</v>
       </c>
       <c r="K10">
-        <v>0.9944307968624211</v>
+        <v>1.344000211785108</v>
       </c>
       <c r="L10">
-        <v>1.008468205314685</v>
+        <v>1.42716556620639</v>
       </c>
       <c r="M10">
-        <v>0.9906726791392202</v>
+        <v>0.4960088018777538</v>
       </c>
       <c r="N10">
-        <v>1.005500729811719</v>
+        <v>0.6877173632472665</v>
       </c>
       <c r="O10">
-        <v>1.007541637654862</v>
+        <v>1.810525125073029</v>
       </c>
       <c r="P10">
-        <v>0.9980897660476543</v>
+        <v>1.109886675246485</v>
       </c>
       <c r="Q10">
-        <v>1.002919673566119</v>
+        <v>1.364556265343899</v>
       </c>
       <c r="R10">
-        <v>1.000560087302343</v>
+        <v>0.9691635712467458</v>
       </c>
       <c r="S10">
-        <v>0.998159080524228</v>
+        <v>1.046120252035913</v>
       </c>
       <c r="T10">
-        <v>1.000560087302343</v>
+        <v>0.9691635712467459</v>
       </c>
       <c r="U10">
-        <v>0.9999944928461009</v>
+        <v>0.9565195298387519</v>
       </c>
       <c r="V10">
-        <v>1.001095740239224</v>
+        <v>0.9027590965204547</v>
       </c>
       <c r="W10">
-        <v>0.9997004075965416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9749994650162397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.015438697682677</v>
+        <v>0.9737712228369896</v>
       </c>
       <c r="D11">
-        <v>0.9815127838832282</v>
+        <v>0.9224044347045061</v>
       </c>
       <c r="E11">
-        <v>1.007916136971942</v>
+        <v>1.073031126389865</v>
       </c>
       <c r="F11">
-        <v>1.015438697682677</v>
+        <v>0.9737712228369896</v>
       </c>
       <c r="G11">
-        <v>0.9962902129651473</v>
+        <v>1.177556125081572</v>
       </c>
       <c r="H11">
-        <v>1.005978381557131</v>
+        <v>1.177556125081572</v>
       </c>
       <c r="I11">
-        <v>1.015438697682677</v>
+        <v>1.177556125081572</v>
       </c>
       <c r="J11">
-        <v>0.9815127838832282</v>
+        <v>0.9422697966315118</v>
       </c>
       <c r="K11">
-        <v>0.9912173228511406</v>
+        <v>1.062368830341084</v>
       </c>
       <c r="L11">
-        <v>1.014645883503999</v>
+        <v>1.011638891172528</v>
       </c>
       <c r="M11">
-        <v>0.9842857875455122</v>
+        <v>0.9356103592259528</v>
       </c>
       <c r="N11">
-        <v>1.015438697682677</v>
+        <v>1.177556125081572</v>
       </c>
       <c r="O11">
-        <v>1.007916136971942</v>
+        <v>1.073031126389865</v>
       </c>
       <c r="P11">
-        <v>0.994714460427585</v>
+        <v>1.023401174613427</v>
       </c>
       <c r="Q11">
-        <v>1.002103174968545</v>
+        <v>1.007650461510688</v>
       </c>
       <c r="R11">
-        <v>1.001622539512615</v>
+        <v>1.074786158102809</v>
       </c>
       <c r="S11">
-        <v>0.9952397112734391</v>
+        <v>0.9963573819527888</v>
       </c>
       <c r="T11">
-        <v>1.001622539512615</v>
+        <v>1.074786158102809</v>
       </c>
       <c r="U11">
-        <v>1.000289457875748</v>
+        <v>1.041657067734984</v>
       </c>
       <c r="V11">
-        <v>1.003319305837134</v>
+        <v>1.068836879204302</v>
       </c>
       <c r="W11">
-        <v>0.9996606508700971</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.012331348298001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.22717483986535</v>
+        <v>0.7971416002312636</v>
       </c>
       <c r="D12">
-        <v>1.492343952233583</v>
+        <v>0.9440928388526318</v>
       </c>
       <c r="E12">
-        <v>0.4684384083647561</v>
+        <v>1.226136009361054</v>
       </c>
       <c r="F12">
-        <v>1.22717483986535</v>
+        <v>0.7971416002312636</v>
       </c>
       <c r="G12">
-        <v>1.094414183780104</v>
+        <v>0.9456217035490514</v>
       </c>
       <c r="H12">
-        <v>0.7580141281995955</v>
+        <v>0.9456217035490514</v>
       </c>
       <c r="I12">
-        <v>1.22717483986535</v>
+        <v>0.9456217035490514</v>
       </c>
       <c r="J12">
-        <v>1.492343952233583</v>
+        <v>0.9638049069473685</v>
       </c>
       <c r="K12">
-        <v>0.8897228076815409</v>
+        <v>1.104708337073688</v>
       </c>
       <c r="L12">
-        <v>1.120483807619306</v>
+        <v>1.084534397357898</v>
       </c>
       <c r="M12">
-        <v>1.282097288238961</v>
+        <v>0.8484715436421054</v>
       </c>
       <c r="N12">
-        <v>1.22717483986535</v>
+        <v>0.9456217035490514</v>
       </c>
       <c r="O12">
-        <v>0.4684384083647561</v>
+        <v>1.226136009361054</v>
       </c>
       <c r="P12">
-        <v>0.9803911802991695</v>
+        <v>1.011638804796159</v>
       </c>
       <c r="Q12">
-        <v>0.7814262960724302</v>
+        <v>1.094970458154211</v>
       </c>
       <c r="R12">
-        <v>1.062652400154563</v>
+        <v>0.9896331043804563</v>
       </c>
       <c r="S12">
-        <v>1.018398848126148</v>
+        <v>0.9956941721798952</v>
       </c>
       <c r="T12">
-        <v>1.062652400154563</v>
+        <v>0.9896331043804563</v>
       </c>
       <c r="U12">
-        <v>1.070592846060948</v>
+        <v>0.9831760550221843</v>
       </c>
       <c r="V12">
-        <v>1.101909244821829</v>
+        <v>0.9756651847275577</v>
       </c>
       <c r="W12">
-        <v>1.0415861769979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9893139171268825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8463522056953445</v>
+        <v>1.102769407102555</v>
       </c>
       <c r="D13">
-        <v>1.001244636063881</v>
+        <v>1.038205962440511</v>
       </c>
       <c r="E13">
-        <v>1.184327289659022</v>
+        <v>0.9491904860462418</v>
       </c>
       <c r="F13">
-        <v>0.8463522056953445</v>
+        <v>1.102769407102555</v>
       </c>
       <c r="G13">
-        <v>0.9811880439265862</v>
+        <v>0.9397899633489799</v>
       </c>
       <c r="H13">
-        <v>1.039186110510082</v>
+        <v>0.9397899633489799</v>
       </c>
       <c r="I13">
-        <v>0.8463522056953445</v>
+        <v>0.9397899633489799</v>
       </c>
       <c r="J13">
-        <v>1.001244636063881</v>
+        <v>1.022529795429916</v>
       </c>
       <c r="K13">
-        <v>1.092070993600726</v>
+        <v>0.9414787277632255</v>
       </c>
       <c r="L13">
-        <v>0.8627137598215937</v>
+        <v>0.9695054953569091</v>
       </c>
       <c r="M13">
-        <v>0.9986527860727329</v>
+        <v>1.083681321869267</v>
       </c>
       <c r="N13">
-        <v>0.8463522056953445</v>
+        <v>0.9397899633489799</v>
       </c>
       <c r="O13">
-        <v>1.184327289659022</v>
+        <v>0.9491904860462418</v>
       </c>
       <c r="P13">
-        <v>1.092785962861451</v>
+        <v>1.025979946574398</v>
       </c>
       <c r="Q13">
-        <v>1.082757666792804</v>
+        <v>0.9858601407380789</v>
       </c>
       <c r="R13">
-        <v>1.010641377139416</v>
+        <v>0.9972499521659256</v>
       </c>
       <c r="S13">
-        <v>1.05558665654983</v>
+        <v>1.024829896192904</v>
       </c>
       <c r="T13">
-        <v>1.010641377139416</v>
+        <v>0.9972499521659256</v>
       </c>
       <c r="U13">
-        <v>1.003278043836208</v>
+        <v>1.003569912981923</v>
       </c>
       <c r="V13">
-        <v>0.9718928762080357</v>
+        <v>0.9908139230553346</v>
       </c>
       <c r="W13">
-        <v>1.000716978168746</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.0058938949197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1650531537870889</v>
+        <v>0.001843321300000003</v>
       </c>
       <c r="D14">
-        <v>0.423591279860368</v>
+        <v>0.4574637599999998</v>
       </c>
       <c r="E14">
-        <v>1.687979714060704</v>
+        <v>2.452800599999999</v>
       </c>
       <c r="F14">
-        <v>0.1650531537870889</v>
+        <v>0.001843321300000003</v>
       </c>
       <c r="G14">
-        <v>0.8975280035988905</v>
+        <v>0.4039939399999997</v>
       </c>
       <c r="H14">
-        <v>1.259439918840724</v>
+        <v>0.4039939399999997</v>
       </c>
       <c r="I14">
-        <v>0.1650531537870889</v>
+        <v>0.4039939399999997</v>
       </c>
       <c r="J14">
-        <v>0.423591279860368</v>
+        <v>0.8713845300000002</v>
       </c>
       <c r="K14">
-        <v>1.357358391039098</v>
+        <v>1.596414300000002</v>
       </c>
       <c r="L14">
-        <v>0.7762575826032401</v>
+        <v>1.786154800000002</v>
       </c>
       <c r="M14">
-        <v>0.7870359093932874</v>
+        <v>0.12447506</v>
       </c>
       <c r="N14">
-        <v>0.1650531537870889</v>
+        <v>0.4039939399999997</v>
       </c>
       <c r="O14">
-        <v>1.687979714060704</v>
+        <v>2.452800599999999</v>
       </c>
       <c r="P14">
-        <v>1.055785496960536</v>
+        <v>1.227321960649999</v>
       </c>
       <c r="Q14">
-        <v>1.292753858829797</v>
+        <v>1.662092565</v>
       </c>
       <c r="R14">
-        <v>0.7588747159027202</v>
+        <v>0.9528792870999995</v>
       </c>
       <c r="S14">
-        <v>1.003032999173321</v>
+        <v>1.108676150433333</v>
       </c>
       <c r="T14">
-        <v>0.7588747159027202</v>
+        <v>0.9528792870999995</v>
       </c>
       <c r="U14">
-        <v>0.7935380378267627</v>
+        <v>0.9325055978249996</v>
       </c>
       <c r="V14">
-        <v>0.6678410610188279</v>
+        <v>0.8268032662599996</v>
       </c>
       <c r="W14">
-        <v>0.9192804941479251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9618162889125004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.302124619538872</v>
+        <v>0.00036689456</v>
       </c>
       <c r="D15">
-        <v>1.305374887662677</v>
+        <v>0.06623830999999999</v>
       </c>
       <c r="E15">
-        <v>0.7255394228740227</v>
+        <v>0.043704763</v>
       </c>
       <c r="F15">
-        <v>1.302124619538872</v>
+        <v>0.00036689456</v>
       </c>
       <c r="G15">
-        <v>1.039502025313966</v>
+        <v>4.5930156</v>
       </c>
       <c r="H15">
-        <v>0.9301382614120728</v>
+        <v>4.5930156</v>
       </c>
       <c r="I15">
-        <v>1.302124619538872</v>
+        <v>4.5930156</v>
       </c>
       <c r="J15">
-        <v>1.305374887662677</v>
+        <v>0.7996755</v>
       </c>
       <c r="K15">
-        <v>0.8207628998906888</v>
+        <v>0.66122928</v>
       </c>
       <c r="L15">
-        <v>1.099764986339184</v>
+        <v>2.4409209</v>
       </c>
       <c r="M15">
-        <v>1.081921546013899</v>
+        <v>0.092384641</v>
       </c>
       <c r="N15">
-        <v>1.302124619538872</v>
+        <v>4.5930156</v>
       </c>
       <c r="O15">
-        <v>0.7255394228740227</v>
+        <v>0.043704763</v>
       </c>
       <c r="P15">
-        <v>1.01545715526835</v>
+        <v>0.02203582878</v>
       </c>
       <c r="Q15">
-        <v>0.8825207240939945</v>
+        <v>0.4216901315</v>
       </c>
       <c r="R15">
-        <v>1.111012976691857</v>
+        <v>1.54569575252</v>
       </c>
       <c r="S15">
-        <v>1.023472111950222</v>
+        <v>0.28124905252</v>
       </c>
       <c r="T15">
-        <v>1.111012976691857</v>
+        <v>1.54569575252</v>
       </c>
       <c r="U15">
-        <v>1.093135238847385</v>
+        <v>1.35919068939</v>
       </c>
       <c r="V15">
-        <v>1.134933114985682</v>
+        <v>2.005955671512</v>
       </c>
       <c r="W15">
-        <v>1.038141081130673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.08719198607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9994766381064706</v>
+        <v>-0.00088796945</v>
       </c>
       <c r="D16">
-        <v>1.002950154975589</v>
+        <v>0.29059776</v>
       </c>
       <c r="E16">
-        <v>1.001387695214187</v>
+        <v>2.4587377</v>
       </c>
       <c r="F16">
-        <v>0.9994766381064706</v>
+        <v>-0.00088796945</v>
       </c>
       <c r="G16">
-        <v>0.9978468026849679</v>
+        <v>3.7900885</v>
       </c>
       <c r="H16">
-        <v>1.001591279533695</v>
+        <v>3.7900885</v>
       </c>
       <c r="I16">
-        <v>0.9994766381064706</v>
+        <v>3.7900885</v>
       </c>
       <c r="J16">
-        <v>1.002950154975589</v>
+        <v>0.11743927</v>
       </c>
       <c r="K16">
-        <v>0.9994121392401867</v>
+        <v>1.8728177</v>
       </c>
       <c r="L16">
-        <v>0.9989600501196148</v>
+        <v>0.76134458</v>
       </c>
       <c r="M16">
-        <v>0.9997039152826459</v>
+        <v>0.008361441000000001</v>
       </c>
       <c r="N16">
-        <v>0.9994766381064706</v>
+        <v>3.7900885</v>
       </c>
       <c r="O16">
-        <v>1.001387695214187</v>
+        <v>2.4587377</v>
       </c>
       <c r="P16">
-        <v>1.002168925094888</v>
+        <v>1.228924865275</v>
       </c>
       <c r="Q16">
-        <v>0.9996172489495774</v>
+        <v>1.288088485</v>
       </c>
       <c r="R16">
-        <v>1.001271496098749</v>
+        <v>2.08264607685</v>
       </c>
       <c r="S16">
-        <v>1.000728217624914</v>
+        <v>0.8584296668500001</v>
       </c>
       <c r="T16">
-        <v>1.001271496098749</v>
+        <v>2.08264607685</v>
       </c>
       <c r="U16">
-        <v>1.000415322745304</v>
+        <v>1.5913443751375</v>
       </c>
       <c r="V16">
-        <v>1.000227585817537</v>
+        <v>2.03109320011</v>
       </c>
       <c r="W16">
-        <v>1.00016608439467</v>
+        <v>1.16231237269375</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9991521165377891</v>
+        <v>0.057740926</v>
       </c>
       <c r="D17">
-        <v>0.9955043138851796</v>
+        <v>1.1679463</v>
       </c>
       <c r="E17">
-        <v>1.001250013424801</v>
+        <v>0.44204243</v>
       </c>
       <c r="F17">
-        <v>0.9991521165377891</v>
+        <v>0.057740926</v>
       </c>
       <c r="G17">
-        <v>1.003059649454345</v>
+        <v>0.9046502699999999</v>
       </c>
       <c r="H17">
-        <v>0.9990181019160973</v>
+        <v>0.9046502699999999</v>
       </c>
       <c r="I17">
-        <v>0.9991521165377891</v>
+        <v>0.9046502699999999</v>
       </c>
       <c r="J17">
-        <v>0.9955043138851796</v>
+        <v>1.1863664</v>
       </c>
       <c r="K17">
-        <v>0.9993331203757521</v>
+        <v>0.88607985</v>
       </c>
       <c r="L17">
-        <v>1.003263500445397</v>
+        <v>1.6256621</v>
       </c>
       <c r="M17">
-        <v>0.9992024768127653</v>
+        <v>0.49300052</v>
       </c>
       <c r="N17">
-        <v>0.9991521165377891</v>
+        <v>0.9046502699999999</v>
       </c>
       <c r="O17">
-        <v>1.001250013424801</v>
+        <v>0.44204243</v>
       </c>
       <c r="P17">
-        <v>0.9983771636549901</v>
+        <v>0.249891678</v>
       </c>
       <c r="Q17">
-        <v>1.002154831439573</v>
+        <v>0.8142044150000001</v>
       </c>
       <c r="R17">
-        <v>0.9986354812825898</v>
+        <v>0.4681445419999999</v>
       </c>
       <c r="S17">
-        <v>0.9999379922547752</v>
+        <v>0.5620499186666666</v>
       </c>
       <c r="T17">
-        <v>0.9986354812825898</v>
+        <v>0.4681445419999999</v>
       </c>
       <c r="U17">
-        <v>0.9997415233255287</v>
+        <v>0.6477000065</v>
       </c>
       <c r="V17">
-        <v>0.9996236419679807</v>
+        <v>0.6990900592</v>
       </c>
       <c r="W17">
-        <v>0.9999729116065158</v>
+        <v>0.8454360995000001</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.011229275335005</v>
+        <v>0.6745229524364383</v>
       </c>
       <c r="D18">
-        <v>1.005534624752126</v>
+        <v>0.9088529234246577</v>
       </c>
       <c r="E18">
-        <v>1.000159373495758</v>
+        <v>0.9482107330000001</v>
       </c>
       <c r="F18">
-        <v>1.011229275335005</v>
+        <v>0.6745229524364383</v>
       </c>
       <c r="G18">
-        <v>0.9930063427713636</v>
+        <v>1.859208689117808</v>
       </c>
       <c r="H18">
-        <v>1.005477306853848</v>
+        <v>1.859208689117808</v>
       </c>
       <c r="I18">
-        <v>1.011229275335005</v>
+        <v>1.859208689117808</v>
       </c>
       <c r="J18">
-        <v>1.005534624752126</v>
+        <v>0.927156984109589</v>
       </c>
       <c r="K18">
-        <v>0.9988551200502842</v>
+        <v>0.9979737419178081</v>
       </c>
       <c r="L18">
-        <v>0.997586975410758</v>
+        <v>1.074781947123287</v>
       </c>
       <c r="M18">
-        <v>0.9963156575168722</v>
+        <v>0.7755475716849312</v>
       </c>
       <c r="N18">
-        <v>1.011229275335005</v>
+        <v>1.859208689117808</v>
       </c>
       <c r="O18">
-        <v>1.000159373495758</v>
+        <v>0.9482107330000001</v>
       </c>
       <c r="P18">
-        <v>1.002846999123942</v>
+        <v>0.8113668427182192</v>
       </c>
       <c r="Q18">
-        <v>0.9965828581335607</v>
+        <v>0.9376838585547946</v>
       </c>
       <c r="R18">
-        <v>1.005641091194296</v>
+        <v>1.160647458184749</v>
       </c>
       <c r="S18">
-        <v>0.999566780339749</v>
+        <v>0.8499635565153425</v>
       </c>
       <c r="T18">
-        <v>1.005641091194296</v>
+        <v>1.160647458184749</v>
       </c>
       <c r="U18">
-        <v>1.002482404088563</v>
+        <v>1.102274839665959</v>
       </c>
       <c r="V18">
-        <v>1.004231778337851</v>
+        <v>1.253661609556329</v>
       </c>
       <c r="W18">
-        <v>1.001020584523252</v>
+        <v>1.020781942851815</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.040817119564907</v>
+        <v>0.03555173832631579</v>
       </c>
       <c r="D19">
-        <v>1.027423277152397</v>
+        <v>1.000491594736842</v>
       </c>
       <c r="E19">
-        <v>1.000684584074708</v>
+        <v>1.772250611578947</v>
       </c>
       <c r="F19">
-        <v>1.040817119564907</v>
+        <v>0.03555173832631579</v>
       </c>
       <c r="G19">
-        <v>0.9689847244408001</v>
+        <v>1.02668177068421</v>
       </c>
       <c r="H19">
-        <v>1.017023676280573</v>
+        <v>1.02668177068421</v>
       </c>
       <c r="I19">
-        <v>1.040817119564907</v>
+        <v>1.02668177068421</v>
       </c>
       <c r="J19">
-        <v>1.027423277152397</v>
+        <v>0.8652914631578946</v>
       </c>
       <c r="K19">
-        <v>0.9951799948893671</v>
+        <v>1.360625138947369</v>
       </c>
       <c r="L19">
-        <v>0.9821334373442143</v>
+        <v>1.094885611578947</v>
       </c>
       <c r="M19">
-        <v>0.9930930738036458</v>
+        <v>0.3582984451578948</v>
       </c>
       <c r="N19">
-        <v>1.040817119564907</v>
+        <v>1.02668177068421</v>
       </c>
       <c r="O19">
-        <v>1.000684584074708</v>
+        <v>1.772250611578947</v>
       </c>
       <c r="P19">
-        <v>1.014053930613553</v>
+        <v>0.9039011749526314</v>
       </c>
       <c r="Q19">
-        <v>0.9848346542577542</v>
+        <v>1.318771037368421</v>
       </c>
       <c r="R19">
-        <v>1.022974993597337</v>
+        <v>0.9448280401964911</v>
       </c>
       <c r="S19">
-        <v>0.9990308618893017</v>
+        <v>0.8910312710210525</v>
       </c>
       <c r="T19">
-        <v>1.022974993597337</v>
+        <v>0.9448280401964911</v>
       </c>
       <c r="U19">
-        <v>1.009477426308203</v>
+        <v>0.924943895936842</v>
       </c>
       <c r="V19">
-        <v>1.015745364959544</v>
+        <v>0.9452914708863156</v>
       </c>
       <c r="W19">
-        <v>1.003167485943826</v>
+        <v>0.9392595467710527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.5785496097242103</v>
+      </c>
+      <c r="D20">
+        <v>0.6572802393157897</v>
+      </c>
+      <c r="E20">
+        <v>1.526399115263158</v>
+      </c>
+      <c r="F20">
+        <v>0.5785496097242103</v>
+      </c>
+      <c r="G20">
+        <v>1.50357895148421</v>
+      </c>
+      <c r="H20">
+        <v>1.50357895148421</v>
+      </c>
+      <c r="I20">
+        <v>1.50357895148421</v>
+      </c>
+      <c r="J20">
+        <v>0.7463373363157895</v>
+      </c>
+      <c r="K20">
+        <v>1.407366578947369</v>
+      </c>
+      <c r="L20">
+        <v>1.160968268947368</v>
+      </c>
+      <c r="M20">
+        <v>0.5507114603157893</v>
+      </c>
+      <c r="N20">
+        <v>1.50357895148421</v>
+      </c>
+      <c r="O20">
+        <v>1.526399115263158</v>
+      </c>
+      <c r="P20">
+        <v>1.052474362493684</v>
+      </c>
+      <c r="Q20">
+        <v>1.136368225789474</v>
+      </c>
+      <c r="R20">
+        <v>1.20284255882386</v>
+      </c>
+      <c r="S20">
+        <v>0.9504286871010527</v>
+      </c>
+      <c r="T20">
+        <v>1.20284255882386</v>
+      </c>
+      <c r="U20">
+        <v>1.088716253196842</v>
+      </c>
+      <c r="V20">
+        <v>1.171688792854316</v>
+      </c>
+      <c r="W20">
+        <v>1.016398945039211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.4235912798603679</v>
+      </c>
+      <c r="D21">
+        <v>1.357358391039098</v>
+      </c>
+      <c r="E21">
+        <v>1.687979714060704</v>
+      </c>
+      <c r="F21">
+        <v>0.4235912798603679</v>
+      </c>
+      <c r="G21">
+        <v>0.1650531537870888</v>
+      </c>
+      <c r="H21">
+        <v>0.1650531537870888</v>
+      </c>
+      <c r="I21">
+        <v>0.1650531537870888</v>
+      </c>
+      <c r="J21">
+        <v>0.8975280035988905</v>
+      </c>
+      <c r="K21">
+        <v>1.259439918840724</v>
+      </c>
+      <c r="L21">
+        <v>0.77625758260324</v>
+      </c>
+      <c r="M21">
+        <v>0.7870359093932872</v>
+      </c>
+      <c r="N21">
+        <v>0.1650531537870888</v>
+      </c>
+      <c r="O21">
+        <v>1.687979714060704</v>
+      </c>
+      <c r="P21">
+        <v>1.055785496960536</v>
+      </c>
+      <c r="Q21">
+        <v>1.292753858829797</v>
+      </c>
+      <c r="R21">
+        <v>0.7588747159027203</v>
+      </c>
+      <c r="S21">
+        <v>1.003032999173321</v>
+      </c>
+      <c r="T21">
+        <v>0.7588747159027204</v>
+      </c>
+      <c r="U21">
+        <v>0.7935380378267629</v>
+      </c>
+      <c r="V21">
+        <v>0.6678410610188281</v>
+      </c>
+      <c r="W21">
+        <v>0.9192804941479251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.305374887662678</v>
+      </c>
+      <c r="D22">
+        <v>0.8207628998906888</v>
+      </c>
+      <c r="E22">
+        <v>0.7255394228740227</v>
+      </c>
+      <c r="F22">
+        <v>1.305374887662678</v>
+      </c>
+      <c r="G22">
+        <v>1.302124619538872</v>
+      </c>
+      <c r="H22">
+        <v>1.302124619538872</v>
+      </c>
+      <c r="I22">
+        <v>1.302124619538872</v>
+      </c>
+      <c r="J22">
+        <v>1.039502025313966</v>
+      </c>
+      <c r="K22">
+        <v>0.9301382614120728</v>
+      </c>
+      <c r="L22">
+        <v>1.099764986339184</v>
+      </c>
+      <c r="M22">
+        <v>1.081921546013899</v>
+      </c>
+      <c r="N22">
+        <v>1.302124619538872</v>
+      </c>
+      <c r="O22">
+        <v>0.7255394228740227</v>
+      </c>
+      <c r="P22">
+        <v>1.01545715526835</v>
+      </c>
+      <c r="Q22">
+        <v>0.8825207240939945</v>
+      </c>
+      <c r="R22">
+        <v>1.111012976691858</v>
+      </c>
+      <c r="S22">
+        <v>1.023472111950222</v>
+      </c>
+      <c r="T22">
+        <v>1.111012976691858</v>
+      </c>
+      <c r="U22">
+        <v>1.093135238847385</v>
+      </c>
+      <c r="V22">
+        <v>1.134933114985682</v>
+      </c>
+      <c r="W22">
+        <v>1.038141081130673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.492343952233583</v>
+      </c>
+      <c r="D23">
+        <v>0.8897228076815409</v>
+      </c>
+      <c r="E23">
+        <v>0.468438408364756</v>
+      </c>
+      <c r="F23">
+        <v>1.492343952233583</v>
+      </c>
+      <c r="G23">
+        <v>1.22717483986535</v>
+      </c>
+      <c r="H23">
+        <v>1.22717483986535</v>
+      </c>
+      <c r="I23">
+        <v>1.22717483986535</v>
+      </c>
+      <c r="J23">
+        <v>1.094414183780104</v>
+      </c>
+      <c r="K23">
+        <v>0.7580141281995953</v>
+      </c>
+      <c r="L23">
+        <v>1.120483807619306</v>
+      </c>
+      <c r="M23">
+        <v>1.282097288238961</v>
+      </c>
+      <c r="N23">
+        <v>1.22717483986535</v>
+      </c>
+      <c r="O23">
+        <v>0.468438408364756</v>
+      </c>
+      <c r="P23">
+        <v>0.9803911802991696</v>
+      </c>
+      <c r="Q23">
+        <v>0.7814262960724301</v>
+      </c>
+      <c r="R23">
+        <v>1.062652400154563</v>
+      </c>
+      <c r="S23">
+        <v>1.018398848126148</v>
+      </c>
+      <c r="T23">
+        <v>1.062652400154563</v>
+      </c>
+      <c r="U23">
+        <v>1.070592846060948</v>
+      </c>
+      <c r="V23">
+        <v>1.101909244821829</v>
+      </c>
+      <c r="W23">
+        <v>1.0415861769979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.001244636063881</v>
+      </c>
+      <c r="D24">
+        <v>1.092070993600726</v>
+      </c>
+      <c r="E24">
+        <v>1.184327289659022</v>
+      </c>
+      <c r="F24">
+        <v>1.001244636063881</v>
+      </c>
+      <c r="G24">
+        <v>0.8463522056953448</v>
+      </c>
+      <c r="H24">
+        <v>0.8463522056953448</v>
+      </c>
+      <c r="I24">
+        <v>0.8463522056953448</v>
+      </c>
+      <c r="J24">
+        <v>0.9811880439265864</v>
+      </c>
+      <c r="K24">
+        <v>1.039186110510082</v>
+      </c>
+      <c r="L24">
+        <v>0.8627137598215937</v>
+      </c>
+      <c r="M24">
+        <v>0.9986527860727329</v>
+      </c>
+      <c r="N24">
+        <v>0.8463522056953448</v>
+      </c>
+      <c r="O24">
+        <v>1.184327289659022</v>
+      </c>
+      <c r="P24">
+        <v>1.092785962861451</v>
+      </c>
+      <c r="Q24">
+        <v>1.082757666792804</v>
+      </c>
+      <c r="R24">
+        <v>1.010641377139416</v>
+      </c>
+      <c r="S24">
+        <v>1.05558665654983</v>
+      </c>
+      <c r="T24">
+        <v>1.010641377139416</v>
+      </c>
+      <c r="U24">
+        <v>1.003278043836209</v>
+      </c>
+      <c r="V24">
+        <v>0.9718928762080358</v>
+      </c>
+      <c r="W24">
+        <v>1.000716978168746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.436541443852888</v>
+      </c>
+      <c r="D25">
+        <v>0.7189228809803111</v>
+      </c>
+      <c r="E25">
+        <v>0.5815124620667023</v>
+      </c>
+      <c r="F25">
+        <v>1.436541443852888</v>
+      </c>
+      <c r="G25">
+        <v>1.509005509504305</v>
+      </c>
+      <c r="H25">
+        <v>1.509005509504305</v>
+      </c>
+      <c r="I25">
+        <v>1.509005509504305</v>
+      </c>
+      <c r="J25">
+        <v>0.9721687880883134</v>
+      </c>
+      <c r="K25">
+        <v>0.8730002389342504</v>
+      </c>
+      <c r="L25">
+        <v>1.149415320175668</v>
+      </c>
+      <c r="M25">
+        <v>1.154963322356839</v>
+      </c>
+      <c r="N25">
+        <v>1.509005509504305</v>
+      </c>
+      <c r="O25">
+        <v>0.5815124620667023</v>
+      </c>
+      <c r="P25">
+        <v>1.009026952959795</v>
+      </c>
+      <c r="Q25">
+        <v>0.7768406250775078</v>
+      </c>
+      <c r="R25">
+        <v>1.175686471807965</v>
+      </c>
+      <c r="S25">
+        <v>0.9967408980026345</v>
+      </c>
+      <c r="T25">
+        <v>1.175686471807965</v>
+      </c>
+      <c r="U25">
+        <v>1.124807050878052</v>
+      </c>
+      <c r="V25">
+        <v>1.201646742603303</v>
+      </c>
+      <c r="W25">
+        <v>1.04944124574491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.6854487644325725</v>
+      </c>
+      <c r="D26">
+        <v>1.24516039221563</v>
+      </c>
+      <c r="E26">
+        <v>1.116720134532141</v>
+      </c>
+      <c r="F26">
+        <v>0.6854487644325725</v>
+      </c>
+      <c r="G26">
+        <v>0.8819807653434245</v>
+      </c>
+      <c r="H26">
+        <v>0.8819807653434245</v>
+      </c>
+      <c r="I26">
+        <v>0.8819807653434245</v>
+      </c>
+      <c r="J26">
+        <v>1.049910279235624</v>
+      </c>
+      <c r="K26">
+        <v>0.9604870882090654</v>
+      </c>
+      <c r="L26">
+        <v>0.874821717680361</v>
+      </c>
+      <c r="M26">
+        <v>0.9564119005892099</v>
+      </c>
+      <c r="N26">
+        <v>0.8819807653434245</v>
+      </c>
+      <c r="O26">
+        <v>1.116720134532141</v>
+      </c>
+      <c r="P26">
+        <v>0.9010844494823567</v>
+      </c>
+      <c r="Q26">
+        <v>1.083315206883883</v>
+      </c>
+      <c r="R26">
+        <v>0.8947165547693793</v>
+      </c>
+      <c r="S26">
+        <v>0.9506930594001126</v>
+      </c>
+      <c r="T26">
+        <v>0.8947165547693793</v>
+      </c>
+      <c r="U26">
+        <v>0.9335149858859406</v>
+      </c>
+      <c r="V26">
+        <v>0.9232081417774374</v>
+      </c>
+      <c r="W26">
+        <v>0.9713676302797536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.221511957213343</v>
+      </c>
+      <c r="D27">
+        <v>0.8534904360178763</v>
+      </c>
+      <c r="E27">
+        <v>1.072907696358586</v>
+      </c>
+      <c r="F27">
+        <v>1.221511957213343</v>
+      </c>
+      <c r="G27">
+        <v>0.9443436487414951</v>
+      </c>
+      <c r="H27">
+        <v>0.9443436487414951</v>
+      </c>
+      <c r="I27">
+        <v>0.9443436487414951</v>
+      </c>
+      <c r="J27">
+        <v>0.9752763656266638</v>
+      </c>
+      <c r="K27">
+        <v>1.081293591306074</v>
+      </c>
+      <c r="L27">
+        <v>1.079716768884148</v>
+      </c>
+      <c r="M27">
+        <v>0.9282714430482865</v>
+      </c>
+      <c r="N27">
+        <v>0.9443436487414951</v>
+      </c>
+      <c r="O27">
+        <v>1.072907696358586</v>
+      </c>
+      <c r="P27">
+        <v>1.147209826785965</v>
+      </c>
+      <c r="Q27">
+        <v>1.024092030992625</v>
+      </c>
+      <c r="R27">
+        <v>1.079587767437808</v>
+      </c>
+      <c r="S27">
+        <v>1.089898673066197</v>
+      </c>
+      <c r="T27">
+        <v>1.079587767437808</v>
+      </c>
+      <c r="U27">
+        <v>1.053509916985022</v>
+      </c>
+      <c r="V27">
+        <v>1.031676663336317</v>
+      </c>
+      <c r="W27">
+        <v>1.019601488399559</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.005095252327439</v>
+      </c>
+      <c r="D28">
+        <v>1.027653898111671</v>
+      </c>
+      <c r="E28">
+        <v>1.04183278139779</v>
+      </c>
+      <c r="F28">
+        <v>1.005095252327439</v>
+      </c>
+      <c r="G28">
+        <v>1.162946416017749</v>
+      </c>
+      <c r="H28">
+        <v>1.162946416017749</v>
+      </c>
+      <c r="I28">
+        <v>1.162946416017749</v>
+      </c>
+      <c r="J28">
+        <v>0.8884164645802236</v>
+      </c>
+      <c r="K28">
+        <v>1.056138809802057</v>
+      </c>
+      <c r="L28">
+        <v>0.9409305989804441</v>
+      </c>
+      <c r="M28">
+        <v>0.9416368899639835</v>
+      </c>
+      <c r="N28">
+        <v>1.162946416017749</v>
+      </c>
+      <c r="O28">
+        <v>1.04183278139779</v>
+      </c>
+      <c r="P28">
+        <v>1.023464016862614</v>
+      </c>
+      <c r="Q28">
+        <v>0.9651246229890067</v>
+      </c>
+      <c r="R28">
+        <v>1.069958149914326</v>
+      </c>
+      <c r="S28">
+        <v>0.9784481661018173</v>
+      </c>
+      <c r="T28">
+        <v>1.069958149914325</v>
+      </c>
+      <c r="U28">
+        <v>1.0245727285808</v>
+      </c>
+      <c r="V28">
+        <v>1.05224746606819</v>
+      </c>
+      <c r="W28">
+        <v>1.00808138889767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8781683941745054</v>
+      </c>
+      <c r="D29">
+        <v>1.143713523315594</v>
+      </c>
+      <c r="E29">
+        <v>0.469270453685636</v>
+      </c>
+      <c r="F29">
+        <v>0.8781683941745054</v>
+      </c>
+      <c r="G29">
+        <v>0.854658166624207</v>
+      </c>
+      <c r="H29">
+        <v>0.854658166624207</v>
+      </c>
+      <c r="I29">
+        <v>0.854658166624207</v>
+      </c>
+      <c r="J29">
+        <v>1.132368528422138</v>
+      </c>
+      <c r="K29">
+        <v>0.8569850349082269</v>
+      </c>
+      <c r="L29">
+        <v>1.146712710543587</v>
+      </c>
+      <c r="M29">
+        <v>1.072665866153788</v>
+      </c>
+      <c r="N29">
+        <v>0.854658166624207</v>
+      </c>
+      <c r="O29">
+        <v>0.469270453685636</v>
+      </c>
+      <c r="P29">
+        <v>0.6737194239300707</v>
+      </c>
+      <c r="Q29">
+        <v>0.8008194910538871</v>
+      </c>
+      <c r="R29">
+        <v>0.7340323381614494</v>
+      </c>
+      <c r="S29">
+        <v>0.8266024587607598</v>
+      </c>
+      <c r="T29">
+        <v>0.7340323381614495</v>
+      </c>
+      <c r="U29">
+        <v>0.8336163857266217</v>
+      </c>
+      <c r="V29">
+        <v>0.8378247419061389</v>
+      </c>
+      <c r="W29">
+        <v>0.9443178347284603</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7960991824636046</v>
+        <v>0.8427334938627289</v>
       </c>
       <c r="D4">
-        <v>0.9314866030024703</v>
+        <v>0.9623940622533241</v>
       </c>
       <c r="E4">
-        <v>1.123748193325725</v>
+        <v>1.134858388657744</v>
       </c>
       <c r="F4">
-        <v>0.7960991824636046</v>
+        <v>0.8427334938627289</v>
       </c>
       <c r="G4">
-        <v>1.239150429891894</v>
+        <v>0.9779086319882788</v>
       </c>
       <c r="H4">
-        <v>1.239150429891894</v>
+        <v>0.9779086319882788</v>
       </c>
       <c r="I4">
-        <v>1.239150429891894</v>
+        <v>0.9779086319882788</v>
       </c>
       <c r="J4">
-        <v>0.9078115615442104</v>
+        <v>0.9724079765003169</v>
       </c>
       <c r="K4">
-        <v>1.112535380722626</v>
+        <v>1.082542295544294</v>
       </c>
       <c r="L4">
-        <v>1.025836881732347</v>
+        <v>1.054091423005415</v>
       </c>
       <c r="M4">
-        <v>0.8363302409174943</v>
+        <v>0.8853114459660122</v>
       </c>
       <c r="N4">
-        <v>1.239150429891894</v>
+        <v>0.9779086319882788</v>
       </c>
       <c r="O4">
-        <v>1.123748193325725</v>
+        <v>1.134858388657744</v>
       </c>
       <c r="P4">
-        <v>0.959923687894665</v>
+        <v>0.9887959412602365</v>
       </c>
       <c r="Q4">
-        <v>1.015779877434968</v>
+        <v>1.053633182579031</v>
       </c>
       <c r="R4">
-        <v>1.052999268560408</v>
+        <v>0.9851668381695839</v>
       </c>
       <c r="S4">
-        <v>0.9425529791111801</v>
+        <v>0.9833332863402632</v>
       </c>
       <c r="T4">
-        <v>1.052999268560408</v>
+        <v>0.9851668381695839</v>
       </c>
       <c r="U4">
-        <v>1.016702341806359</v>
+        <v>0.9819771227522671</v>
       </c>
       <c r="V4">
-        <v>1.061191959423466</v>
+        <v>0.9811634245994695</v>
       </c>
       <c r="W4">
-        <v>0.9966248092000467</v>
+        <v>0.9890309647222643</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8111433603265001</v>
+        <v>0.6385939306306537</v>
       </c>
       <c r="D5">
-        <v>0.9413199824214701</v>
+        <v>0.6840594880339754</v>
       </c>
       <c r="E5">
-        <v>1.163419193935161</v>
+        <v>1.49990056130669</v>
       </c>
       <c r="F5">
-        <v>0.8111433603265001</v>
+        <v>0.6385939306306537</v>
       </c>
       <c r="G5">
-        <v>1.007268353845102</v>
+        <v>1.504653047479221</v>
       </c>
       <c r="H5">
-        <v>1.007268353845102</v>
+        <v>1.504653047479221</v>
       </c>
       <c r="I5">
-        <v>1.007268353845102</v>
+        <v>1.504653047479221</v>
       </c>
       <c r="J5">
-        <v>0.9658785934438036</v>
+        <v>0.7342044303194387</v>
       </c>
       <c r="K5">
-        <v>1.09574673744957</v>
+        <v>1.412607089111516</v>
       </c>
       <c r="L5">
-        <v>1.077485226145538</v>
+        <v>1.085987103911954</v>
       </c>
       <c r="M5">
-        <v>0.8574013949582128</v>
+        <v>0.5934759877837698</v>
       </c>
       <c r="N5">
-        <v>1.007268353845102</v>
+        <v>1.504653047479221</v>
       </c>
       <c r="O5">
-        <v>1.163419193935161</v>
+        <v>1.49990056130669</v>
       </c>
       <c r="P5">
-        <v>0.9872812771308308</v>
+        <v>1.069247245968672</v>
       </c>
       <c r="Q5">
-        <v>1.064648893689482</v>
+        <v>1.117052495813064</v>
       </c>
       <c r="R5">
-        <v>0.9939436360355879</v>
+        <v>1.214382513138855</v>
       </c>
       <c r="S5">
-        <v>0.9801470492351551</v>
+        <v>0.9575663074189276</v>
       </c>
       <c r="T5">
-        <v>0.9939436360355879</v>
+        <v>1.214382513138855</v>
       </c>
       <c r="U5">
-        <v>0.9869273753876417</v>
+        <v>1.094337992434001</v>
       </c>
       <c r="V5">
-        <v>0.9909955710791337</v>
+        <v>1.176401003443045</v>
       </c>
       <c r="W5">
-        <v>0.9899578553156697</v>
+        <v>1.019185204822152</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4214253786647564</v>
+        <v>0.7960991824636046</v>
       </c>
       <c r="D6">
-        <v>0.7086911722006052</v>
+        <v>0.9314866030024703</v>
       </c>
       <c r="E6">
-        <v>1.78982439477848</v>
+        <v>1.123748193325725</v>
       </c>
       <c r="F6">
-        <v>0.4214253786647564</v>
+        <v>0.7960991824636046</v>
       </c>
       <c r="G6">
-        <v>0.6992850021672057</v>
+        <v>1.239150429891894</v>
       </c>
       <c r="H6">
-        <v>0.6992850021672057</v>
+        <v>1.239150429891894</v>
       </c>
       <c r="I6">
-        <v>0.6992850021672057</v>
+        <v>1.239150429891894</v>
       </c>
       <c r="J6">
-        <v>0.9221196443026057</v>
+        <v>0.9078115615442104</v>
       </c>
       <c r="K6">
-        <v>1.337947144998374</v>
+        <v>1.112535380722626</v>
       </c>
       <c r="L6">
-        <v>1.421395760578318</v>
+        <v>1.025836881732347</v>
       </c>
       <c r="M6">
-        <v>0.5046104390890966</v>
+        <v>0.8363302409174943</v>
       </c>
       <c r="N6">
-        <v>0.6992850021672057</v>
+        <v>1.239150429891894</v>
       </c>
       <c r="O6">
-        <v>1.78982439477848</v>
+        <v>1.123748193325725</v>
       </c>
       <c r="P6">
-        <v>1.105624886721618</v>
+        <v>0.959923687894665</v>
       </c>
       <c r="Q6">
-        <v>1.355972019540543</v>
+        <v>1.015779877434968</v>
       </c>
       <c r="R6">
-        <v>0.9701782585368139</v>
+        <v>1.052999268560408</v>
       </c>
       <c r="S6">
-        <v>1.044456472581947</v>
+        <v>0.9425529791111801</v>
       </c>
       <c r="T6">
-        <v>0.9701782585368139</v>
+        <v>1.052999268560408</v>
       </c>
       <c r="U6">
-        <v>0.9581636049782619</v>
+        <v>1.016702341806359</v>
       </c>
       <c r="V6">
-        <v>0.9063878844160506</v>
+        <v>1.061191959423466</v>
       </c>
       <c r="W6">
-        <v>0.9756623670974301</v>
+        <v>0.9966248092000467</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.984492244552244</v>
+        <v>0.8111433603265001</v>
       </c>
       <c r="D7">
-        <v>0.9941239031477851</v>
+        <v>0.9413199824214701</v>
       </c>
       <c r="E7">
-        <v>0.9963041592541914</v>
+        <v>1.163419193935161</v>
       </c>
       <c r="F7">
-        <v>0.984492244552244</v>
+        <v>0.8111433603265001</v>
       </c>
       <c r="G7">
-        <v>1.041529651243309</v>
+        <v>1.007268353845102</v>
       </c>
       <c r="H7">
-        <v>1.041529651243309</v>
+        <v>1.007268353845102</v>
       </c>
       <c r="I7">
-        <v>1.041529651243309</v>
+        <v>1.007268353845102</v>
       </c>
       <c r="J7">
-        <v>0.9961165607691079</v>
+        <v>0.9658785934438036</v>
       </c>
       <c r="K7">
-        <v>1.001292164688433</v>
+        <v>1.09574673744957</v>
       </c>
       <c r="L7">
-        <v>1.003819283359921</v>
+        <v>1.077485226145538</v>
       </c>
       <c r="M7">
-        <v>0.9893944191599953</v>
+        <v>0.8574013949582128</v>
       </c>
       <c r="N7">
-        <v>1.041529651243309</v>
+        <v>1.007268353845102</v>
       </c>
       <c r="O7">
-        <v>0.9963041592541914</v>
+        <v>1.163419193935161</v>
       </c>
       <c r="P7">
-        <v>0.9903982019032177</v>
+        <v>0.9872812771308308</v>
       </c>
       <c r="Q7">
-        <v>0.9962103600116496</v>
+        <v>1.064648893689482</v>
       </c>
       <c r="R7">
-        <v>1.007442018349915</v>
+        <v>0.9939436360355879</v>
       </c>
       <c r="S7">
-        <v>0.9923043215251811</v>
+        <v>0.9801470492351551</v>
       </c>
       <c r="T7">
-        <v>1.007442018349915</v>
+        <v>0.9939436360355879</v>
       </c>
       <c r="U7">
-        <v>1.004610653954713</v>
+        <v>0.9869273753876417</v>
       </c>
       <c r="V7">
-        <v>1.011994453412432</v>
+        <v>0.9909955710791337</v>
       </c>
       <c r="W7">
-        <v>1.000884048271873</v>
+        <v>0.9899578553156697</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9955043138851796</v>
+        <v>0.4214253786647564</v>
       </c>
       <c r="D8">
-        <v>0.9993331203757522</v>
+        <v>0.7086911722006052</v>
       </c>
       <c r="E8">
-        <v>1.001250013424801</v>
+        <v>1.78982439477848</v>
       </c>
       <c r="F8">
-        <v>0.9955043138851796</v>
+        <v>0.4214253786647564</v>
       </c>
       <c r="G8">
-        <v>0.9991521165377896</v>
+        <v>0.6992850021672057</v>
       </c>
       <c r="H8">
-        <v>0.9991521165377896</v>
+        <v>0.6992850021672057</v>
       </c>
       <c r="I8">
-        <v>0.9991521165377896</v>
+        <v>0.6992850021672057</v>
       </c>
       <c r="J8">
-        <v>1.003059649454345</v>
+        <v>0.9221196443026057</v>
       </c>
       <c r="K8">
-        <v>0.9990181019160974</v>
+        <v>1.337947144998374</v>
       </c>
       <c r="L8">
-        <v>1.003263500445397</v>
+        <v>1.421395760578318</v>
       </c>
       <c r="M8">
-        <v>0.9992024768127653</v>
+        <v>0.5046104390890966</v>
       </c>
       <c r="N8">
-        <v>0.9991521165377896</v>
+        <v>0.6992850021672057</v>
       </c>
       <c r="O8">
-        <v>1.001250013424801</v>
+        <v>1.78982439477848</v>
       </c>
       <c r="P8">
-        <v>0.9983771636549901</v>
+        <v>1.105624886721618</v>
       </c>
       <c r="Q8">
-        <v>1.002154831439573</v>
+        <v>1.355972019540543</v>
       </c>
       <c r="R8">
-        <v>0.9986354812825899</v>
+        <v>0.9701782585368139</v>
       </c>
       <c r="S8">
-        <v>0.9999379922547752</v>
+        <v>1.044456472581947</v>
       </c>
       <c r="T8">
-        <v>0.9986354812825899</v>
+        <v>0.9701782585368139</v>
       </c>
       <c r="U8">
-        <v>0.9997415233255288</v>
+        <v>0.9581636049782619</v>
       </c>
       <c r="V8">
-        <v>0.9996236419679809</v>
+        <v>0.9063878844160506</v>
       </c>
       <c r="W8">
-        <v>0.9999729116065159</v>
+        <v>0.9756623670974301</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9730504106611605</v>
+        <v>0.984492244552244</v>
       </c>
       <c r="D9">
-        <v>0.9934802469088948</v>
+        <v>0.9941239031477851</v>
       </c>
       <c r="E9">
-        <v>0.9989253665115825</v>
+        <v>0.9963041592541914</v>
       </c>
       <c r="F9">
-        <v>0.9730504106611605</v>
+        <v>0.984492244552244</v>
       </c>
       <c r="G9">
-        <v>1.066452356188739</v>
+        <v>1.041529651243309</v>
       </c>
       <c r="H9">
-        <v>1.066452356188739</v>
+        <v>1.041529651243309</v>
       </c>
       <c r="I9">
-        <v>1.066452356188739</v>
+        <v>1.041529651243309</v>
       </c>
       <c r="J9">
-        <v>0.9944063090936862</v>
+        <v>0.9961165607691079</v>
       </c>
       <c r="K9">
-        <v>1.000568082985541</v>
+        <v>1.001292164688433</v>
       </c>
       <c r="L9">
-        <v>1.005077968433713</v>
+        <v>1.003819283359921</v>
       </c>
       <c r="M9">
-        <v>0.981863449739548</v>
+        <v>0.9893944191599953</v>
       </c>
       <c r="N9">
-        <v>1.066452356188739</v>
+        <v>1.041529651243309</v>
       </c>
       <c r="O9">
-        <v>0.9989253665115825</v>
+        <v>0.9963041592541914</v>
       </c>
       <c r="P9">
-        <v>0.9859878885863715</v>
+        <v>0.9903982019032177</v>
       </c>
       <c r="Q9">
-        <v>0.9966658378026343</v>
+        <v>0.9962103600116496</v>
       </c>
       <c r="R9">
-        <v>1.012809377787161</v>
+        <v>1.007442018349915</v>
       </c>
       <c r="S9">
-        <v>0.9887940287554765</v>
+        <v>0.9923043215251811</v>
       </c>
       <c r="T9">
-        <v>1.012809377787161</v>
+        <v>1.007442018349915</v>
       </c>
       <c r="U9">
-        <v>1.008208610613792</v>
+        <v>1.004610653954713</v>
       </c>
       <c r="V9">
-        <v>1.019857359728781</v>
+        <v>1.011994453412432</v>
       </c>
       <c r="W9">
-        <v>1.001728023815358</v>
+        <v>1.000884048271873</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4092482254199421</v>
+        <v>0.9955043138851796</v>
       </c>
       <c r="D10">
-        <v>0.7067430209056588</v>
+        <v>0.9993331203757522</v>
       </c>
       <c r="E10">
-        <v>1.810525125073029</v>
+        <v>1.001250013424801</v>
       </c>
       <c r="F10">
-        <v>0.4092482254199421</v>
+        <v>0.9955043138851796</v>
       </c>
       <c r="G10">
-        <v>0.6877173632472665</v>
+        <v>0.9991521165377896</v>
       </c>
       <c r="H10">
-        <v>0.6877173632472665</v>
+        <v>0.9991521165377896</v>
       </c>
       <c r="I10">
-        <v>0.6877173632472665</v>
+        <v>0.9991521165377896</v>
       </c>
       <c r="J10">
-        <v>0.9185874056147698</v>
+        <v>1.003059649454345</v>
       </c>
       <c r="K10">
-        <v>1.344000211785108</v>
+        <v>0.9990181019160974</v>
       </c>
       <c r="L10">
-        <v>1.42716556620639</v>
+        <v>1.003263500445397</v>
       </c>
       <c r="M10">
-        <v>0.4960088018777538</v>
+        <v>0.9992024768127653</v>
       </c>
       <c r="N10">
-        <v>0.6877173632472665</v>
+        <v>0.9991521165377896</v>
       </c>
       <c r="O10">
-        <v>1.810525125073029</v>
+        <v>1.001250013424801</v>
       </c>
       <c r="P10">
-        <v>1.109886675246485</v>
+        <v>0.9983771636549901</v>
       </c>
       <c r="Q10">
-        <v>1.364556265343899</v>
+        <v>1.002154831439573</v>
       </c>
       <c r="R10">
-        <v>0.9691635712467458</v>
+        <v>0.9986354812825899</v>
       </c>
       <c r="S10">
-        <v>1.046120252035913</v>
+        <v>0.9999379922547752</v>
       </c>
       <c r="T10">
-        <v>0.9691635712467459</v>
+        <v>0.9986354812825899</v>
       </c>
       <c r="U10">
-        <v>0.9565195298387519</v>
+        <v>0.9997415233255288</v>
       </c>
       <c r="V10">
-        <v>0.9027590965204547</v>
+        <v>0.9996236419679809</v>
       </c>
       <c r="W10">
-        <v>0.9749994650162397</v>
+        <v>0.9999729116065159</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9737712228369896</v>
+        <v>0.9730504106611605</v>
       </c>
       <c r="D11">
-        <v>0.9224044347045061</v>
+        <v>0.9934802469088948</v>
       </c>
       <c r="E11">
-        <v>1.073031126389865</v>
+        <v>0.9989253665115825</v>
       </c>
       <c r="F11">
-        <v>0.9737712228369896</v>
+        <v>0.9730504106611605</v>
       </c>
       <c r="G11">
-        <v>1.177556125081572</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="H11">
-        <v>1.177556125081572</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="I11">
-        <v>1.177556125081572</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="J11">
-        <v>0.9422697966315118</v>
+        <v>0.9944063090936862</v>
       </c>
       <c r="K11">
-        <v>1.062368830341084</v>
+        <v>1.000568082985541</v>
       </c>
       <c r="L11">
-        <v>1.011638891172528</v>
+        <v>1.005077968433713</v>
       </c>
       <c r="M11">
-        <v>0.9356103592259528</v>
+        <v>0.981863449739548</v>
       </c>
       <c r="N11">
-        <v>1.177556125081572</v>
+        <v>1.066452356188739</v>
       </c>
       <c r="O11">
-        <v>1.073031126389865</v>
+        <v>0.9989253665115825</v>
       </c>
       <c r="P11">
-        <v>1.023401174613427</v>
+        <v>0.9859878885863715</v>
       </c>
       <c r="Q11">
-        <v>1.007650461510688</v>
+        <v>0.9966658378026343</v>
       </c>
       <c r="R11">
-        <v>1.074786158102809</v>
+        <v>1.012809377787161</v>
       </c>
       <c r="S11">
-        <v>0.9963573819527888</v>
+        <v>0.9887940287554765</v>
       </c>
       <c r="T11">
-        <v>1.074786158102809</v>
+        <v>1.012809377787161</v>
       </c>
       <c r="U11">
-        <v>1.041657067734984</v>
+        <v>1.008208610613792</v>
       </c>
       <c r="V11">
-        <v>1.068836879204302</v>
+        <v>1.019857359728781</v>
       </c>
       <c r="W11">
-        <v>1.012331348298001</v>
+        <v>1.001728023815358</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7971416002312636</v>
+        <v>0.4092482254199421</v>
       </c>
       <c r="D12">
-        <v>0.9440928388526318</v>
+        <v>0.7067430209056588</v>
       </c>
       <c r="E12">
-        <v>1.226136009361054</v>
+        <v>1.810525125073029</v>
       </c>
       <c r="F12">
-        <v>0.7971416002312636</v>
+        <v>0.4092482254199421</v>
       </c>
       <c r="G12">
-        <v>0.9456217035490514</v>
+        <v>0.6877173632472665</v>
       </c>
       <c r="H12">
-        <v>0.9456217035490514</v>
+        <v>0.6877173632472665</v>
       </c>
       <c r="I12">
-        <v>0.9456217035490514</v>
+        <v>0.6877173632472665</v>
       </c>
       <c r="J12">
-        <v>0.9638049069473685</v>
+        <v>0.9185874056147698</v>
       </c>
       <c r="K12">
-        <v>1.104708337073688</v>
+        <v>1.344000211785108</v>
       </c>
       <c r="L12">
-        <v>1.084534397357898</v>
+        <v>1.42716556620639</v>
       </c>
       <c r="M12">
-        <v>0.8484715436421054</v>
+        <v>0.4960088018777538</v>
       </c>
       <c r="N12">
-        <v>0.9456217035490514</v>
+        <v>0.6877173632472665</v>
       </c>
       <c r="O12">
-        <v>1.226136009361054</v>
+        <v>1.810525125073029</v>
       </c>
       <c r="P12">
-        <v>1.011638804796159</v>
+        <v>1.109886675246485</v>
       </c>
       <c r="Q12">
-        <v>1.094970458154211</v>
+        <v>1.364556265343899</v>
       </c>
       <c r="R12">
-        <v>0.9896331043804563</v>
+        <v>0.9691635712467458</v>
       </c>
       <c r="S12">
-        <v>0.9956941721798952</v>
+        <v>1.046120252035913</v>
       </c>
       <c r="T12">
-        <v>0.9896331043804563</v>
+        <v>0.9691635712467459</v>
       </c>
       <c r="U12">
-        <v>0.9831760550221843</v>
+        <v>0.9565195298387519</v>
       </c>
       <c r="V12">
-        <v>0.9756651847275577</v>
+        <v>0.9027590965204547</v>
       </c>
       <c r="W12">
-        <v>0.9893139171268825</v>
+        <v>0.9749994650162397</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.102769407102555</v>
+        <v>0.9737712228369896</v>
       </c>
       <c r="D13">
-        <v>1.038205962440511</v>
+        <v>0.9224044347045061</v>
       </c>
       <c r="E13">
-        <v>0.9491904860462418</v>
+        <v>1.073031126389865</v>
       </c>
       <c r="F13">
-        <v>1.102769407102555</v>
+        <v>0.9737712228369896</v>
       </c>
       <c r="G13">
-        <v>0.9397899633489799</v>
+        <v>1.177556125081572</v>
       </c>
       <c r="H13">
-        <v>0.9397899633489799</v>
+        <v>1.177556125081572</v>
       </c>
       <c r="I13">
-        <v>0.9397899633489799</v>
+        <v>1.177556125081572</v>
       </c>
       <c r="J13">
-        <v>1.022529795429916</v>
+        <v>0.9422697966315118</v>
       </c>
       <c r="K13">
-        <v>0.9414787277632255</v>
+        <v>1.062368830341084</v>
       </c>
       <c r="L13">
-        <v>0.9695054953569091</v>
+        <v>1.011638891172528</v>
       </c>
       <c r="M13">
-        <v>1.083681321869267</v>
+        <v>0.9356103592259528</v>
       </c>
       <c r="N13">
-        <v>0.9397899633489799</v>
+        <v>1.177556125081572</v>
       </c>
       <c r="O13">
-        <v>0.9491904860462418</v>
+        <v>1.073031126389865</v>
       </c>
       <c r="P13">
-        <v>1.025979946574398</v>
+        <v>1.023401174613427</v>
       </c>
       <c r="Q13">
-        <v>0.9858601407380789</v>
+        <v>1.007650461510688</v>
       </c>
       <c r="R13">
-        <v>0.9972499521659256</v>
+        <v>1.074786158102809</v>
       </c>
       <c r="S13">
-        <v>1.024829896192904</v>
+        <v>0.9963573819527888</v>
       </c>
       <c r="T13">
-        <v>0.9972499521659256</v>
+        <v>1.074786158102809</v>
       </c>
       <c r="U13">
-        <v>1.003569912981923</v>
+        <v>1.041657067734984</v>
       </c>
       <c r="V13">
-        <v>0.9908139230553346</v>
+        <v>1.068836879204302</v>
       </c>
       <c r="W13">
-        <v>1.0058938949197</v>
+        <v>1.012331348298001</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.001843321300000003</v>
+        <v>0.7971416002312636</v>
       </c>
       <c r="D14">
-        <v>0.4574637599999998</v>
+        <v>0.9440928388526318</v>
       </c>
       <c r="E14">
-        <v>2.452800599999999</v>
+        <v>1.226136009361054</v>
       </c>
       <c r="F14">
-        <v>0.001843321300000003</v>
+        <v>0.7971416002312636</v>
       </c>
       <c r="G14">
-        <v>0.4039939399999997</v>
+        <v>0.9456217035490514</v>
       </c>
       <c r="H14">
-        <v>0.4039939399999997</v>
+        <v>0.9456217035490514</v>
       </c>
       <c r="I14">
-        <v>0.4039939399999997</v>
+        <v>0.9456217035490514</v>
       </c>
       <c r="J14">
-        <v>0.8713845300000002</v>
+        <v>0.9638049069473685</v>
       </c>
       <c r="K14">
-        <v>1.596414300000002</v>
+        <v>1.104708337073688</v>
       </c>
       <c r="L14">
-        <v>1.786154800000002</v>
+        <v>1.084534397357898</v>
       </c>
       <c r="M14">
-        <v>0.12447506</v>
+        <v>0.8484715436421054</v>
       </c>
       <c r="N14">
-        <v>0.4039939399999997</v>
+        <v>0.9456217035490514</v>
       </c>
       <c r="O14">
-        <v>2.452800599999999</v>
+        <v>1.226136009361054</v>
       </c>
       <c r="P14">
-        <v>1.227321960649999</v>
+        <v>1.011638804796159</v>
       </c>
       <c r="Q14">
-        <v>1.662092565</v>
+        <v>1.094970458154211</v>
       </c>
       <c r="R14">
-        <v>0.9528792870999995</v>
+        <v>0.9896331043804563</v>
       </c>
       <c r="S14">
-        <v>1.108676150433333</v>
+        <v>0.9956941721798952</v>
       </c>
       <c r="T14">
-        <v>0.9528792870999995</v>
+        <v>0.9896331043804563</v>
       </c>
       <c r="U14">
-        <v>0.9325055978249996</v>
+        <v>0.9831760550221843</v>
       </c>
       <c r="V14">
-        <v>0.8268032662599996</v>
+        <v>0.9756651847275577</v>
       </c>
       <c r="W14">
-        <v>0.9618162889125004</v>
+        <v>0.9893139171268825</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.00036689456</v>
+        <v>1.102769407102555</v>
       </c>
       <c r="D15">
-        <v>0.06623830999999999</v>
+        <v>1.038205962440511</v>
       </c>
       <c r="E15">
-        <v>0.043704763</v>
+        <v>0.9491904860462418</v>
       </c>
       <c r="F15">
-        <v>0.00036689456</v>
+        <v>1.102769407102555</v>
       </c>
       <c r="G15">
-        <v>4.5930156</v>
+        <v>0.9397899633489799</v>
       </c>
       <c r="H15">
-        <v>4.5930156</v>
+        <v>0.9397899633489799</v>
       </c>
       <c r="I15">
-        <v>4.5930156</v>
+        <v>0.9397899633489799</v>
       </c>
       <c r="J15">
-        <v>0.7996755</v>
+        <v>1.022529795429916</v>
       </c>
       <c r="K15">
-        <v>0.66122928</v>
+        <v>0.9414787277632255</v>
       </c>
       <c r="L15">
-        <v>2.4409209</v>
+        <v>0.9695054953569091</v>
       </c>
       <c r="M15">
-        <v>0.092384641</v>
+        <v>1.083681321869267</v>
       </c>
       <c r="N15">
-        <v>4.5930156</v>
+        <v>0.9397899633489799</v>
       </c>
       <c r="O15">
-        <v>0.043704763</v>
+        <v>0.9491904860462418</v>
       </c>
       <c r="P15">
-        <v>0.02203582878</v>
+        <v>1.025979946574398</v>
       </c>
       <c r="Q15">
-        <v>0.4216901315</v>
+        <v>0.9858601407380789</v>
       </c>
       <c r="R15">
-        <v>1.54569575252</v>
+        <v>0.9972499521659256</v>
       </c>
       <c r="S15">
-        <v>0.28124905252</v>
+        <v>1.024829896192904</v>
       </c>
       <c r="T15">
-        <v>1.54569575252</v>
+        <v>0.9972499521659256</v>
       </c>
       <c r="U15">
-        <v>1.35919068939</v>
+        <v>1.003569912981923</v>
       </c>
       <c r="V15">
-        <v>2.005955671512</v>
+        <v>0.9908139230553346</v>
       </c>
       <c r="W15">
-        <v>1.08719198607</v>
+        <v>1.0058938949197</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.00088796945</v>
+        <v>0.001843321300000003</v>
       </c>
       <c r="D16">
-        <v>0.29059776</v>
+        <v>0.4574637599999998</v>
       </c>
       <c r="E16">
-        <v>2.4587377</v>
+        <v>2.452800599999999</v>
       </c>
       <c r="F16">
-        <v>-0.00088796945</v>
+        <v>0.001843321300000003</v>
       </c>
       <c r="G16">
-        <v>3.7900885</v>
+        <v>0.4039939399999997</v>
       </c>
       <c r="H16">
-        <v>3.7900885</v>
+        <v>0.4039939399999997</v>
       </c>
       <c r="I16">
-        <v>3.7900885</v>
+        <v>0.4039939399999997</v>
       </c>
       <c r="J16">
-        <v>0.11743927</v>
+        <v>0.8713845300000002</v>
       </c>
       <c r="K16">
-        <v>1.8728177</v>
+        <v>1.596414300000002</v>
       </c>
       <c r="L16">
-        <v>0.76134458</v>
+        <v>1.786154800000002</v>
       </c>
       <c r="M16">
-        <v>0.008361441000000001</v>
+        <v>0.12447506</v>
       </c>
       <c r="N16">
-        <v>3.7900885</v>
+        <v>0.4039939399999997</v>
       </c>
       <c r="O16">
-        <v>2.4587377</v>
+        <v>2.452800599999999</v>
       </c>
       <c r="P16">
-        <v>1.228924865275</v>
+        <v>1.227321960649999</v>
       </c>
       <c r="Q16">
-        <v>1.288088485</v>
+        <v>1.662092565</v>
       </c>
       <c r="R16">
-        <v>2.08264607685</v>
+        <v>0.9528792870999995</v>
       </c>
       <c r="S16">
-        <v>0.8584296668500001</v>
+        <v>1.108676150433333</v>
       </c>
       <c r="T16">
-        <v>2.08264607685</v>
+        <v>0.9528792870999995</v>
       </c>
       <c r="U16">
-        <v>1.5913443751375</v>
+        <v>0.9325055978249996</v>
       </c>
       <c r="V16">
-        <v>2.03109320011</v>
+        <v>0.8268032662599996</v>
       </c>
       <c r="W16">
-        <v>1.16231237269375</v>
+        <v>0.9618162889125004</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.057740926</v>
+        <v>0.00036689456</v>
       </c>
       <c r="D17">
-        <v>1.1679463</v>
+        <v>0.06623830999999999</v>
       </c>
       <c r="E17">
-        <v>0.44204243</v>
+        <v>0.043704763</v>
       </c>
       <c r="F17">
-        <v>0.057740926</v>
+        <v>0.00036689456</v>
       </c>
       <c r="G17">
-        <v>0.9046502699999999</v>
+        <v>4.5930156</v>
       </c>
       <c r="H17">
-        <v>0.9046502699999999</v>
+        <v>4.5930156</v>
       </c>
       <c r="I17">
-        <v>0.9046502699999999</v>
+        <v>4.5930156</v>
       </c>
       <c r="J17">
-        <v>1.1863664</v>
+        <v>0.7996755</v>
       </c>
       <c r="K17">
-        <v>0.88607985</v>
+        <v>0.66122928</v>
       </c>
       <c r="L17">
-        <v>1.6256621</v>
+        <v>2.4409209</v>
       </c>
       <c r="M17">
-        <v>0.49300052</v>
+        <v>0.092384641</v>
       </c>
       <c r="N17">
-        <v>0.9046502699999999</v>
+        <v>4.5930156</v>
       </c>
       <c r="O17">
-        <v>0.44204243</v>
+        <v>0.043704763</v>
       </c>
       <c r="P17">
-        <v>0.249891678</v>
+        <v>0.02203582878</v>
       </c>
       <c r="Q17">
-        <v>0.8142044150000001</v>
+        <v>0.4216901315</v>
       </c>
       <c r="R17">
-        <v>0.4681445419999999</v>
+        <v>1.54569575252</v>
       </c>
       <c r="S17">
-        <v>0.5620499186666666</v>
+        <v>0.28124905252</v>
       </c>
       <c r="T17">
-        <v>0.4681445419999999</v>
+        <v>1.54569575252</v>
       </c>
       <c r="U17">
-        <v>0.6477000065</v>
+        <v>1.35919068939</v>
       </c>
       <c r="V17">
-        <v>0.6990900592</v>
+        <v>2.005955671512</v>
       </c>
       <c r="W17">
-        <v>0.8454360995000001</v>
+        <v>1.08719198607</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.6745229524364383</v>
+        <v>-0.00088796945</v>
       </c>
       <c r="D18">
-        <v>0.9088529234246577</v>
+        <v>0.29059776</v>
       </c>
       <c r="E18">
-        <v>0.9482107330000001</v>
+        <v>2.4587377</v>
       </c>
       <c r="F18">
-        <v>0.6745229524364383</v>
+        <v>-0.00088796945</v>
       </c>
       <c r="G18">
-        <v>1.859208689117808</v>
+        <v>3.7900885</v>
       </c>
       <c r="H18">
-        <v>1.859208689117808</v>
+        <v>3.7900885</v>
       </c>
       <c r="I18">
-        <v>1.859208689117808</v>
+        <v>3.7900885</v>
       </c>
       <c r="J18">
-        <v>0.927156984109589</v>
+        <v>0.11743927</v>
       </c>
       <c r="K18">
-        <v>0.9979737419178081</v>
+        <v>1.8728177</v>
       </c>
       <c r="L18">
-        <v>1.074781947123287</v>
+        <v>0.76134458</v>
       </c>
       <c r="M18">
-        <v>0.7755475716849312</v>
+        <v>0.008361441000000001</v>
       </c>
       <c r="N18">
-        <v>1.859208689117808</v>
+        <v>3.7900885</v>
       </c>
       <c r="O18">
-        <v>0.9482107330000001</v>
+        <v>2.4587377</v>
       </c>
       <c r="P18">
-        <v>0.8113668427182192</v>
+        <v>1.228924865275</v>
       </c>
       <c r="Q18">
-        <v>0.9376838585547946</v>
+        <v>1.288088485</v>
       </c>
       <c r="R18">
-        <v>1.160647458184749</v>
+        <v>2.08264607685</v>
       </c>
       <c r="S18">
-        <v>0.8499635565153425</v>
+        <v>0.8584296668500001</v>
       </c>
       <c r="T18">
-        <v>1.160647458184749</v>
+        <v>2.08264607685</v>
       </c>
       <c r="U18">
-        <v>1.102274839665959</v>
+        <v>1.5913443751375</v>
       </c>
       <c r="V18">
-        <v>1.253661609556329</v>
+        <v>2.03109320011</v>
       </c>
       <c r="W18">
-        <v>1.020781942851815</v>
+        <v>1.16231237269375</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.03555173832631579</v>
+        <v>0.057740926</v>
       </c>
       <c r="D19">
-        <v>1.000491594736842</v>
+        <v>1.1679463</v>
       </c>
       <c r="E19">
-        <v>1.772250611578947</v>
+        <v>0.44204243</v>
       </c>
       <c r="F19">
-        <v>0.03555173832631579</v>
+        <v>0.057740926</v>
       </c>
       <c r="G19">
-        <v>1.02668177068421</v>
+        <v>0.9046502699999999</v>
       </c>
       <c r="H19">
-        <v>1.02668177068421</v>
+        <v>0.9046502699999999</v>
       </c>
       <c r="I19">
-        <v>1.02668177068421</v>
+        <v>0.9046502699999999</v>
       </c>
       <c r="J19">
-        <v>0.8652914631578946</v>
+        <v>1.1863664</v>
       </c>
       <c r="K19">
-        <v>1.360625138947369</v>
+        <v>0.88607985</v>
       </c>
       <c r="L19">
-        <v>1.094885611578947</v>
+        <v>1.6256621</v>
       </c>
       <c r="M19">
-        <v>0.3582984451578948</v>
+        <v>0.49300052</v>
       </c>
       <c r="N19">
-        <v>1.02668177068421</v>
+        <v>0.9046502699999999</v>
       </c>
       <c r="O19">
-        <v>1.772250611578947</v>
+        <v>0.44204243</v>
       </c>
       <c r="P19">
-        <v>0.9039011749526314</v>
+        <v>0.249891678</v>
       </c>
       <c r="Q19">
-        <v>1.318771037368421</v>
+        <v>0.8142044150000001</v>
       </c>
       <c r="R19">
-        <v>0.9448280401964911</v>
+        <v>0.4681445419999999</v>
       </c>
       <c r="S19">
-        <v>0.8910312710210525</v>
+        <v>0.5620499186666666</v>
       </c>
       <c r="T19">
-        <v>0.9448280401964911</v>
+        <v>0.4681445419999999</v>
       </c>
       <c r="U19">
-        <v>0.924943895936842</v>
+        <v>0.6477000065</v>
       </c>
       <c r="V19">
-        <v>0.9452914708863156</v>
+        <v>0.6990900592</v>
       </c>
       <c r="W19">
-        <v>0.9392595467710527</v>
+        <v>0.8454360995000001</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.5785496097242103</v>
+        <v>0.6745229524364383</v>
       </c>
       <c r="D20">
-        <v>0.6572802393157897</v>
+        <v>0.9088529234246577</v>
       </c>
       <c r="E20">
-        <v>1.526399115263158</v>
+        <v>0.9482107330000001</v>
       </c>
       <c r="F20">
-        <v>0.5785496097242103</v>
+        <v>0.6745229524364383</v>
       </c>
       <c r="G20">
-        <v>1.50357895148421</v>
+        <v>1.859208689117808</v>
       </c>
       <c r="H20">
-        <v>1.50357895148421</v>
+        <v>1.859208689117808</v>
       </c>
       <c r="I20">
-        <v>1.50357895148421</v>
+        <v>1.859208689117808</v>
       </c>
       <c r="J20">
-        <v>0.7463373363157895</v>
+        <v>0.927156984109589</v>
       </c>
       <c r="K20">
-        <v>1.407366578947369</v>
+        <v>0.9979737419178081</v>
       </c>
       <c r="L20">
-        <v>1.160968268947368</v>
+        <v>1.074781947123287</v>
       </c>
       <c r="M20">
-        <v>0.5507114603157893</v>
+        <v>0.7755475716849312</v>
       </c>
       <c r="N20">
-        <v>1.50357895148421</v>
+        <v>1.859208689117808</v>
       </c>
       <c r="O20">
-        <v>1.526399115263158</v>
+        <v>0.9482107330000001</v>
       </c>
       <c r="P20">
-        <v>1.052474362493684</v>
+        <v>0.8113668427182192</v>
       </c>
       <c r="Q20">
-        <v>1.136368225789474</v>
+        <v>0.9376838585547946</v>
       </c>
       <c r="R20">
-        <v>1.20284255882386</v>
+        <v>1.160647458184749</v>
       </c>
       <c r="S20">
-        <v>0.9504286871010527</v>
+        <v>0.8499635565153425</v>
       </c>
       <c r="T20">
-        <v>1.20284255882386</v>
+        <v>1.160647458184749</v>
       </c>
       <c r="U20">
-        <v>1.088716253196842</v>
+        <v>1.102274839665959</v>
       </c>
       <c r="V20">
-        <v>1.171688792854316</v>
+        <v>1.253661609556329</v>
       </c>
       <c r="W20">
-        <v>1.016398945039211</v>
+        <v>1.020781942851815</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4235912798603679</v>
+        <v>0.03555173832631579</v>
       </c>
       <c r="D21">
-        <v>1.357358391039098</v>
+        <v>1.000491594736842</v>
       </c>
       <c r="E21">
-        <v>1.687979714060704</v>
+        <v>1.772250611578947</v>
       </c>
       <c r="F21">
-        <v>0.4235912798603679</v>
+        <v>0.03555173832631579</v>
       </c>
       <c r="G21">
-        <v>0.1650531537870888</v>
+        <v>1.02668177068421</v>
       </c>
       <c r="H21">
-        <v>0.1650531537870888</v>
+        <v>1.02668177068421</v>
       </c>
       <c r="I21">
-        <v>0.1650531537870888</v>
+        <v>1.02668177068421</v>
       </c>
       <c r="J21">
-        <v>0.8975280035988905</v>
+        <v>0.8652914631578946</v>
       </c>
       <c r="K21">
-        <v>1.259439918840724</v>
+        <v>1.360625138947369</v>
       </c>
       <c r="L21">
-        <v>0.77625758260324</v>
+        <v>1.094885611578947</v>
       </c>
       <c r="M21">
-        <v>0.7870359093932872</v>
+        <v>0.3582984451578948</v>
       </c>
       <c r="N21">
-        <v>0.1650531537870888</v>
+        <v>1.02668177068421</v>
       </c>
       <c r="O21">
-        <v>1.687979714060704</v>
+        <v>1.772250611578947</v>
       </c>
       <c r="P21">
-        <v>1.055785496960536</v>
+        <v>0.9039011749526314</v>
       </c>
       <c r="Q21">
-        <v>1.292753858829797</v>
+        <v>1.318771037368421</v>
       </c>
       <c r="R21">
-        <v>0.7588747159027203</v>
+        <v>0.9448280401964911</v>
       </c>
       <c r="S21">
-        <v>1.003032999173321</v>
+        <v>0.8910312710210525</v>
       </c>
       <c r="T21">
-        <v>0.7588747159027204</v>
+        <v>0.9448280401964911</v>
       </c>
       <c r="U21">
-        <v>0.7935380378267629</v>
+        <v>0.924943895936842</v>
       </c>
       <c r="V21">
-        <v>0.6678410610188281</v>
+        <v>0.9452914708863156</v>
       </c>
       <c r="W21">
-        <v>0.9192804941479251</v>
+        <v>0.9392595467710527</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.305374887662678</v>
+        <v>0.5785496097242103</v>
       </c>
       <c r="D22">
-        <v>0.8207628998906888</v>
+        <v>0.6572802393157897</v>
       </c>
       <c r="E22">
-        <v>0.7255394228740227</v>
+        <v>1.526399115263158</v>
       </c>
       <c r="F22">
-        <v>1.305374887662678</v>
+        <v>0.5785496097242103</v>
       </c>
       <c r="G22">
-        <v>1.302124619538872</v>
+        <v>1.50357895148421</v>
       </c>
       <c r="H22">
-        <v>1.302124619538872</v>
+        <v>1.50357895148421</v>
       </c>
       <c r="I22">
-        <v>1.302124619538872</v>
+        <v>1.50357895148421</v>
       </c>
       <c r="J22">
-        <v>1.039502025313966</v>
+        <v>0.7463373363157895</v>
       </c>
       <c r="K22">
-        <v>0.9301382614120728</v>
+        <v>1.407366578947369</v>
       </c>
       <c r="L22">
-        <v>1.099764986339184</v>
+        <v>1.160968268947368</v>
       </c>
       <c r="M22">
-        <v>1.081921546013899</v>
+        <v>0.5507114603157893</v>
       </c>
       <c r="N22">
-        <v>1.302124619538872</v>
+        <v>1.50357895148421</v>
       </c>
       <c r="O22">
-        <v>0.7255394228740227</v>
+        <v>1.526399115263158</v>
       </c>
       <c r="P22">
-        <v>1.01545715526835</v>
+        <v>1.052474362493684</v>
       </c>
       <c r="Q22">
-        <v>0.8825207240939945</v>
+        <v>1.136368225789474</v>
       </c>
       <c r="R22">
-        <v>1.111012976691858</v>
+        <v>1.20284255882386</v>
       </c>
       <c r="S22">
-        <v>1.023472111950222</v>
+        <v>0.9504286871010527</v>
       </c>
       <c r="T22">
-        <v>1.111012976691858</v>
+        <v>1.20284255882386</v>
       </c>
       <c r="U22">
-        <v>1.093135238847385</v>
+        <v>1.088716253196842</v>
       </c>
       <c r="V22">
-        <v>1.134933114985682</v>
+        <v>1.171688792854316</v>
       </c>
       <c r="W22">
-        <v>1.038141081130673</v>
+        <v>1.016398945039211</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.492343952233583</v>
+        <v>0.4235912798603679</v>
       </c>
       <c r="D23">
-        <v>0.8897228076815409</v>
+        <v>1.357358391039098</v>
       </c>
       <c r="E23">
-        <v>0.468438408364756</v>
+        <v>1.687979714060704</v>
       </c>
       <c r="F23">
-        <v>1.492343952233583</v>
+        <v>0.4235912798603679</v>
       </c>
       <c r="G23">
-        <v>1.22717483986535</v>
+        <v>0.1650531537870888</v>
       </c>
       <c r="H23">
-        <v>1.22717483986535</v>
+        <v>0.1650531537870888</v>
       </c>
       <c r="I23">
-        <v>1.22717483986535</v>
+        <v>0.1650531537870888</v>
       </c>
       <c r="J23">
-        <v>1.094414183780104</v>
+        <v>0.8975280035988905</v>
       </c>
       <c r="K23">
-        <v>0.7580141281995953</v>
+        <v>1.259439918840724</v>
       </c>
       <c r="L23">
-        <v>1.120483807619306</v>
+        <v>0.77625758260324</v>
       </c>
       <c r="M23">
-        <v>1.282097288238961</v>
+        <v>0.7870359093932872</v>
       </c>
       <c r="N23">
-        <v>1.22717483986535</v>
+        <v>0.1650531537870888</v>
       </c>
       <c r="O23">
-        <v>0.468438408364756</v>
+        <v>1.687979714060704</v>
       </c>
       <c r="P23">
-        <v>0.9803911802991696</v>
+        <v>1.055785496960536</v>
       </c>
       <c r="Q23">
-        <v>0.7814262960724301</v>
+        <v>1.292753858829797</v>
       </c>
       <c r="R23">
-        <v>1.062652400154563</v>
+        <v>0.7588747159027203</v>
       </c>
       <c r="S23">
-        <v>1.018398848126148</v>
+        <v>1.003032999173321</v>
       </c>
       <c r="T23">
-        <v>1.062652400154563</v>
+        <v>0.7588747159027204</v>
       </c>
       <c r="U23">
-        <v>1.070592846060948</v>
+        <v>0.7935380378267629</v>
       </c>
       <c r="V23">
-        <v>1.101909244821829</v>
+        <v>0.6678410610188281</v>
       </c>
       <c r="W23">
-        <v>1.0415861769979</v>
+        <v>0.9192804941479251</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.001244636063881</v>
+        <v>1.305374887662678</v>
       </c>
       <c r="D24">
-        <v>1.092070993600726</v>
+        <v>0.8207628998906888</v>
       </c>
       <c r="E24">
-        <v>1.184327289659022</v>
+        <v>0.7255394228740227</v>
       </c>
       <c r="F24">
-        <v>1.001244636063881</v>
+        <v>1.305374887662678</v>
       </c>
       <c r="G24">
-        <v>0.8463522056953448</v>
+        <v>1.302124619538872</v>
       </c>
       <c r="H24">
-        <v>0.8463522056953448</v>
+        <v>1.302124619538872</v>
       </c>
       <c r="I24">
-        <v>0.8463522056953448</v>
+        <v>1.302124619538872</v>
       </c>
       <c r="J24">
-        <v>0.9811880439265864</v>
+        <v>1.039502025313966</v>
       </c>
       <c r="K24">
-        <v>1.039186110510082</v>
+        <v>0.9301382614120728</v>
       </c>
       <c r="L24">
-        <v>0.8627137598215937</v>
+        <v>1.099764986339184</v>
       </c>
       <c r="M24">
-        <v>0.9986527860727329</v>
+        <v>1.081921546013899</v>
       </c>
       <c r="N24">
-        <v>0.8463522056953448</v>
+        <v>1.302124619538872</v>
       </c>
       <c r="O24">
-        <v>1.184327289659022</v>
+        <v>0.7255394228740227</v>
       </c>
       <c r="P24">
-        <v>1.092785962861451</v>
+        <v>1.01545715526835</v>
       </c>
       <c r="Q24">
-        <v>1.082757666792804</v>
+        <v>0.8825207240939945</v>
       </c>
       <c r="R24">
-        <v>1.010641377139416</v>
+        <v>1.111012976691858</v>
       </c>
       <c r="S24">
-        <v>1.05558665654983</v>
+        <v>1.023472111950222</v>
       </c>
       <c r="T24">
-        <v>1.010641377139416</v>
+        <v>1.111012976691858</v>
       </c>
       <c r="U24">
-        <v>1.003278043836209</v>
+        <v>1.093135238847385</v>
       </c>
       <c r="V24">
-        <v>0.9718928762080358</v>
+        <v>1.134933114985682</v>
       </c>
       <c r="W24">
-        <v>1.000716978168746</v>
+        <v>1.038141081130673</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.436541443852888</v>
+        <v>1.492343952233583</v>
       </c>
       <c r="D25">
-        <v>0.7189228809803111</v>
+        <v>0.8897228076815409</v>
       </c>
       <c r="E25">
-        <v>0.5815124620667023</v>
+        <v>0.468438408364756</v>
       </c>
       <c r="F25">
-        <v>1.436541443852888</v>
+        <v>1.492343952233583</v>
       </c>
       <c r="G25">
-        <v>1.509005509504305</v>
+        <v>1.22717483986535</v>
       </c>
       <c r="H25">
-        <v>1.509005509504305</v>
+        <v>1.22717483986535</v>
       </c>
       <c r="I25">
-        <v>1.509005509504305</v>
+        <v>1.22717483986535</v>
       </c>
       <c r="J25">
-        <v>0.9721687880883134</v>
+        <v>1.094414183780104</v>
       </c>
       <c r="K25">
-        <v>0.8730002389342504</v>
+        <v>0.7580141281995953</v>
       </c>
       <c r="L25">
-        <v>1.149415320175668</v>
+        <v>1.120483807619306</v>
       </c>
       <c r="M25">
-        <v>1.154963322356839</v>
+        <v>1.282097288238961</v>
       </c>
       <c r="N25">
-        <v>1.509005509504305</v>
+        <v>1.22717483986535</v>
       </c>
       <c r="O25">
-        <v>0.5815124620667023</v>
+        <v>0.468438408364756</v>
       </c>
       <c r="P25">
-        <v>1.009026952959795</v>
+        <v>0.9803911802991696</v>
       </c>
       <c r="Q25">
-        <v>0.7768406250775078</v>
+        <v>0.7814262960724301</v>
       </c>
       <c r="R25">
-        <v>1.175686471807965</v>
+        <v>1.062652400154563</v>
       </c>
       <c r="S25">
-        <v>0.9967408980026345</v>
+        <v>1.018398848126148</v>
       </c>
       <c r="T25">
-        <v>1.175686471807965</v>
+        <v>1.062652400154563</v>
       </c>
       <c r="U25">
-        <v>1.124807050878052</v>
+        <v>1.070592846060948</v>
       </c>
       <c r="V25">
-        <v>1.201646742603303</v>
+        <v>1.101909244821829</v>
       </c>
       <c r="W25">
-        <v>1.04944124574491</v>
+        <v>1.0415861769979</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.6854487644325725</v>
+        <v>1.001244636063881</v>
       </c>
       <c r="D26">
-        <v>1.24516039221563</v>
+        <v>1.092070993600726</v>
       </c>
       <c r="E26">
-        <v>1.116720134532141</v>
+        <v>1.184327289659022</v>
       </c>
       <c r="F26">
-        <v>0.6854487644325725</v>
+        <v>1.001244636063881</v>
       </c>
       <c r="G26">
-        <v>0.8819807653434245</v>
+        <v>0.8463522056953448</v>
       </c>
       <c r="H26">
-        <v>0.8819807653434245</v>
+        <v>0.8463522056953448</v>
       </c>
       <c r="I26">
-        <v>0.8819807653434245</v>
+        <v>0.8463522056953448</v>
       </c>
       <c r="J26">
-        <v>1.049910279235624</v>
+        <v>0.9811880439265864</v>
       </c>
       <c r="K26">
-        <v>0.9604870882090654</v>
+        <v>1.039186110510082</v>
       </c>
       <c r="L26">
-        <v>0.874821717680361</v>
+        <v>0.8627137598215937</v>
       </c>
       <c r="M26">
-        <v>0.9564119005892099</v>
+        <v>0.9986527860727329</v>
       </c>
       <c r="N26">
-        <v>0.8819807653434245</v>
+        <v>0.8463522056953448</v>
       </c>
       <c r="O26">
-        <v>1.116720134532141</v>
+        <v>1.184327289659022</v>
       </c>
       <c r="P26">
-        <v>0.9010844494823567</v>
+        <v>1.092785962861451</v>
       </c>
       <c r="Q26">
-        <v>1.083315206883883</v>
+        <v>1.082757666792804</v>
       </c>
       <c r="R26">
-        <v>0.8947165547693793</v>
+        <v>1.010641377139416</v>
       </c>
       <c r="S26">
-        <v>0.9506930594001126</v>
+        <v>1.05558665654983</v>
       </c>
       <c r="T26">
-        <v>0.8947165547693793</v>
+        <v>1.010641377139416</v>
       </c>
       <c r="U26">
-        <v>0.9335149858859406</v>
+        <v>1.003278043836209</v>
       </c>
       <c r="V26">
-        <v>0.9232081417774374</v>
+        <v>0.9718928762080358</v>
       </c>
       <c r="W26">
-        <v>0.9713676302797536</v>
+        <v>1.000716978168746</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.221511957213343</v>
+        <v>1.436541443852888</v>
       </c>
       <c r="D27">
-        <v>0.8534904360178763</v>
+        <v>0.7189228809803111</v>
       </c>
       <c r="E27">
-        <v>1.072907696358586</v>
+        <v>0.5815124620667023</v>
       </c>
       <c r="F27">
-        <v>1.221511957213343</v>
+        <v>1.436541443852888</v>
       </c>
       <c r="G27">
-        <v>0.9443436487414951</v>
+        <v>1.509005509504305</v>
       </c>
       <c r="H27">
-        <v>0.9443436487414951</v>
+        <v>1.509005509504305</v>
       </c>
       <c r="I27">
-        <v>0.9443436487414951</v>
+        <v>1.509005509504305</v>
       </c>
       <c r="J27">
-        <v>0.9752763656266638</v>
+        <v>0.9721687880883134</v>
       </c>
       <c r="K27">
-        <v>1.081293591306074</v>
+        <v>0.8730002389342504</v>
       </c>
       <c r="L27">
-        <v>1.079716768884148</v>
+        <v>1.149415320175668</v>
       </c>
       <c r="M27">
-        <v>0.9282714430482865</v>
+        <v>1.154963322356839</v>
       </c>
       <c r="N27">
-        <v>0.9443436487414951</v>
+        <v>1.509005509504305</v>
       </c>
       <c r="O27">
-        <v>1.072907696358586</v>
+        <v>0.5815124620667023</v>
       </c>
       <c r="P27">
-        <v>1.147209826785965</v>
+        <v>1.009026952959795</v>
       </c>
       <c r="Q27">
-        <v>1.024092030992625</v>
+        <v>0.7768406250775078</v>
       </c>
       <c r="R27">
-        <v>1.079587767437808</v>
+        <v>1.175686471807965</v>
       </c>
       <c r="S27">
-        <v>1.089898673066197</v>
+        <v>0.9967408980026345</v>
       </c>
       <c r="T27">
-        <v>1.079587767437808</v>
+        <v>1.175686471807965</v>
       </c>
       <c r="U27">
-        <v>1.053509916985022</v>
+        <v>1.124807050878052</v>
       </c>
       <c r="V27">
-        <v>1.031676663336317</v>
+        <v>1.201646742603303</v>
       </c>
       <c r="W27">
-        <v>1.019601488399559</v>
+        <v>1.04944124574491</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.005095252327439</v>
+        <v>0.6854487644325725</v>
       </c>
       <c r="D28">
-        <v>1.027653898111671</v>
+        <v>1.24516039221563</v>
       </c>
       <c r="E28">
-        <v>1.04183278139779</v>
+        <v>1.116720134532141</v>
       </c>
       <c r="F28">
-        <v>1.005095252327439</v>
+        <v>0.6854487644325725</v>
       </c>
       <c r="G28">
-        <v>1.162946416017749</v>
+        <v>0.8819807653434245</v>
       </c>
       <c r="H28">
-        <v>1.162946416017749</v>
+        <v>0.8819807653434245</v>
       </c>
       <c r="I28">
-        <v>1.162946416017749</v>
+        <v>0.8819807653434245</v>
       </c>
       <c r="J28">
-        <v>0.8884164645802236</v>
+        <v>1.049910279235624</v>
       </c>
       <c r="K28">
-        <v>1.056138809802057</v>
+        <v>0.9604870882090654</v>
       </c>
       <c r="L28">
-        <v>0.9409305989804441</v>
+        <v>0.874821717680361</v>
       </c>
       <c r="M28">
-        <v>0.9416368899639835</v>
+        <v>0.9564119005892099</v>
       </c>
       <c r="N28">
-        <v>1.162946416017749</v>
+        <v>0.8819807653434245</v>
       </c>
       <c r="O28">
-        <v>1.04183278139779</v>
+        <v>1.116720134532141</v>
       </c>
       <c r="P28">
-        <v>1.023464016862614</v>
+        <v>0.9010844494823567</v>
       </c>
       <c r="Q28">
-        <v>0.9651246229890067</v>
+        <v>1.083315206883883</v>
       </c>
       <c r="R28">
-        <v>1.069958149914326</v>
+        <v>0.8947165547693793</v>
       </c>
       <c r="S28">
-        <v>0.9784481661018173</v>
+        <v>0.9506930594001126</v>
       </c>
       <c r="T28">
-        <v>1.069958149914325</v>
+        <v>0.8947165547693793</v>
       </c>
       <c r="U28">
-        <v>1.0245727285808</v>
+        <v>0.9335149858859406</v>
       </c>
       <c r="V28">
-        <v>1.05224746606819</v>
+        <v>0.9232081417774374</v>
       </c>
       <c r="W28">
-        <v>1.00808138889767</v>
+        <v>0.9713676302797536</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.221511957213343</v>
+      </c>
+      <c r="D29">
+        <v>0.8534904360178763</v>
+      </c>
+      <c r="E29">
+        <v>1.072907696358586</v>
+      </c>
+      <c r="F29">
+        <v>1.221511957213343</v>
+      </c>
+      <c r="G29">
+        <v>0.9443436487414951</v>
+      </c>
+      <c r="H29">
+        <v>0.9443436487414951</v>
+      </c>
+      <c r="I29">
+        <v>0.9443436487414951</v>
+      </c>
+      <c r="J29">
+        <v>0.9752763656266638</v>
+      </c>
+      <c r="K29">
+        <v>1.081293591306074</v>
+      </c>
+      <c r="L29">
+        <v>1.079716768884148</v>
+      </c>
+      <c r="M29">
+        <v>0.9282714430482865</v>
+      </c>
+      <c r="N29">
+        <v>0.9443436487414951</v>
+      </c>
+      <c r="O29">
+        <v>1.072907696358586</v>
+      </c>
+      <c r="P29">
+        <v>1.147209826785965</v>
+      </c>
+      <c r="Q29">
+        <v>1.024092030992625</v>
+      </c>
+      <c r="R29">
+        <v>1.079587767437808</v>
+      </c>
+      <c r="S29">
+        <v>1.089898673066197</v>
+      </c>
+      <c r="T29">
+        <v>1.079587767437808</v>
+      </c>
+      <c r="U29">
+        <v>1.053509916985022</v>
+      </c>
+      <c r="V29">
+        <v>1.031676663336317</v>
+      </c>
+      <c r="W29">
+        <v>1.019601488399559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.005095252327439</v>
+      </c>
+      <c r="D30">
+        <v>1.027653898111671</v>
+      </c>
+      <c r="E30">
+        <v>1.04183278139779</v>
+      </c>
+      <c r="F30">
+        <v>1.005095252327439</v>
+      </c>
+      <c r="G30">
+        <v>1.162946416017749</v>
+      </c>
+      <c r="H30">
+        <v>1.162946416017749</v>
+      </c>
+      <c r="I30">
+        <v>1.162946416017749</v>
+      </c>
+      <c r="J30">
+        <v>0.8884164645802236</v>
+      </c>
+      <c r="K30">
+        <v>1.056138809802057</v>
+      </c>
+      <c r="L30">
+        <v>0.9409305989804441</v>
+      </c>
+      <c r="M30">
+        <v>0.9416368899639835</v>
+      </c>
+      <c r="N30">
+        <v>1.162946416017749</v>
+      </c>
+      <c r="O30">
+        <v>1.04183278139779</v>
+      </c>
+      <c r="P30">
+        <v>1.023464016862614</v>
+      </c>
+      <c r="Q30">
+        <v>0.9651246229890067</v>
+      </c>
+      <c r="R30">
+        <v>1.069958149914326</v>
+      </c>
+      <c r="S30">
+        <v>0.9784481661018173</v>
+      </c>
+      <c r="T30">
+        <v>1.069958149914325</v>
+      </c>
+      <c r="U30">
+        <v>1.0245727285808</v>
+      </c>
+      <c r="V30">
+        <v>1.05224746606819</v>
+      </c>
+      <c r="W30">
+        <v>1.00808138889767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.8781683941745054</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.143713523315594</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.469270453685636</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.8781683941745054</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.854658166624207</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.854658166624207</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.854658166624207</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.132368528422138</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.8569850349082269</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.146712710543587</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.072665866153788</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.854658166624207</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.469270453685636</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.6737194239300707</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.8008194910538871</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.7340323381614494</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.8266024587607598</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.7340323381614495</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.8336163857266217</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.8378247419061389</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9443178347284603</v>
       </c>
     </row>
